--- a/DC2_intf_selectors.xlsx
+++ b/DC2_intf_selectors.xlsx
@@ -1268,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,13 +1280,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1305,6 +1307,8 @@
       <c r="I1" s="71" t="n"/>
       <c r="J1" s="71" t="n"/>
       <c r="K1" s="71" t="n"/>
+      <c r="L1" s="71" t="n"/>
+      <c r="M1" s="71" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -1322,6 +1326,8 @@
       <c r="I2" s="71" t="n"/>
       <c r="J2" s="71" t="n"/>
       <c r="K2" s="71" t="n"/>
+      <c r="L2" s="71" t="n"/>
+      <c r="M2" s="71" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -1331,50 +1337,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -1388,22 +1404,32 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -1413,22 +1439,32 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -1438,22 +1474,32 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -1463,22 +1509,32 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -1488,22 +1544,32 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -1513,22 +1579,32 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -1538,22 +1614,32 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -1563,22 +1649,32 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -1588,22 +1684,32 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -1613,22 +1719,32 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -1638,22 +1754,32 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -1663,22 +1789,32 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -1688,22 +1824,32 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -1713,22 +1859,32 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -1738,22 +1894,32 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -1763,22 +1929,32 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -1788,22 +1964,32 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -1813,22 +1999,32 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -1838,22 +2034,32 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -1863,22 +2069,32 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -1888,22 +2104,32 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -1913,22 +2139,32 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -1938,22 +2174,32 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -1963,22 +2209,32 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -1988,22 +2244,32 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -2013,22 +2279,32 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -2038,22 +2314,32 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -2063,22 +2349,32 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -2088,22 +2384,32 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -2113,22 +2419,32 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -2138,22 +2454,32 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -2163,22 +2489,32 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -2188,22 +2524,32 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth2-01</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -2213,22 +2559,32 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth2-02</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -2238,22 +2594,32 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth2-03</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>2/3</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -2263,22 +2629,32 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth2-04</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>2/4</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -2288,22 +2664,32 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth2-05</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>2/5</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -2313,22 +2699,32 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth2-06</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>2/6</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -2338,22 +2734,32 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth2-07</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>2/7</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -2363,22 +2769,32 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth2-08</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>2/8</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -2388,22 +2804,32 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth2-09</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>2/9</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -2413,22 +2839,32 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth2-10</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>2/10</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -2438,22 +2874,32 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth2-11</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>2/11</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -2463,22 +2909,32 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth2-12</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>2/12</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -2488,22 +2944,32 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth2-13</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>2/13</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -2513,22 +2979,32 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth2-14</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>2/14</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -2538,22 +3014,32 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth2-15</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>2/15</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -2563,22 +3049,32 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth2-16</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>2/16</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -2588,22 +3084,32 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth2-17</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>2/17</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -2613,22 +3119,32 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth2-18</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>2/18</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -2638,22 +3154,32 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth2-19</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>2/19</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -2663,22 +3189,32 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth2-20</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>2/20</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -2688,22 +3224,32 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth2-21</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>2/21</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -2713,22 +3259,32 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth2-22</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>2/22</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="65" t="inlineStr">
@@ -2738,22 +3294,32 @@
       </c>
       <c r="B58" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C58" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D58" s="65" t="inlineStr">
+        <is>
           <t>Eth2-23</t>
         </is>
       </c>
-      <c r="C58" s="65" t="inlineStr">
+      <c r="E58" s="65" t="inlineStr">
         <is>
           <t>2/23</t>
         </is>
       </c>
-      <c r="D58" s="65" t="inlineStr"/>
-      <c r="E58" s="65" t="inlineStr"/>
       <c r="F58" s="65" t="inlineStr"/>
       <c r="G58" s="65" t="inlineStr"/>
       <c r="H58" s="65" t="inlineStr"/>
       <c r="I58" s="65" t="inlineStr"/>
-      <c r="J58" s="65" t="n"/>
-      <c r="K58" s="65" t="n"/>
+      <c r="J58" s="65" t="inlineStr"/>
+      <c r="K58" s="65" t="inlineStr"/>
+      <c r="L58" s="65" t="n"/>
+      <c r="M58" s="65" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="64" t="inlineStr">
@@ -2763,22 +3329,32 @@
       </c>
       <c r="B59" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C59" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D59" s="64" t="inlineStr">
+        <is>
           <t>Eth2-24</t>
         </is>
       </c>
-      <c r="C59" s="64" t="inlineStr">
+      <c r="E59" s="64" t="inlineStr">
         <is>
           <t>2/24</t>
         </is>
       </c>
-      <c r="D59" s="64" t="inlineStr"/>
-      <c r="E59" s="64" t="inlineStr"/>
       <c r="F59" s="64" t="inlineStr"/>
       <c r="G59" s="64" t="inlineStr"/>
       <c r="H59" s="64" t="inlineStr"/>
       <c r="I59" s="64" t="inlineStr"/>
-      <c r="J59" s="64" t="n"/>
-      <c r="K59" s="64" t="n"/>
+      <c r="J59" s="64" t="inlineStr"/>
+      <c r="K59" s="64" t="inlineStr"/>
+      <c r="L59" s="64" t="n"/>
+      <c r="M59" s="64" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="65" t="inlineStr">
@@ -2788,22 +3364,32 @@
       </c>
       <c r="B60" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C60" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D60" s="65" t="inlineStr">
+        <is>
           <t>Eth2-25</t>
         </is>
       </c>
-      <c r="C60" s="65" t="inlineStr">
+      <c r="E60" s="65" t="inlineStr">
         <is>
           <t>2/25</t>
         </is>
       </c>
-      <c r="D60" s="65" t="inlineStr"/>
-      <c r="E60" s="65" t="inlineStr"/>
       <c r="F60" s="65" t="inlineStr"/>
       <c r="G60" s="65" t="inlineStr"/>
       <c r="H60" s="65" t="inlineStr"/>
       <c r="I60" s="65" t="inlineStr"/>
-      <c r="J60" s="65" t="n"/>
-      <c r="K60" s="65" t="n"/>
+      <c r="J60" s="65" t="inlineStr"/>
+      <c r="K60" s="65" t="inlineStr"/>
+      <c r="L60" s="65" t="n"/>
+      <c r="M60" s="65" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="64" t="inlineStr">
@@ -2813,22 +3399,32 @@
       </c>
       <c r="B61" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C61" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D61" s="64" t="inlineStr">
+        <is>
           <t>Eth2-26</t>
         </is>
       </c>
-      <c r="C61" s="64" t="inlineStr">
+      <c r="E61" s="64" t="inlineStr">
         <is>
           <t>2/26</t>
         </is>
       </c>
-      <c r="D61" s="64" t="inlineStr"/>
-      <c r="E61" s="64" t="inlineStr"/>
       <c r="F61" s="64" t="inlineStr"/>
       <c r="G61" s="64" t="inlineStr"/>
       <c r="H61" s="64" t="inlineStr"/>
       <c r="I61" s="64" t="inlineStr"/>
-      <c r="J61" s="64" t="n"/>
-      <c r="K61" s="64" t="n"/>
+      <c r="J61" s="64" t="inlineStr"/>
+      <c r="K61" s="64" t="inlineStr"/>
+      <c r="L61" s="64" t="n"/>
+      <c r="M61" s="64" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="65" t="inlineStr">
@@ -2838,22 +3434,32 @@
       </c>
       <c r="B62" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C62" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D62" s="65" t="inlineStr">
+        <is>
           <t>Eth2-27</t>
         </is>
       </c>
-      <c r="C62" s="65" t="inlineStr">
+      <c r="E62" s="65" t="inlineStr">
         <is>
           <t>2/27</t>
         </is>
       </c>
-      <c r="D62" s="65" t="inlineStr"/>
-      <c r="E62" s="65" t="inlineStr"/>
       <c r="F62" s="65" t="inlineStr"/>
       <c r="G62" s="65" t="inlineStr"/>
       <c r="H62" s="65" t="inlineStr"/>
       <c r="I62" s="65" t="inlineStr"/>
-      <c r="J62" s="65" t="n"/>
-      <c r="K62" s="65" t="n"/>
+      <c r="J62" s="65" t="inlineStr"/>
+      <c r="K62" s="65" t="inlineStr"/>
+      <c r="L62" s="65" t="n"/>
+      <c r="M62" s="65" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="64" t="inlineStr">
@@ -2863,22 +3469,32 @@
       </c>
       <c r="B63" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C63" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D63" s="64" t="inlineStr">
+        <is>
           <t>Eth2-28</t>
         </is>
       </c>
-      <c r="C63" s="64" t="inlineStr">
+      <c r="E63" s="64" t="inlineStr">
         <is>
           <t>2/28</t>
         </is>
       </c>
-      <c r="D63" s="64" t="inlineStr"/>
-      <c r="E63" s="64" t="inlineStr"/>
       <c r="F63" s="64" t="inlineStr"/>
       <c r="G63" s="64" t="inlineStr"/>
       <c r="H63" s="64" t="inlineStr"/>
       <c r="I63" s="64" t="inlineStr"/>
-      <c r="J63" s="64" t="n"/>
-      <c r="K63" s="64" t="n"/>
+      <c r="J63" s="64" t="inlineStr"/>
+      <c r="K63" s="64" t="inlineStr"/>
+      <c r="L63" s="64" t="n"/>
+      <c r="M63" s="64" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="65" t="inlineStr">
@@ -2888,22 +3504,32 @@
       </c>
       <c r="B64" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C64" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D64" s="65" t="inlineStr">
+        <is>
           <t>Eth2-29</t>
         </is>
       </c>
-      <c r="C64" s="65" t="inlineStr">
+      <c r="E64" s="65" t="inlineStr">
         <is>
           <t>2/29</t>
         </is>
       </c>
-      <c r="D64" s="65" t="inlineStr"/>
-      <c r="E64" s="65" t="inlineStr"/>
       <c r="F64" s="65" t="inlineStr"/>
       <c r="G64" s="65" t="inlineStr"/>
       <c r="H64" s="65" t="inlineStr"/>
       <c r="I64" s="65" t="inlineStr"/>
-      <c r="J64" s="65" t="n"/>
-      <c r="K64" s="65" t="n"/>
+      <c r="J64" s="65" t="inlineStr"/>
+      <c r="K64" s="65" t="inlineStr"/>
+      <c r="L64" s="65" t="n"/>
+      <c r="M64" s="65" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="64" t="inlineStr">
@@ -2913,22 +3539,32 @@
       </c>
       <c r="B65" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C65" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D65" s="64" t="inlineStr">
+        <is>
           <t>Eth2-30</t>
         </is>
       </c>
-      <c r="C65" s="64" t="inlineStr">
+      <c r="E65" s="64" t="inlineStr">
         <is>
           <t>2/30</t>
         </is>
       </c>
-      <c r="D65" s="64" t="inlineStr"/>
-      <c r="E65" s="64" t="inlineStr"/>
       <c r="F65" s="64" t="inlineStr"/>
       <c r="G65" s="64" t="inlineStr"/>
       <c r="H65" s="64" t="inlineStr"/>
       <c r="I65" s="64" t="inlineStr"/>
-      <c r="J65" s="64" t="n"/>
-      <c r="K65" s="64" t="n"/>
+      <c r="J65" s="64" t="inlineStr"/>
+      <c r="K65" s="64" t="inlineStr"/>
+      <c r="L65" s="64" t="n"/>
+      <c r="M65" s="64" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="65" t="inlineStr">
@@ -2938,22 +3574,32 @@
       </c>
       <c r="B66" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C66" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D66" s="65" t="inlineStr">
+        <is>
           <t>Eth2-31</t>
         </is>
       </c>
-      <c r="C66" s="65" t="inlineStr">
+      <c r="E66" s="65" t="inlineStr">
         <is>
           <t>2/31</t>
         </is>
       </c>
-      <c r="D66" s="65" t="inlineStr"/>
-      <c r="E66" s="65" t="inlineStr"/>
       <c r="F66" s="65" t="inlineStr"/>
       <c r="G66" s="65" t="inlineStr"/>
       <c r="H66" s="65" t="inlineStr"/>
       <c r="I66" s="65" t="inlineStr"/>
-      <c r="J66" s="65" t="n"/>
-      <c r="K66" s="65" t="n"/>
+      <c r="J66" s="65" t="inlineStr"/>
+      <c r="K66" s="65" t="inlineStr"/>
+      <c r="L66" s="65" t="n"/>
+      <c r="M66" s="65" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="64" t="inlineStr">
@@ -2963,22 +3609,32 @@
       </c>
       <c r="B67" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C67" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D67" s="64" t="inlineStr">
+        <is>
           <t>Eth2-32</t>
         </is>
       </c>
-      <c r="C67" s="64" t="inlineStr">
+      <c r="E67" s="64" t="inlineStr">
         <is>
           <t>2/32</t>
         </is>
       </c>
-      <c r="D67" s="64" t="inlineStr"/>
-      <c r="E67" s="64" t="inlineStr"/>
       <c r="F67" s="64" t="inlineStr"/>
       <c r="G67" s="64" t="inlineStr"/>
       <c r="H67" s="64" t="inlineStr"/>
       <c r="I67" s="64" t="inlineStr"/>
-      <c r="J67" s="64" t="n"/>
-      <c r="K67" s="64" t="n"/>
+      <c r="J67" s="64" t="inlineStr"/>
+      <c r="K67" s="64" t="inlineStr"/>
+      <c r="L67" s="64" t="n"/>
+      <c r="M67" s="64" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="65" t="inlineStr">
@@ -2988,22 +3644,32 @@
       </c>
       <c r="B68" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C68" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D68" s="65" t="inlineStr">
+        <is>
           <t>Eth2-33</t>
         </is>
       </c>
-      <c r="C68" s="65" t="inlineStr">
+      <c r="E68" s="65" t="inlineStr">
         <is>
           <t>2/33</t>
         </is>
       </c>
-      <c r="D68" s="65" t="inlineStr"/>
-      <c r="E68" s="65" t="inlineStr"/>
       <c r="F68" s="65" t="inlineStr"/>
       <c r="G68" s="65" t="inlineStr"/>
       <c r="H68" s="65" t="inlineStr"/>
       <c r="I68" s="65" t="inlineStr"/>
-      <c r="J68" s="65" t="n"/>
-      <c r="K68" s="65" t="n"/>
+      <c r="J68" s="65" t="inlineStr"/>
+      <c r="K68" s="65" t="inlineStr"/>
+      <c r="L68" s="65" t="n"/>
+      <c r="M68" s="65" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="64" t="inlineStr">
@@ -3013,22 +3679,32 @@
       </c>
       <c r="B69" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C69" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D69" s="64" t="inlineStr">
+        <is>
           <t>Eth2-34</t>
         </is>
       </c>
-      <c r="C69" s="64" t="inlineStr">
+      <c r="E69" s="64" t="inlineStr">
         <is>
           <t>2/34</t>
         </is>
       </c>
-      <c r="D69" s="64" t="inlineStr"/>
-      <c r="E69" s="64" t="inlineStr"/>
       <c r="F69" s="64" t="inlineStr"/>
       <c r="G69" s="64" t="inlineStr"/>
       <c r="H69" s="64" t="inlineStr"/>
       <c r="I69" s="64" t="inlineStr"/>
-      <c r="J69" s="64" t="n"/>
-      <c r="K69" s="64" t="n"/>
+      <c r="J69" s="64" t="inlineStr"/>
+      <c r="K69" s="64" t="inlineStr"/>
+      <c r="L69" s="64" t="n"/>
+      <c r="M69" s="64" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="65" t="inlineStr">
@@ -3038,22 +3714,32 @@
       </c>
       <c r="B70" s="65" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C70" s="65" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D70" s="65" t="inlineStr">
+        <is>
           <t>Eth2-35</t>
         </is>
       </c>
-      <c r="C70" s="65" t="inlineStr">
+      <c r="E70" s="65" t="inlineStr">
         <is>
           <t>2/35</t>
         </is>
       </c>
-      <c r="D70" s="65" t="inlineStr"/>
-      <c r="E70" s="65" t="inlineStr"/>
       <c r="F70" s="65" t="inlineStr"/>
       <c r="G70" s="65" t="inlineStr"/>
       <c r="H70" s="65" t="inlineStr"/>
       <c r="I70" s="65" t="inlineStr"/>
-      <c r="J70" s="65" t="n"/>
-      <c r="K70" s="65" t="n"/>
+      <c r="J70" s="65" t="inlineStr"/>
+      <c r="K70" s="65" t="inlineStr"/>
+      <c r="L70" s="65" t="n"/>
+      <c r="M70" s="65" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="64" t="inlineStr">
@@ -3063,36 +3749,46 @@
       </c>
       <c r="B71" s="64" t="inlineStr">
         <is>
+          <t>dc2-spine101</t>
+        </is>
+      </c>
+      <c r="C71" s="64" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D71" s="64" t="inlineStr">
+        <is>
           <t>Eth2-36</t>
         </is>
       </c>
-      <c r="C71" s="64" t="inlineStr">
+      <c r="E71" s="64" t="inlineStr">
         <is>
           <t>2/36</t>
         </is>
       </c>
-      <c r="D71" s="64" t="inlineStr"/>
-      <c r="E71" s="64" t="inlineStr"/>
       <c r="F71" s="64" t="inlineStr"/>
       <c r="G71" s="64" t="inlineStr"/>
       <c r="H71" s="64" t="inlineStr"/>
       <c r="I71" s="64" t="inlineStr"/>
-      <c r="J71" s="64" t="n"/>
-      <c r="K71" s="64" t="n"/>
+      <c r="J71" s="64" t="inlineStr"/>
+      <c r="K71" s="64" t="inlineStr"/>
+      <c r="L71" s="64" t="n"/>
+      <c r="M71" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69 G70 G71" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F71" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H69 H70 H71" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3106,7 +3802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,13 +3814,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3143,6 +3841,8 @@
       <c r="I1" s="71" t="n"/>
       <c r="J1" s="71" t="n"/>
       <c r="K1" s="71" t="n"/>
+      <c r="L1" s="71" t="n"/>
+      <c r="M1" s="71" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -3160,6 +3860,8 @@
       <c r="I2" s="71" t="n"/>
       <c r="J2" s="71" t="n"/>
       <c r="K2" s="71" t="n"/>
+      <c r="L2" s="71" t="n"/>
+      <c r="M2" s="71" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -3169,50 +3871,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -3226,22 +3938,32 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -3251,22 +3973,32 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -3276,22 +4008,32 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -3301,22 +4043,32 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -3326,22 +4078,32 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -3351,22 +4113,32 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -3376,22 +4148,32 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -3401,22 +4183,32 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -3426,22 +4218,32 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -3451,22 +4253,32 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -3476,22 +4288,32 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -3501,22 +4323,32 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -3526,22 +4358,32 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -3551,22 +4393,32 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -3576,22 +4428,32 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -3601,22 +4463,32 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -3626,22 +4498,32 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -3651,22 +4533,32 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -3676,22 +4568,32 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -3701,22 +4603,32 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -3726,22 +4638,32 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -3751,22 +4673,32 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -3776,22 +4708,32 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -3801,22 +4743,32 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -3826,22 +4778,32 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -3851,22 +4813,32 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -3876,22 +4848,32 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -3901,22 +4883,32 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -3926,22 +4918,32 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -3951,22 +4953,32 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -3976,22 +4988,32 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -4001,22 +5023,32 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -4026,22 +5058,32 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -4051,22 +5093,32 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -4076,22 +5128,32 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -4101,22 +5163,32 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -4126,22 +5198,32 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -4151,22 +5233,32 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -4176,22 +5268,32 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -4201,22 +5303,32 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -4226,22 +5338,32 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -4251,22 +5373,32 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -4276,22 +5408,32 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -4301,22 +5443,32 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -4326,22 +5478,32 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -4351,22 +5513,32 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -4376,22 +5548,32 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -4401,22 +5583,32 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -4426,22 +5618,32 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -4451,22 +5653,32 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -4476,22 +5688,32 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -4501,22 +5723,32 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -4526,22 +5758,32 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -4551,36 +5793,46 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf201</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4594,7 +5846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4606,13 +5858,15 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4621,16 +5875,18 @@
           <t>dc2-leaf202 Interface Selectors</t>
         </is>
       </c>
-      <c r="B1" s="71" t="n"/>
-      <c r="C1" s="71" t="n"/>
-      <c r="D1" s="71" t="n"/>
-      <c r="E1" s="71" t="n"/>
-      <c r="F1" s="71" t="n"/>
-      <c r="G1" s="71" t="n"/>
-      <c r="H1" s="71" t="n"/>
-      <c r="I1" s="71" t="n"/>
-      <c r="J1" s="71" t="n"/>
-      <c r="K1" s="71" t="n"/>
+      <c r="B1" s="67" t="n"/>
+      <c r="C1" s="67" t="n"/>
+      <c r="D1" s="67" t="n"/>
+      <c r="E1" s="67" t="n"/>
+      <c r="F1" s="67" t="n"/>
+      <c r="G1" s="67" t="n"/>
+      <c r="H1" s="67" t="n"/>
+      <c r="I1" s="67" t="n"/>
+      <c r="J1" s="67" t="n"/>
+      <c r="K1" s="67" t="n"/>
+      <c r="L1" s="67" t="n"/>
+      <c r="M1" s="67" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="66" t="inlineStr"/>
@@ -4639,15 +5895,17 @@
           <t>Notes: Breakout Policy Group Names are 2x100g_pg, 4x10g_pg, 4x25g_pg, 4x100g_pg, 8x50g_pg.</t>
         </is>
       </c>
-      <c r="C2" s="71" t="n"/>
-      <c r="D2" s="71" t="n"/>
-      <c r="E2" s="71" t="n"/>
-      <c r="F2" s="71" t="n"/>
-      <c r="G2" s="71" t="n"/>
-      <c r="H2" s="71" t="n"/>
-      <c r="I2" s="71" t="n"/>
-      <c r="J2" s="71" t="n"/>
-      <c r="K2" s="71" t="n"/>
+      <c r="C2" s="66" t="n"/>
+      <c r="D2" s="66" t="n"/>
+      <c r="E2" s="66" t="n"/>
+      <c r="F2" s="66" t="n"/>
+      <c r="G2" s="66" t="n"/>
+      <c r="H2" s="66" t="n"/>
+      <c r="I2" s="66" t="n"/>
+      <c r="J2" s="66" t="n"/>
+      <c r="K2" s="66" t="n"/>
+      <c r="L2" s="66" t="n"/>
+      <c r="M2" s="66" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="61" t="inlineStr">
@@ -4657,50 +5915,60 @@
       </c>
       <c r="B3" s="61" t="inlineStr">
         <is>
+          <t>Switch_Name</t>
+        </is>
+      </c>
+      <c r="C3" s="61" t="inlineStr">
+        <is>
+          <t>Node_ID</t>
+        </is>
+      </c>
+      <c r="D3" s="61" t="inlineStr">
+        <is>
           <t>Interface_Selector</t>
         </is>
       </c>
-      <c r="C3" s="61" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="D3" s="61" t="inlineStr">
+      <c r="F3" s="61" t="inlineStr">
         <is>
           <t>Policy_Group</t>
         </is>
       </c>
-      <c r="E3" s="61" t="inlineStr">
+      <c r="G3" s="61" t="inlineStr">
         <is>
           <t>Port_Type</t>
         </is>
       </c>
-      <c r="F3" s="61" t="inlineStr">
+      <c r="H3" s="61" t="inlineStr">
         <is>
           <t>LACP</t>
         </is>
       </c>
-      <c r="G3" s="61" t="inlineStr">
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>Bundle_ID</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
+      <c r="J3" s="61" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="I3" s="61" t="inlineStr">
+      <c r="K3" s="61" t="inlineStr">
         <is>
           <t>Switchport_Mode</t>
         </is>
       </c>
-      <c r="J3" s="61" t="inlineStr">
+      <c r="L3" s="61" t="inlineStr">
         <is>
           <t>Access_or_Native</t>
         </is>
       </c>
-      <c r="K3" s="61" t="inlineStr">
+      <c r="M3" s="61" t="inlineStr">
         <is>
           <t>Trunk_Allowed_VLANs</t>
         </is>
@@ -4714,22 +5982,32 @@
       </c>
       <c r="B4" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C4" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D4" s="65" t="inlineStr">
+        <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="E4" s="65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr"/>
-      <c r="E4" s="65" t="inlineStr"/>
       <c r="F4" s="65" t="inlineStr"/>
       <c r="G4" s="65" t="inlineStr"/>
       <c r="H4" s="65" t="inlineStr"/>
       <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="n"/>
-      <c r="K4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr"/>
+      <c r="K4" s="65" t="inlineStr"/>
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="65" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="inlineStr">
@@ -4739,22 +6017,32 @@
       </c>
       <c r="B5" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C5" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D5" s="64" t="inlineStr">
+        <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr"/>
-      <c r="E5" s="64" t="inlineStr"/>
       <c r="F5" s="64" t="inlineStr"/>
       <c r="G5" s="64" t="inlineStr"/>
       <c r="H5" s="64" t="inlineStr"/>
       <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="n"/>
-      <c r="K5" s="64" t="n"/>
+      <c r="J5" s="64" t="inlineStr"/>
+      <c r="K5" s="64" t="inlineStr"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="inlineStr">
@@ -4764,22 +6052,32 @@
       </c>
       <c r="B6" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C6" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D6" s="65" t="inlineStr">
+        <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="E6" s="65" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr"/>
-      <c r="E6" s="65" t="inlineStr"/>
       <c r="F6" s="65" t="inlineStr"/>
       <c r="G6" s="65" t="inlineStr"/>
       <c r="H6" s="65" t="inlineStr"/>
       <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="n"/>
-      <c r="K6" s="65" t="n"/>
+      <c r="J6" s="65" t="inlineStr"/>
+      <c r="K6" s="65" t="inlineStr"/>
+      <c r="L6" s="65" t="n"/>
+      <c r="M6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="64" t="inlineStr">
@@ -4789,22 +6087,32 @@
       </c>
       <c r="B7" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C7" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D7" s="64" t="inlineStr">
+        <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr"/>
-      <c r="E7" s="64" t="inlineStr"/>
       <c r="F7" s="64" t="inlineStr"/>
       <c r="G7" s="64" t="inlineStr"/>
       <c r="H7" s="64" t="inlineStr"/>
       <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="n"/>
-      <c r="K7" s="64" t="n"/>
+      <c r="J7" s="64" t="inlineStr"/>
+      <c r="K7" s="64" t="inlineStr"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="65" t="inlineStr">
@@ -4814,22 +6122,32 @@
       </c>
       <c r="B8" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr"/>
-      <c r="E8" s="65" t="inlineStr"/>
       <c r="F8" s="65" t="inlineStr"/>
       <c r="G8" s="65" t="inlineStr"/>
       <c r="H8" s="65" t="inlineStr"/>
       <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="n"/>
-      <c r="K8" s="65" t="n"/>
+      <c r="J8" s="65" t="inlineStr"/>
+      <c r="K8" s="65" t="inlineStr"/>
+      <c r="L8" s="65" t="n"/>
+      <c r="M8" s="65" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="64" t="inlineStr">
@@ -4839,22 +6157,32 @@
       </c>
       <c r="B9" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C9" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D9" s="64" t="inlineStr">
+        <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr"/>
-      <c r="E9" s="64" t="inlineStr"/>
       <c r="F9" s="64" t="inlineStr"/>
       <c r="G9" s="64" t="inlineStr"/>
       <c r="H9" s="64" t="inlineStr"/>
       <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
+      <c r="J9" s="64" t="inlineStr"/>
+      <c r="K9" s="64" t="inlineStr"/>
+      <c r="L9" s="64" t="n"/>
+      <c r="M9" s="64" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="65" t="inlineStr">
@@ -4864,22 +6192,32 @@
       </c>
       <c r="B10" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C10" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D10" s="65" t="inlineStr">
+        <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="E10" s="65" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr"/>
-      <c r="E10" s="65" t="inlineStr"/>
       <c r="F10" s="65" t="inlineStr"/>
       <c r="G10" s="65" t="inlineStr"/>
       <c r="H10" s="65" t="inlineStr"/>
       <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="n"/>
-      <c r="K10" s="65" t="n"/>
+      <c r="J10" s="65" t="inlineStr"/>
+      <c r="K10" s="65" t="inlineStr"/>
+      <c r="L10" s="65" t="n"/>
+      <c r="M10" s="65" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="64" t="inlineStr">
@@ -4889,22 +6227,32 @@
       </c>
       <c r="B11" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C11" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D11" s="64" t="inlineStr">
+        <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr"/>
-      <c r="E11" s="64" t="inlineStr"/>
       <c r="F11" s="64" t="inlineStr"/>
       <c r="G11" s="64" t="inlineStr"/>
       <c r="H11" s="64" t="inlineStr"/>
       <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="n"/>
-      <c r="K11" s="64" t="n"/>
+      <c r="J11" s="64" t="inlineStr"/>
+      <c r="K11" s="64" t="inlineStr"/>
+      <c r="L11" s="64" t="n"/>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="65" t="inlineStr">
@@ -4914,22 +6262,32 @@
       </c>
       <c r="B12" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C12" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D12" s="65" t="inlineStr">
+        <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="E12" s="65" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr"/>
-      <c r="E12" s="65" t="inlineStr"/>
       <c r="F12" s="65" t="inlineStr"/>
       <c r="G12" s="65" t="inlineStr"/>
       <c r="H12" s="65" t="inlineStr"/>
       <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="n"/>
-      <c r="K12" s="65" t="n"/>
+      <c r="J12" s="65" t="inlineStr"/>
+      <c r="K12" s="65" t="inlineStr"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="64" t="inlineStr">
@@ -4939,22 +6297,32 @@
       </c>
       <c r="B13" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C13" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D13" s="64" t="inlineStr">
+        <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr"/>
-      <c r="E13" s="64" t="inlineStr"/>
       <c r="F13" s="64" t="inlineStr"/>
       <c r="G13" s="64" t="inlineStr"/>
       <c r="H13" s="64" t="inlineStr"/>
       <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="n"/>
-      <c r="K13" s="64" t="n"/>
+      <c r="J13" s="64" t="inlineStr"/>
+      <c r="K13" s="64" t="inlineStr"/>
+      <c r="L13" s="64" t="n"/>
+      <c r="M13" s="64" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="65" t="inlineStr">
@@ -4964,22 +6332,32 @@
       </c>
       <c r="B14" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C14" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D14" s="65" t="inlineStr">
+        <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="E14" s="65" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr"/>
-      <c r="E14" s="65" t="inlineStr"/>
       <c r="F14" s="65" t="inlineStr"/>
       <c r="G14" s="65" t="inlineStr"/>
       <c r="H14" s="65" t="inlineStr"/>
       <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="n"/>
-      <c r="K14" s="65" t="n"/>
+      <c r="J14" s="65" t="inlineStr"/>
+      <c r="K14" s="65" t="inlineStr"/>
+      <c r="L14" s="65" t="n"/>
+      <c r="M14" s="65" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="64" t="inlineStr">
@@ -4989,22 +6367,32 @@
       </c>
       <c r="B15" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C15" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D15" s="64" t="inlineStr">
+        <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr"/>
-      <c r="E15" s="64" t="inlineStr"/>
       <c r="F15" s="64" t="inlineStr"/>
       <c r="G15" s="64" t="inlineStr"/>
       <c r="H15" s="64" t="inlineStr"/>
       <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="n"/>
-      <c r="K15" s="64" t="n"/>
+      <c r="J15" s="64" t="inlineStr"/>
+      <c r="K15" s="64" t="inlineStr"/>
+      <c r="L15" s="64" t="n"/>
+      <c r="M15" s="64" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="65" t="inlineStr">
@@ -5014,22 +6402,32 @@
       </c>
       <c r="B16" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C16" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D16" s="65" t="inlineStr">
+        <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="E16" s="65" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr"/>
-      <c r="E16" s="65" t="inlineStr"/>
       <c r="F16" s="65" t="inlineStr"/>
       <c r="G16" s="65" t="inlineStr"/>
       <c r="H16" s="65" t="inlineStr"/>
       <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="n"/>
-      <c r="K16" s="65" t="n"/>
+      <c r="J16" s="65" t="inlineStr"/>
+      <c r="K16" s="65" t="inlineStr"/>
+      <c r="L16" s="65" t="n"/>
+      <c r="M16" s="65" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="64" t="inlineStr">
@@ -5039,22 +6437,32 @@
       </c>
       <c r="B17" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C17" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D17" s="64" t="inlineStr">
+        <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr"/>
-      <c r="E17" s="64" t="inlineStr"/>
       <c r="F17" s="64" t="inlineStr"/>
       <c r="G17" s="64" t="inlineStr"/>
       <c r="H17" s="64" t="inlineStr"/>
       <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="64" t="n"/>
+      <c r="J17" s="64" t="inlineStr"/>
+      <c r="K17" s="64" t="inlineStr"/>
+      <c r="L17" s="64" t="n"/>
+      <c r="M17" s="64" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="65" t="inlineStr">
@@ -5064,22 +6472,32 @@
       </c>
       <c r="B18" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C18" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D18" s="65" t="inlineStr">
+        <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="E18" s="65" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr"/>
-      <c r="E18" s="65" t="inlineStr"/>
       <c r="F18" s="65" t="inlineStr"/>
       <c r="G18" s="65" t="inlineStr"/>
       <c r="H18" s="65" t="inlineStr"/>
       <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="n"/>
-      <c r="K18" s="65" t="n"/>
+      <c r="J18" s="65" t="inlineStr"/>
+      <c r="K18" s="65" t="inlineStr"/>
+      <c r="L18" s="65" t="n"/>
+      <c r="M18" s="65" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="64" t="inlineStr">
@@ -5089,22 +6507,32 @@
       </c>
       <c r="B19" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C19" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D19" s="64" t="inlineStr">
+        <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr"/>
-      <c r="E19" s="64" t="inlineStr"/>
       <c r="F19" s="64" t="inlineStr"/>
       <c r="G19" s="64" t="inlineStr"/>
       <c r="H19" s="64" t="inlineStr"/>
       <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="n"/>
-      <c r="K19" s="64" t="n"/>
+      <c r="J19" s="64" t="inlineStr"/>
+      <c r="K19" s="64" t="inlineStr"/>
+      <c r="L19" s="64" t="n"/>
+      <c r="M19" s="64" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="65" t="inlineStr">
@@ -5114,22 +6542,32 @@
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C20" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D20" s="65" t="inlineStr">
+        <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="E20" s="65" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr"/>
-      <c r="E20" s="65" t="inlineStr"/>
       <c r="F20" s="65" t="inlineStr"/>
       <c r="G20" s="65" t="inlineStr"/>
       <c r="H20" s="65" t="inlineStr"/>
       <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="n"/>
-      <c r="K20" s="65" t="n"/>
+      <c r="J20" s="65" t="inlineStr"/>
+      <c r="K20" s="65" t="inlineStr"/>
+      <c r="L20" s="65" t="n"/>
+      <c r="M20" s="65" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="64" t="inlineStr">
@@ -5139,22 +6577,32 @@
       </c>
       <c r="B21" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C21" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D21" s="64" t="inlineStr">
+        <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="E21" s="64" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr"/>
-      <c r="E21" s="64" t="inlineStr"/>
       <c r="F21" s="64" t="inlineStr"/>
       <c r="G21" s="64" t="inlineStr"/>
       <c r="H21" s="64" t="inlineStr"/>
       <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="n"/>
-      <c r="K21" s="64" t="n"/>
+      <c r="J21" s="64" t="inlineStr"/>
+      <c r="K21" s="64" t="inlineStr"/>
+      <c r="L21" s="64" t="n"/>
+      <c r="M21" s="64" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="65" t="inlineStr">
@@ -5164,22 +6612,32 @@
       </c>
       <c r="B22" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="E22" s="65" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr"/>
-      <c r="E22" s="65" t="inlineStr"/>
       <c r="F22" s="65" t="inlineStr"/>
       <c r="G22" s="65" t="inlineStr"/>
       <c r="H22" s="65" t="inlineStr"/>
       <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
+      <c r="J22" s="65" t="inlineStr"/>
+      <c r="K22" s="65" t="inlineStr"/>
+      <c r="L22" s="65" t="n"/>
+      <c r="M22" s="65" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="64" t="inlineStr">
@@ -5189,22 +6647,32 @@
       </c>
       <c r="B23" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D23" s="64" t="inlineStr">
+        <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="E23" s="64" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr"/>
-      <c r="E23" s="64" t="inlineStr"/>
       <c r="F23" s="64" t="inlineStr"/>
       <c r="G23" s="64" t="inlineStr"/>
       <c r="H23" s="64" t="inlineStr"/>
       <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="n"/>
-      <c r="K23" s="64" t="n"/>
+      <c r="J23" s="64" t="inlineStr"/>
+      <c r="K23" s="64" t="inlineStr"/>
+      <c r="L23" s="64" t="n"/>
+      <c r="M23" s="64" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="65" t="inlineStr">
@@ -5214,22 +6682,32 @@
       </c>
       <c r="B24" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C24" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D24" s="65" t="inlineStr">
+        <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="E24" s="65" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr"/>
-      <c r="E24" s="65" t="inlineStr"/>
       <c r="F24" s="65" t="inlineStr"/>
       <c r="G24" s="65" t="inlineStr"/>
       <c r="H24" s="65" t="inlineStr"/>
       <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="n"/>
-      <c r="K24" s="65" t="n"/>
+      <c r="J24" s="65" t="inlineStr"/>
+      <c r="K24" s="65" t="inlineStr"/>
+      <c r="L24" s="65" t="n"/>
+      <c r="M24" s="65" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="64" t="inlineStr">
@@ -5239,22 +6717,32 @@
       </c>
       <c r="B25" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C25" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D25" s="64" t="inlineStr">
+        <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="E25" s="64" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr"/>
-      <c r="E25" s="64" t="inlineStr"/>
       <c r="F25" s="64" t="inlineStr"/>
       <c r="G25" s="64" t="inlineStr"/>
       <c r="H25" s="64" t="inlineStr"/>
       <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="n"/>
-      <c r="K25" s="64" t="n"/>
+      <c r="J25" s="64" t="inlineStr"/>
+      <c r="K25" s="64" t="inlineStr"/>
+      <c r="L25" s="64" t="n"/>
+      <c r="M25" s="64" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="65" t="inlineStr">
@@ -5264,22 +6752,32 @@
       </c>
       <c r="B26" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C26" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D26" s="65" t="inlineStr">
+        <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="E26" s="65" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr"/>
-      <c r="E26" s="65" t="inlineStr"/>
       <c r="F26" s="65" t="inlineStr"/>
       <c r="G26" s="65" t="inlineStr"/>
       <c r="H26" s="65" t="inlineStr"/>
       <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="n"/>
-      <c r="K26" s="65" t="n"/>
+      <c r="J26" s="65" t="inlineStr"/>
+      <c r="K26" s="65" t="inlineStr"/>
+      <c r="L26" s="65" t="n"/>
+      <c r="M26" s="65" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="64" t="inlineStr">
@@ -5289,22 +6787,32 @@
       </c>
       <c r="B27" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D27" s="64" t="inlineStr">
+        <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="E27" s="64" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr"/>
-      <c r="E27" s="64" t="inlineStr"/>
       <c r="F27" s="64" t="inlineStr"/>
       <c r="G27" s="64" t="inlineStr"/>
       <c r="H27" s="64" t="inlineStr"/>
       <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="n"/>
-      <c r="K27" s="64" t="n"/>
+      <c r="J27" s="64" t="inlineStr"/>
+      <c r="K27" s="64" t="inlineStr"/>
+      <c r="L27" s="64" t="n"/>
+      <c r="M27" s="64" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="65" t="inlineStr">
@@ -5314,22 +6822,32 @@
       </c>
       <c r="B28" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C28" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D28" s="65" t="inlineStr">
+        <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="E28" s="65" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr"/>
-      <c r="E28" s="65" t="inlineStr"/>
       <c r="F28" s="65" t="inlineStr"/>
       <c r="G28" s="65" t="inlineStr"/>
       <c r="H28" s="65" t="inlineStr"/>
       <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
+      <c r="J28" s="65" t="inlineStr"/>
+      <c r="K28" s="65" t="inlineStr"/>
+      <c r="L28" s="65" t="n"/>
+      <c r="M28" s="65" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="64" t="inlineStr">
@@ -5339,22 +6857,32 @@
       </c>
       <c r="B29" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C29" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D29" s="64" t="inlineStr">
+        <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="E29" s="64" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr"/>
-      <c r="E29" s="64" t="inlineStr"/>
       <c r="F29" s="64" t="inlineStr"/>
       <c r="G29" s="64" t="inlineStr"/>
       <c r="H29" s="64" t="inlineStr"/>
       <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="n"/>
-      <c r="K29" s="64" t="n"/>
+      <c r="J29" s="64" t="inlineStr"/>
+      <c r="K29" s="64" t="inlineStr"/>
+      <c r="L29" s="64" t="n"/>
+      <c r="M29" s="64" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="65" t="inlineStr">
@@ -5364,22 +6892,32 @@
       </c>
       <c r="B30" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C30" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D30" s="65" t="inlineStr">
+        <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="E30" s="65" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr"/>
-      <c r="E30" s="65" t="inlineStr"/>
       <c r="F30" s="65" t="inlineStr"/>
       <c r="G30" s="65" t="inlineStr"/>
       <c r="H30" s="65" t="inlineStr"/>
       <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="n"/>
-      <c r="K30" s="65" t="n"/>
+      <c r="J30" s="65" t="inlineStr"/>
+      <c r="K30" s="65" t="inlineStr"/>
+      <c r="L30" s="65" t="n"/>
+      <c r="M30" s="65" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="64" t="inlineStr">
@@ -5389,22 +6927,32 @@
       </c>
       <c r="B31" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C31" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D31" s="64" t="inlineStr">
+        <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="E31" s="64" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr"/>
-      <c r="E31" s="64" t="inlineStr"/>
       <c r="F31" s="64" t="inlineStr"/>
       <c r="G31" s="64" t="inlineStr"/>
       <c r="H31" s="64" t="inlineStr"/>
       <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="n"/>
-      <c r="K31" s="64" t="n"/>
+      <c r="J31" s="64" t="inlineStr"/>
+      <c r="K31" s="64" t="inlineStr"/>
+      <c r="L31" s="64" t="n"/>
+      <c r="M31" s="64" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="65" t="inlineStr">
@@ -5414,22 +6962,32 @@
       </c>
       <c r="B32" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C32" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D32" s="65" t="inlineStr">
+        <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="E32" s="65" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr"/>
-      <c r="E32" s="65" t="inlineStr"/>
       <c r="F32" s="65" t="inlineStr"/>
       <c r="G32" s="65" t="inlineStr"/>
       <c r="H32" s="65" t="inlineStr"/>
       <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="65" t="inlineStr"/>
+      <c r="K32" s="65" t="inlineStr"/>
+      <c r="L32" s="65" t="n"/>
+      <c r="M32" s="65" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="64" t="inlineStr">
@@ -5439,22 +6997,32 @@
       </c>
       <c r="B33" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C33" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D33" s="64" t="inlineStr">
+        <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="E33" s="64" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr"/>
-      <c r="E33" s="64" t="inlineStr"/>
       <c r="F33" s="64" t="inlineStr"/>
       <c r="G33" s="64" t="inlineStr"/>
       <c r="H33" s="64" t="inlineStr"/>
       <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="n"/>
-      <c r="K33" s="64" t="n"/>
+      <c r="J33" s="64" t="inlineStr"/>
+      <c r="K33" s="64" t="inlineStr"/>
+      <c r="L33" s="64" t="n"/>
+      <c r="M33" s="64" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="65" t="inlineStr">
@@ -5464,22 +7032,32 @@
       </c>
       <c r="B34" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C34" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D34" s="65" t="inlineStr">
+        <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="E34" s="65" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr"/>
-      <c r="E34" s="65" t="inlineStr"/>
       <c r="F34" s="65" t="inlineStr"/>
       <c r="G34" s="65" t="inlineStr"/>
       <c r="H34" s="65" t="inlineStr"/>
       <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="n"/>
-      <c r="K34" s="65" t="n"/>
+      <c r="J34" s="65" t="inlineStr"/>
+      <c r="K34" s="65" t="inlineStr"/>
+      <c r="L34" s="65" t="n"/>
+      <c r="M34" s="65" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="64" t="inlineStr">
@@ -5489,22 +7067,32 @@
       </c>
       <c r="B35" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C35" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D35" s="64" t="inlineStr">
+        <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="E35" s="64" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr"/>
-      <c r="E35" s="64" t="inlineStr"/>
       <c r="F35" s="64" t="inlineStr"/>
       <c r="G35" s="64" t="inlineStr"/>
       <c r="H35" s="64" t="inlineStr"/>
       <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="n"/>
-      <c r="K35" s="64" t="n"/>
+      <c r="J35" s="64" t="inlineStr"/>
+      <c r="K35" s="64" t="inlineStr"/>
+      <c r="L35" s="64" t="n"/>
+      <c r="M35" s="64" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="65" t="inlineStr">
@@ -5514,22 +7102,32 @@
       </c>
       <c r="B36" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C36" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D36" s="65" t="inlineStr">
+        <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="E36" s="65" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr"/>
-      <c r="E36" s="65" t="inlineStr"/>
       <c r="F36" s="65" t="inlineStr"/>
       <c r="G36" s="65" t="inlineStr"/>
       <c r="H36" s="65" t="inlineStr"/>
       <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="n"/>
-      <c r="K36" s="65" t="n"/>
+      <c r="J36" s="65" t="inlineStr"/>
+      <c r="K36" s="65" t="inlineStr"/>
+      <c r="L36" s="65" t="n"/>
+      <c r="M36" s="65" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="64" t="inlineStr">
@@ -5539,22 +7137,32 @@
       </c>
       <c r="B37" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C37" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D37" s="64" t="inlineStr">
+        <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="E37" s="64" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr"/>
-      <c r="E37" s="64" t="inlineStr"/>
       <c r="F37" s="64" t="inlineStr"/>
       <c r="G37" s="64" t="inlineStr"/>
       <c r="H37" s="64" t="inlineStr"/>
       <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="n"/>
-      <c r="K37" s="64" t="n"/>
+      <c r="J37" s="64" t="inlineStr"/>
+      <c r="K37" s="64" t="inlineStr"/>
+      <c r="L37" s="64" t="n"/>
+      <c r="M37" s="64" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="65" t="inlineStr">
@@ -5564,22 +7172,32 @@
       </c>
       <c r="B38" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C38" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D38" s="65" t="inlineStr">
+        <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="E38" s="65" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr"/>
-      <c r="E38" s="65" t="inlineStr"/>
       <c r="F38" s="65" t="inlineStr"/>
       <c r="G38" s="65" t="inlineStr"/>
       <c r="H38" s="65" t="inlineStr"/>
       <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="n"/>
-      <c r="K38" s="65" t="n"/>
+      <c r="J38" s="65" t="inlineStr"/>
+      <c r="K38" s="65" t="inlineStr"/>
+      <c r="L38" s="65" t="n"/>
+      <c r="M38" s="65" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="64" t="inlineStr">
@@ -5589,22 +7207,32 @@
       </c>
       <c r="B39" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C39" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D39" s="64" t="inlineStr">
+        <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="E39" s="64" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr"/>
-      <c r="E39" s="64" t="inlineStr"/>
       <c r="F39" s="64" t="inlineStr"/>
       <c r="G39" s="64" t="inlineStr"/>
       <c r="H39" s="64" t="inlineStr"/>
       <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="n"/>
-      <c r="K39" s="64" t="n"/>
+      <c r="J39" s="64" t="inlineStr"/>
+      <c r="K39" s="64" t="inlineStr"/>
+      <c r="L39" s="64" t="n"/>
+      <c r="M39" s="64" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="65" t="inlineStr">
@@ -5614,22 +7242,32 @@
       </c>
       <c r="B40" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C40" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D40" s="65" t="inlineStr">
+        <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="E40" s="65" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr"/>
-      <c r="E40" s="65" t="inlineStr"/>
       <c r="F40" s="65" t="inlineStr"/>
       <c r="G40" s="65" t="inlineStr"/>
       <c r="H40" s="65" t="inlineStr"/>
       <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="n"/>
-      <c r="K40" s="65" t="n"/>
+      <c r="J40" s="65" t="inlineStr"/>
+      <c r="K40" s="65" t="inlineStr"/>
+      <c r="L40" s="65" t="n"/>
+      <c r="M40" s="65" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="64" t="inlineStr">
@@ -5639,22 +7277,32 @@
       </c>
       <c r="B41" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C41" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D41" s="64" t="inlineStr">
+        <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="E41" s="64" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr"/>
-      <c r="E41" s="64" t="inlineStr"/>
       <c r="F41" s="64" t="inlineStr"/>
       <c r="G41" s="64" t="inlineStr"/>
       <c r="H41" s="64" t="inlineStr"/>
       <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="n"/>
-      <c r="K41" s="64" t="n"/>
+      <c r="J41" s="64" t="inlineStr"/>
+      <c r="K41" s="64" t="inlineStr"/>
+      <c r="L41" s="64" t="n"/>
+      <c r="M41" s="64" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="65" t="inlineStr">
@@ -5664,22 +7312,32 @@
       </c>
       <c r="B42" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C42" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D42" s="65" t="inlineStr">
+        <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="E42" s="65" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr"/>
-      <c r="E42" s="65" t="inlineStr"/>
       <c r="F42" s="65" t="inlineStr"/>
       <c r="G42" s="65" t="inlineStr"/>
       <c r="H42" s="65" t="inlineStr"/>
       <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="n"/>
-      <c r="K42" s="65" t="n"/>
+      <c r="J42" s="65" t="inlineStr"/>
+      <c r="K42" s="65" t="inlineStr"/>
+      <c r="L42" s="65" t="n"/>
+      <c r="M42" s="65" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="64" t="inlineStr">
@@ -5689,22 +7347,32 @@
       </c>
       <c r="B43" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C43" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D43" s="64" t="inlineStr">
+        <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="E43" s="64" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr"/>
-      <c r="E43" s="64" t="inlineStr"/>
       <c r="F43" s="64" t="inlineStr"/>
       <c r="G43" s="64" t="inlineStr"/>
       <c r="H43" s="64" t="inlineStr"/>
       <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="n"/>
-      <c r="K43" s="64" t="n"/>
+      <c r="J43" s="64" t="inlineStr"/>
+      <c r="K43" s="64" t="inlineStr"/>
+      <c r="L43" s="64" t="n"/>
+      <c r="M43" s="64" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="65" t="inlineStr">
@@ -5714,22 +7382,32 @@
       </c>
       <c r="B44" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C44" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D44" s="65" t="inlineStr">
+        <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="E44" s="65" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr"/>
-      <c r="E44" s="65" t="inlineStr"/>
       <c r="F44" s="65" t="inlineStr"/>
       <c r="G44" s="65" t="inlineStr"/>
       <c r="H44" s="65" t="inlineStr"/>
       <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="n"/>
-      <c r="K44" s="65" t="n"/>
+      <c r="J44" s="65" t="inlineStr"/>
+      <c r="K44" s="65" t="inlineStr"/>
+      <c r="L44" s="65" t="n"/>
+      <c r="M44" s="65" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="64" t="inlineStr">
@@ -5739,22 +7417,32 @@
       </c>
       <c r="B45" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C45" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D45" s="64" t="inlineStr">
+        <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="E45" s="64" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr"/>
-      <c r="E45" s="64" t="inlineStr"/>
       <c r="F45" s="64" t="inlineStr"/>
       <c r="G45" s="64" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="n"/>
-      <c r="K45" s="64" t="n"/>
+      <c r="J45" s="64" t="inlineStr"/>
+      <c r="K45" s="64" t="inlineStr"/>
+      <c r="L45" s="64" t="n"/>
+      <c r="M45" s="64" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="65" t="inlineStr">
@@ -5764,22 +7452,32 @@
       </c>
       <c r="B46" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C46" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D46" s="65" t="inlineStr">
+        <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="E46" s="65" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr"/>
-      <c r="E46" s="65" t="inlineStr"/>
       <c r="F46" s="65" t="inlineStr"/>
       <c r="G46" s="65" t="inlineStr"/>
       <c r="H46" s="65" t="inlineStr"/>
       <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="n"/>
-      <c r="K46" s="65" t="n"/>
+      <c r="J46" s="65" t="inlineStr"/>
+      <c r="K46" s="65" t="inlineStr"/>
+      <c r="L46" s="65" t="n"/>
+      <c r="M46" s="65" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="64" t="inlineStr">
@@ -5789,22 +7487,32 @@
       </c>
       <c r="B47" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C47" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D47" s="64" t="inlineStr">
+        <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="E47" s="64" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr"/>
-      <c r="E47" s="64" t="inlineStr"/>
       <c r="F47" s="64" t="inlineStr"/>
       <c r="G47" s="64" t="inlineStr"/>
       <c r="H47" s="64" t="inlineStr"/>
       <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="n"/>
-      <c r="K47" s="64" t="n"/>
+      <c r="J47" s="64" t="inlineStr"/>
+      <c r="K47" s="64" t="inlineStr"/>
+      <c r="L47" s="64" t="n"/>
+      <c r="M47" s="64" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="65" t="inlineStr">
@@ -5814,22 +7522,32 @@
       </c>
       <c r="B48" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C48" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D48" s="65" t="inlineStr">
+        <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="E48" s="65" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr"/>
-      <c r="E48" s="65" t="inlineStr"/>
       <c r="F48" s="65" t="inlineStr"/>
       <c r="G48" s="65" t="inlineStr"/>
       <c r="H48" s="65" t="inlineStr"/>
       <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="n"/>
-      <c r="K48" s="65" t="n"/>
+      <c r="J48" s="65" t="inlineStr"/>
+      <c r="K48" s="65" t="inlineStr"/>
+      <c r="L48" s="65" t="n"/>
+      <c r="M48" s="65" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="64" t="inlineStr">
@@ -5839,22 +7557,32 @@
       </c>
       <c r="B49" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C49" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D49" s="64" t="inlineStr">
+        <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="E49" s="64" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr"/>
-      <c r="E49" s="64" t="inlineStr"/>
       <c r="F49" s="64" t="inlineStr"/>
       <c r="G49" s="64" t="inlineStr"/>
       <c r="H49" s="64" t="inlineStr"/>
       <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="n"/>
-      <c r="K49" s="64" t="n"/>
+      <c r="J49" s="64" t="inlineStr"/>
+      <c r="K49" s="64" t="inlineStr"/>
+      <c r="L49" s="64" t="n"/>
+      <c r="M49" s="64" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="65" t="inlineStr">
@@ -5864,22 +7592,32 @@
       </c>
       <c r="B50" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C50" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D50" s="65" t="inlineStr">
+        <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="E50" s="65" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr"/>
-      <c r="E50" s="65" t="inlineStr"/>
       <c r="F50" s="65" t="inlineStr"/>
       <c r="G50" s="65" t="inlineStr"/>
       <c r="H50" s="65" t="inlineStr"/>
       <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="n"/>
-      <c r="K50" s="65" t="n"/>
+      <c r="J50" s="65" t="inlineStr"/>
+      <c r="K50" s="65" t="inlineStr"/>
+      <c r="L50" s="65" t="n"/>
+      <c r="M50" s="65" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="64" t="inlineStr">
@@ -5889,22 +7627,32 @@
       </c>
       <c r="B51" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C51" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D51" s="64" t="inlineStr">
+        <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="E51" s="64" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr"/>
-      <c r="E51" s="64" t="inlineStr"/>
       <c r="F51" s="64" t="inlineStr"/>
       <c r="G51" s="64" t="inlineStr"/>
       <c r="H51" s="64" t="inlineStr"/>
       <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="n"/>
-      <c r="K51" s="64" t="n"/>
+      <c r="J51" s="64" t="inlineStr"/>
+      <c r="K51" s="64" t="inlineStr"/>
+      <c r="L51" s="64" t="n"/>
+      <c r="M51" s="64" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="65" t="inlineStr">
@@ -5914,22 +7662,32 @@
       </c>
       <c r="B52" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C52" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D52" s="65" t="inlineStr">
+        <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="E52" s="65" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr"/>
-      <c r="E52" s="65" t="inlineStr"/>
       <c r="F52" s="65" t="inlineStr"/>
       <c r="G52" s="65" t="inlineStr"/>
       <c r="H52" s="65" t="inlineStr"/>
       <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="n"/>
-      <c r="K52" s="65" t="n"/>
+      <c r="J52" s="65" t="inlineStr"/>
+      <c r="K52" s="65" t="inlineStr"/>
+      <c r="L52" s="65" t="n"/>
+      <c r="M52" s="65" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="64" t="inlineStr">
@@ -5939,22 +7697,32 @@
       </c>
       <c r="B53" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C53" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D53" s="64" t="inlineStr">
+        <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="E53" s="64" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr"/>
-      <c r="E53" s="64" t="inlineStr"/>
       <c r="F53" s="64" t="inlineStr"/>
       <c r="G53" s="64" t="inlineStr"/>
       <c r="H53" s="64" t="inlineStr"/>
       <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="n"/>
-      <c r="K53" s="64" t="n"/>
+      <c r="J53" s="64" t="inlineStr"/>
+      <c r="K53" s="64" t="inlineStr"/>
+      <c r="L53" s="64" t="n"/>
+      <c r="M53" s="64" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="65" t="inlineStr">
@@ -5964,22 +7732,32 @@
       </c>
       <c r="B54" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C54" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D54" s="65" t="inlineStr">
+        <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="E54" s="65" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr"/>
-      <c r="E54" s="65" t="inlineStr"/>
       <c r="F54" s="65" t="inlineStr"/>
       <c r="G54" s="65" t="inlineStr"/>
       <c r="H54" s="65" t="inlineStr"/>
       <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="n"/>
-      <c r="K54" s="65" t="n"/>
+      <c r="J54" s="65" t="inlineStr"/>
+      <c r="K54" s="65" t="inlineStr"/>
+      <c r="L54" s="65" t="n"/>
+      <c r="M54" s="65" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="64" t="inlineStr">
@@ -5989,22 +7767,32 @@
       </c>
       <c r="B55" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C55" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D55" s="64" t="inlineStr">
+        <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="E55" s="64" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr"/>
-      <c r="E55" s="64" t="inlineStr"/>
       <c r="F55" s="64" t="inlineStr"/>
       <c r="G55" s="64" t="inlineStr"/>
       <c r="H55" s="64" t="inlineStr"/>
       <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="n"/>
-      <c r="K55" s="64" t="n"/>
+      <c r="J55" s="64" t="inlineStr"/>
+      <c r="K55" s="64" t="inlineStr"/>
+      <c r="L55" s="64" t="n"/>
+      <c r="M55" s="64" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="65" t="inlineStr">
@@ -6014,22 +7802,32 @@
       </c>
       <c r="B56" s="65" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C56" s="65" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D56" s="65" t="inlineStr">
+        <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="E56" s="65" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr"/>
-      <c r="E56" s="65" t="inlineStr"/>
       <c r="F56" s="65" t="inlineStr"/>
       <c r="G56" s="65" t="inlineStr"/>
       <c r="H56" s="65" t="inlineStr"/>
       <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="n"/>
-      <c r="K56" s="65" t="n"/>
+      <c r="J56" s="65" t="inlineStr"/>
+      <c r="K56" s="65" t="inlineStr"/>
+      <c r="L56" s="65" t="n"/>
+      <c r="M56" s="65" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="64" t="inlineStr">
@@ -6039,36 +7837,46 @@
       </c>
       <c r="B57" s="64" t="inlineStr">
         <is>
+          <t>dc2-leaf202</t>
+        </is>
+      </c>
+      <c r="C57" s="64" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D57" s="64" t="inlineStr">
+        <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="E57" s="64" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr"/>
-      <c r="E57" s="64" t="inlineStr"/>
       <c r="F57" s="64" t="inlineStr"/>
       <c r="G57" s="64" t="inlineStr"/>
       <c r="H57" s="64" t="inlineStr"/>
       <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="n"/>
-      <c r="K57" s="64" t="n"/>
+      <c r="J57" s="64" t="inlineStr"/>
+      <c r="K57" s="64" t="inlineStr"/>
+      <c r="L57" s="64" t="n"/>
+      <c r="M57" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F33 F34 F35 F36 F37 F38 F39 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F50 F51 F52 F53 F54 F55 F56 F57" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DC2_intf_selectors.xlsx
+++ b/DC2_intf_selectors.xlsx
@@ -1397,2384 +1397,2384 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B4" s="65" t="inlineStr">
+      <c r="A4" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="C4" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr">
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="E4" s="65" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="F4" s="65" t="inlineStr"/>
-      <c r="G4" s="65" t="inlineStr"/>
-      <c r="H4" s="65" t="inlineStr"/>
-      <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="inlineStr"/>
-      <c r="K4" s="65" t="inlineStr"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="65" t="n"/>
+      <c r="F4" s="64" t="inlineStr"/>
+      <c r="G4" s="64" t="inlineStr"/>
+      <c r="H4" s="64" t="inlineStr"/>
+      <c r="I4" s="64" t="inlineStr"/>
+      <c r="J4" s="64" t="inlineStr"/>
+      <c r="K4" s="64" t="inlineStr"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B5" s="64" t="inlineStr">
+      <c r="A5" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B5" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr">
+      <c r="D5" s="65" t="inlineStr">
         <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="E5" s="64" t="inlineStr">
+      <c r="E5" s="65" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="F5" s="64" t="inlineStr"/>
-      <c r="G5" s="64" t="inlineStr"/>
-      <c r="H5" s="64" t="inlineStr"/>
-      <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="inlineStr"/>
-      <c r="K5" s="64" t="inlineStr"/>
-      <c r="L5" s="64" t="n"/>
-      <c r="M5" s="64" t="n"/>
+      <c r="F5" s="65" t="inlineStr"/>
+      <c r="G5" s="65" t="inlineStr"/>
+      <c r="H5" s="65" t="inlineStr"/>
+      <c r="I5" s="65" t="inlineStr"/>
+      <c r="J5" s="65" t="inlineStr"/>
+      <c r="K5" s="65" t="inlineStr"/>
+      <c r="L5" s="65" t="n"/>
+      <c r="M5" s="65" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B6" s="65" t="inlineStr">
+      <c r="A6" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="C6" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr">
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="E6" s="65" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F6" s="65" t="inlineStr"/>
-      <c r="G6" s="65" t="inlineStr"/>
-      <c r="H6" s="65" t="inlineStr"/>
-      <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="inlineStr"/>
-      <c r="K6" s="65" t="inlineStr"/>
-      <c r="L6" s="65" t="n"/>
-      <c r="M6" s="65" t="n"/>
+      <c r="F6" s="64" t="inlineStr"/>
+      <c r="G6" s="64" t="inlineStr"/>
+      <c r="H6" s="64" t="inlineStr"/>
+      <c r="I6" s="64" t="inlineStr"/>
+      <c r="J6" s="64" t="inlineStr"/>
+      <c r="K6" s="64" t="inlineStr"/>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="64" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B7" s="64" t="inlineStr">
+      <c r="A7" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B7" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="C7" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr">
+      <c r="D7" s="65" t="inlineStr">
         <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="E7" s="64" t="inlineStr">
+      <c r="E7" s="65" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="F7" s="64" t="inlineStr"/>
-      <c r="G7" s="64" t="inlineStr"/>
-      <c r="H7" s="64" t="inlineStr"/>
-      <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="inlineStr"/>
-      <c r="K7" s="64" t="inlineStr"/>
-      <c r="L7" s="64" t="n"/>
-      <c r="M7" s="64" t="n"/>
+      <c r="F7" s="65" t="inlineStr"/>
+      <c r="G7" s="65" t="inlineStr"/>
+      <c r="H7" s="65" t="inlineStr"/>
+      <c r="I7" s="65" t="inlineStr"/>
+      <c r="J7" s="65" t="inlineStr"/>
+      <c r="K7" s="65" t="inlineStr"/>
+      <c r="L7" s="65" t="n"/>
+      <c r="M7" s="65" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B8" s="65" t="inlineStr">
+      <c r="A8" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr">
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="E8" s="65" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="F8" s="65" t="inlineStr"/>
-      <c r="G8" s="65" t="inlineStr"/>
-      <c r="H8" s="65" t="inlineStr"/>
-      <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="inlineStr"/>
-      <c r="K8" s="65" t="inlineStr"/>
-      <c r="L8" s="65" t="n"/>
-      <c r="M8" s="65" t="n"/>
+      <c r="F8" s="64" t="inlineStr"/>
+      <c r="G8" s="64" t="inlineStr"/>
+      <c r="H8" s="64" t="inlineStr"/>
+      <c r="I8" s="64" t="inlineStr"/>
+      <c r="J8" s="64" t="inlineStr"/>
+      <c r="K8" s="64" t="inlineStr"/>
+      <c r="L8" s="64" t="n"/>
+      <c r="M8" s="64" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B9" s="64" t="inlineStr">
+      <c r="A9" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B9" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="C9" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr">
+      <c r="D9" s="65" t="inlineStr">
         <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="E9" s="64" t="inlineStr">
+      <c r="E9" s="65" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="F9" s="64" t="inlineStr"/>
-      <c r="G9" s="64" t="inlineStr"/>
-      <c r="H9" s="64" t="inlineStr"/>
-      <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="inlineStr"/>
-      <c r="K9" s="64" t="inlineStr"/>
-      <c r="L9" s="64" t="n"/>
-      <c r="M9" s="64" t="n"/>
+      <c r="F9" s="65" t="inlineStr"/>
+      <c r="G9" s="65" t="inlineStr"/>
+      <c r="H9" s="65" t="inlineStr"/>
+      <c r="I9" s="65" t="inlineStr"/>
+      <c r="J9" s="65" t="inlineStr"/>
+      <c r="K9" s="65" t="inlineStr"/>
+      <c r="L9" s="65" t="n"/>
+      <c r="M9" s="65" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B10" s="65" t="inlineStr">
+      <c r="A10" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B10" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="C10" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr">
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="E10" s="65" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="F10" s="65" t="inlineStr"/>
-      <c r="G10" s="65" t="inlineStr"/>
-      <c r="H10" s="65" t="inlineStr"/>
-      <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="inlineStr"/>
-      <c r="K10" s="65" t="inlineStr"/>
-      <c r="L10" s="65" t="n"/>
-      <c r="M10" s="65" t="n"/>
+      <c r="F10" s="64" t="inlineStr"/>
+      <c r="G10" s="64" t="inlineStr"/>
+      <c r="H10" s="64" t="inlineStr"/>
+      <c r="I10" s="64" t="inlineStr"/>
+      <c r="J10" s="64" t="inlineStr"/>
+      <c r="K10" s="64" t="inlineStr"/>
+      <c r="L10" s="64" t="n"/>
+      <c r="M10" s="64" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B11" s="64" t="inlineStr">
+      <c r="A11" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B11" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="C11" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr">
+      <c r="D11" s="65" t="inlineStr">
         <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="E11" s="64" t="inlineStr">
+      <c r="E11" s="65" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="F11" s="64" t="inlineStr"/>
-      <c r="G11" s="64" t="inlineStr"/>
-      <c r="H11" s="64" t="inlineStr"/>
-      <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="inlineStr"/>
-      <c r="K11" s="64" t="inlineStr"/>
-      <c r="L11" s="64" t="n"/>
-      <c r="M11" s="64" t="n"/>
+      <c r="F11" s="65" t="inlineStr"/>
+      <c r="G11" s="65" t="inlineStr"/>
+      <c r="H11" s="65" t="inlineStr"/>
+      <c r="I11" s="65" t="inlineStr"/>
+      <c r="J11" s="65" t="inlineStr"/>
+      <c r="K11" s="65" t="inlineStr"/>
+      <c r="L11" s="65" t="n"/>
+      <c r="M11" s="65" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B12" s="65" t="inlineStr">
+      <c r="A12" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B12" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="C12" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr">
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="E12" s="65" t="inlineStr">
+      <c r="E12" s="64" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="F12" s="65" t="inlineStr"/>
-      <c r="G12" s="65" t="inlineStr"/>
-      <c r="H12" s="65" t="inlineStr"/>
-      <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="inlineStr"/>
-      <c r="K12" s="65" t="inlineStr"/>
-      <c r="L12" s="65" t="n"/>
-      <c r="M12" s="65" t="n"/>
+      <c r="F12" s="64" t="inlineStr"/>
+      <c r="G12" s="64" t="inlineStr"/>
+      <c r="H12" s="64" t="inlineStr"/>
+      <c r="I12" s="64" t="inlineStr"/>
+      <c r="J12" s="64" t="inlineStr"/>
+      <c r="K12" s="64" t="inlineStr"/>
+      <c r="L12" s="64" t="n"/>
+      <c r="M12" s="64" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B13" s="64" t="inlineStr">
+      <c r="A13" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B13" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="C13" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr">
+      <c r="D13" s="65" t="inlineStr">
         <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="E13" s="64" t="inlineStr">
+      <c r="E13" s="65" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="F13" s="64" t="inlineStr"/>
-      <c r="G13" s="64" t="inlineStr"/>
-      <c r="H13" s="64" t="inlineStr"/>
-      <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="inlineStr"/>
-      <c r="K13" s="64" t="inlineStr"/>
-      <c r="L13" s="64" t="n"/>
-      <c r="M13" s="64" t="n"/>
+      <c r="F13" s="65" t="inlineStr"/>
+      <c r="G13" s="65" t="inlineStr"/>
+      <c r="H13" s="65" t="inlineStr"/>
+      <c r="I13" s="65" t="inlineStr"/>
+      <c r="J13" s="65" t="inlineStr"/>
+      <c r="K13" s="65" t="inlineStr"/>
+      <c r="L13" s="65" t="n"/>
+      <c r="M13" s="65" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B14" s="65" t="inlineStr">
+      <c r="A14" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B14" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="C14" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr">
+      <c r="D14" s="64" t="inlineStr">
         <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="E14" s="65" t="inlineStr">
+      <c r="E14" s="64" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="F14" s="65" t="inlineStr"/>
-      <c r="G14" s="65" t="inlineStr"/>
-      <c r="H14" s="65" t="inlineStr"/>
-      <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="inlineStr"/>
-      <c r="K14" s="65" t="inlineStr"/>
-      <c r="L14" s="65" t="n"/>
-      <c r="M14" s="65" t="n"/>
+      <c r="F14" s="64" t="inlineStr"/>
+      <c r="G14" s="64" t="inlineStr"/>
+      <c r="H14" s="64" t="inlineStr"/>
+      <c r="I14" s="64" t="inlineStr"/>
+      <c r="J14" s="64" t="inlineStr"/>
+      <c r="K14" s="64" t="inlineStr"/>
+      <c r="L14" s="64" t="n"/>
+      <c r="M14" s="64" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B15" s="64" t="inlineStr">
+      <c r="A15" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B15" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="C15" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr">
+      <c r="D15" s="65" t="inlineStr">
         <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="E15" s="64" t="inlineStr">
+      <c r="E15" s="65" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="F15" s="64" t="inlineStr"/>
-      <c r="G15" s="64" t="inlineStr"/>
-      <c r="H15" s="64" t="inlineStr"/>
-      <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="inlineStr"/>
-      <c r="K15" s="64" t="inlineStr"/>
-      <c r="L15" s="64" t="n"/>
-      <c r="M15" s="64" t="n"/>
+      <c r="F15" s="65" t="inlineStr"/>
+      <c r="G15" s="65" t="inlineStr"/>
+      <c r="H15" s="65" t="inlineStr"/>
+      <c r="I15" s="65" t="inlineStr"/>
+      <c r="J15" s="65" t="inlineStr"/>
+      <c r="K15" s="65" t="inlineStr"/>
+      <c r="L15" s="65" t="n"/>
+      <c r="M15" s="65" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B16" s="65" t="inlineStr">
+      <c r="A16" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B16" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="C16" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr">
+      <c r="D16" s="64" t="inlineStr">
         <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="E16" s="65" t="inlineStr">
+      <c r="E16" s="64" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="F16" s="65" t="inlineStr"/>
-      <c r="G16" s="65" t="inlineStr"/>
-      <c r="H16" s="65" t="inlineStr"/>
-      <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="inlineStr"/>
-      <c r="K16" s="65" t="inlineStr"/>
-      <c r="L16" s="65" t="n"/>
-      <c r="M16" s="65" t="n"/>
+      <c r="F16" s="64" t="inlineStr"/>
+      <c r="G16" s="64" t="inlineStr"/>
+      <c r="H16" s="64" t="inlineStr"/>
+      <c r="I16" s="64" t="inlineStr"/>
+      <c r="J16" s="64" t="inlineStr"/>
+      <c r="K16" s="64" t="inlineStr"/>
+      <c r="L16" s="64" t="n"/>
+      <c r="M16" s="64" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B17" s="64" t="inlineStr">
+      <c r="A17" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B17" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="C17" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr">
+      <c r="D17" s="65" t="inlineStr">
         <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="E17" s="64" t="inlineStr">
+      <c r="E17" s="65" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="F17" s="64" t="inlineStr"/>
-      <c r="G17" s="64" t="inlineStr"/>
-      <c r="H17" s="64" t="inlineStr"/>
-      <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="inlineStr"/>
-      <c r="K17" s="64" t="inlineStr"/>
-      <c r="L17" s="64" t="n"/>
-      <c r="M17" s="64" t="n"/>
+      <c r="F17" s="65" t="inlineStr"/>
+      <c r="G17" s="65" t="inlineStr"/>
+      <c r="H17" s="65" t="inlineStr"/>
+      <c r="I17" s="65" t="inlineStr"/>
+      <c r="J17" s="65" t="inlineStr"/>
+      <c r="K17" s="65" t="inlineStr"/>
+      <c r="L17" s="65" t="n"/>
+      <c r="M17" s="65" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B18" s="65" t="inlineStr">
+      <c r="A18" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B18" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="C18" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr">
+      <c r="D18" s="64" t="inlineStr">
         <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="E18" s="65" t="inlineStr">
+      <c r="E18" s="64" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="F18" s="65" t="inlineStr"/>
-      <c r="G18" s="65" t="inlineStr"/>
-      <c r="H18" s="65" t="inlineStr"/>
-      <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="inlineStr"/>
-      <c r="K18" s="65" t="inlineStr"/>
-      <c r="L18" s="65" t="n"/>
-      <c r="M18" s="65" t="n"/>
+      <c r="F18" s="64" t="inlineStr"/>
+      <c r="G18" s="64" t="inlineStr"/>
+      <c r="H18" s="64" t="inlineStr"/>
+      <c r="I18" s="64" t="inlineStr"/>
+      <c r="J18" s="64" t="inlineStr"/>
+      <c r="K18" s="64" t="inlineStr"/>
+      <c r="L18" s="64" t="n"/>
+      <c r="M18" s="64" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B19" s="64" t="inlineStr">
+      <c r="A19" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B19" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="C19" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr">
+      <c r="D19" s="65" t="inlineStr">
         <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="E19" s="64" t="inlineStr">
+      <c r="E19" s="65" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="F19" s="64" t="inlineStr"/>
-      <c r="G19" s="64" t="inlineStr"/>
-      <c r="H19" s="64" t="inlineStr"/>
-      <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="inlineStr"/>
-      <c r="K19" s="64" t="inlineStr"/>
-      <c r="L19" s="64" t="n"/>
-      <c r="M19" s="64" t="n"/>
+      <c r="F19" s="65" t="inlineStr"/>
+      <c r="G19" s="65" t="inlineStr"/>
+      <c r="H19" s="65" t="inlineStr"/>
+      <c r="I19" s="65" t="inlineStr"/>
+      <c r="J19" s="65" t="inlineStr"/>
+      <c r="K19" s="65" t="inlineStr"/>
+      <c r="L19" s="65" t="n"/>
+      <c r="M19" s="65" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B20" s="65" t="inlineStr">
+      <c r="A20" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B20" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="C20" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr">
+      <c r="D20" s="64" t="inlineStr">
         <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="E20" s="65" t="inlineStr">
+      <c r="E20" s="64" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="F20" s="65" t="inlineStr"/>
-      <c r="G20" s="65" t="inlineStr"/>
-      <c r="H20" s="65" t="inlineStr"/>
-      <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="inlineStr"/>
-      <c r="K20" s="65" t="inlineStr"/>
-      <c r="L20" s="65" t="n"/>
-      <c r="M20" s="65" t="n"/>
+      <c r="F20" s="64" t="inlineStr"/>
+      <c r="G20" s="64" t="inlineStr"/>
+      <c r="H20" s="64" t="inlineStr"/>
+      <c r="I20" s="64" t="inlineStr"/>
+      <c r="J20" s="64" t="inlineStr"/>
+      <c r="K20" s="64" t="inlineStr"/>
+      <c r="L20" s="64" t="n"/>
+      <c r="M20" s="64" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B21" s="64" t="inlineStr">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B21" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="C21" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr">
+      <c r="D21" s="65" t="inlineStr">
         <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="E21" s="64" t="inlineStr">
+      <c r="E21" s="65" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="F21" s="64" t="inlineStr"/>
-      <c r="G21" s="64" t="inlineStr"/>
-      <c r="H21" s="64" t="inlineStr"/>
-      <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="inlineStr"/>
-      <c r="K21" s="64" t="inlineStr"/>
-      <c r="L21" s="64" t="n"/>
-      <c r="M21" s="64" t="n"/>
+      <c r="F21" s="65" t="inlineStr"/>
+      <c r="G21" s="65" t="inlineStr"/>
+      <c r="H21" s="65" t="inlineStr"/>
+      <c r="I21" s="65" t="inlineStr"/>
+      <c r="J21" s="65" t="inlineStr"/>
+      <c r="K21" s="65" t="inlineStr"/>
+      <c r="L21" s="65" t="n"/>
+      <c r="M21" s="65" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B22" s="65" t="inlineStr">
+      <c r="A22" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B22" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="C22" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr">
+      <c r="D22" s="64" t="inlineStr">
         <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="E22" s="65" t="inlineStr">
+      <c r="E22" s="64" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="F22" s="65" t="inlineStr"/>
-      <c r="G22" s="65" t="inlineStr"/>
-      <c r="H22" s="65" t="inlineStr"/>
-      <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="inlineStr"/>
-      <c r="K22" s="65" t="inlineStr"/>
-      <c r="L22" s="65" t="n"/>
-      <c r="M22" s="65" t="n"/>
+      <c r="F22" s="64" t="inlineStr"/>
+      <c r="G22" s="64" t="inlineStr"/>
+      <c r="H22" s="64" t="inlineStr"/>
+      <c r="I22" s="64" t="inlineStr"/>
+      <c r="J22" s="64" t="inlineStr"/>
+      <c r="K22" s="64" t="inlineStr"/>
+      <c r="L22" s="64" t="n"/>
+      <c r="M22" s="64" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B23" s="64" t="inlineStr">
+      <c r="A23" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B23" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="C23" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr">
+      <c r="D23" s="65" t="inlineStr">
         <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="E23" s="64" t="inlineStr">
+      <c r="E23" s="65" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="F23" s="64" t="inlineStr"/>
-      <c r="G23" s="64" t="inlineStr"/>
-      <c r="H23" s="64" t="inlineStr"/>
-      <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="inlineStr"/>
-      <c r="K23" s="64" t="inlineStr"/>
-      <c r="L23" s="64" t="n"/>
-      <c r="M23" s="64" t="n"/>
+      <c r="F23" s="65" t="inlineStr"/>
+      <c r="G23" s="65" t="inlineStr"/>
+      <c r="H23" s="65" t="inlineStr"/>
+      <c r="I23" s="65" t="inlineStr"/>
+      <c r="J23" s="65" t="inlineStr"/>
+      <c r="K23" s="65" t="inlineStr"/>
+      <c r="L23" s="65" t="n"/>
+      <c r="M23" s="65" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B24" s="65" t="inlineStr">
+      <c r="A24" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B24" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="C24" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr">
+      <c r="D24" s="64" t="inlineStr">
         <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="E24" s="65" t="inlineStr">
+      <c r="E24" s="64" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="F24" s="65" t="inlineStr"/>
-      <c r="G24" s="65" t="inlineStr"/>
-      <c r="H24" s="65" t="inlineStr"/>
-      <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="inlineStr"/>
-      <c r="K24" s="65" t="inlineStr"/>
-      <c r="L24" s="65" t="n"/>
-      <c r="M24" s="65" t="n"/>
+      <c r="F24" s="64" t="inlineStr"/>
+      <c r="G24" s="64" t="inlineStr"/>
+      <c r="H24" s="64" t="inlineStr"/>
+      <c r="I24" s="64" t="inlineStr"/>
+      <c r="J24" s="64" t="inlineStr"/>
+      <c r="K24" s="64" t="inlineStr"/>
+      <c r="L24" s="64" t="n"/>
+      <c r="M24" s="64" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B25" s="64" t="inlineStr">
+      <c r="A25" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B25" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="C25" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr">
+      <c r="D25" s="65" t="inlineStr">
         <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="E25" s="64" t="inlineStr">
+      <c r="E25" s="65" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="F25" s="64" t="inlineStr"/>
-      <c r="G25" s="64" t="inlineStr"/>
-      <c r="H25" s="64" t="inlineStr"/>
-      <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="inlineStr"/>
-      <c r="K25" s="64" t="inlineStr"/>
-      <c r="L25" s="64" t="n"/>
-      <c r="M25" s="64" t="n"/>
+      <c r="F25" s="65" t="inlineStr"/>
+      <c r="G25" s="65" t="inlineStr"/>
+      <c r="H25" s="65" t="inlineStr"/>
+      <c r="I25" s="65" t="inlineStr"/>
+      <c r="J25" s="65" t="inlineStr"/>
+      <c r="K25" s="65" t="inlineStr"/>
+      <c r="L25" s="65" t="n"/>
+      <c r="M25" s="65" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B26" s="65" t="inlineStr">
+      <c r="A26" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B26" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="C26" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr">
+      <c r="D26" s="64" t="inlineStr">
         <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="E26" s="65" t="inlineStr">
+      <c r="E26" s="64" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="F26" s="65" t="inlineStr"/>
-      <c r="G26" s="65" t="inlineStr"/>
-      <c r="H26" s="65" t="inlineStr"/>
-      <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="inlineStr"/>
-      <c r="K26" s="65" t="inlineStr"/>
-      <c r="L26" s="65" t="n"/>
-      <c r="M26" s="65" t="n"/>
+      <c r="F26" s="64" t="inlineStr"/>
+      <c r="G26" s="64" t="inlineStr"/>
+      <c r="H26" s="64" t="inlineStr"/>
+      <c r="I26" s="64" t="inlineStr"/>
+      <c r="J26" s="64" t="inlineStr"/>
+      <c r="K26" s="64" t="inlineStr"/>
+      <c r="L26" s="64" t="n"/>
+      <c r="M26" s="64" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B27" s="64" t="inlineStr">
+      <c r="A27" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B27" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="C27" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr">
+      <c r="D27" s="65" t="inlineStr">
         <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="E27" s="64" t="inlineStr">
+      <c r="E27" s="65" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="F27" s="64" t="inlineStr"/>
-      <c r="G27" s="64" t="inlineStr"/>
-      <c r="H27" s="64" t="inlineStr"/>
-      <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="inlineStr"/>
-      <c r="K27" s="64" t="inlineStr"/>
-      <c r="L27" s="64" t="n"/>
-      <c r="M27" s="64" t="n"/>
+      <c r="F27" s="65" t="inlineStr"/>
+      <c r="G27" s="65" t="inlineStr"/>
+      <c r="H27" s="65" t="inlineStr"/>
+      <c r="I27" s="65" t="inlineStr"/>
+      <c r="J27" s="65" t="inlineStr"/>
+      <c r="K27" s="65" t="inlineStr"/>
+      <c r="L27" s="65" t="n"/>
+      <c r="M27" s="65" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B28" s="65" t="inlineStr">
+      <c r="A28" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B28" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="C28" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr">
+      <c r="D28" s="64" t="inlineStr">
         <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="E28" s="65" t="inlineStr">
+      <c r="E28" s="64" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="F28" s="65" t="inlineStr"/>
-      <c r="G28" s="65" t="inlineStr"/>
-      <c r="H28" s="65" t="inlineStr"/>
-      <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="inlineStr"/>
-      <c r="K28" s="65" t="inlineStr"/>
-      <c r="L28" s="65" t="n"/>
-      <c r="M28" s="65" t="n"/>
+      <c r="F28" s="64" t="inlineStr"/>
+      <c r="G28" s="64" t="inlineStr"/>
+      <c r="H28" s="64" t="inlineStr"/>
+      <c r="I28" s="64" t="inlineStr"/>
+      <c r="J28" s="64" t="inlineStr"/>
+      <c r="K28" s="64" t="inlineStr"/>
+      <c r="L28" s="64" t="n"/>
+      <c r="M28" s="64" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B29" s="64" t="inlineStr">
+      <c r="A29" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B29" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="C29" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr">
+      <c r="D29" s="65" t="inlineStr">
         <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="E29" s="64" t="inlineStr">
+      <c r="E29" s="65" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="F29" s="64" t="inlineStr"/>
-      <c r="G29" s="64" t="inlineStr"/>
-      <c r="H29" s="64" t="inlineStr"/>
-      <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="inlineStr"/>
-      <c r="K29" s="64" t="inlineStr"/>
-      <c r="L29" s="64" t="n"/>
-      <c r="M29" s="64" t="n"/>
+      <c r="F29" s="65" t="inlineStr"/>
+      <c r="G29" s="65" t="inlineStr"/>
+      <c r="H29" s="65" t="inlineStr"/>
+      <c r="I29" s="65" t="inlineStr"/>
+      <c r="J29" s="65" t="inlineStr"/>
+      <c r="K29" s="65" t="inlineStr"/>
+      <c r="L29" s="65" t="n"/>
+      <c r="M29" s="65" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B30" s="65" t="inlineStr">
+      <c r="A30" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B30" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="C30" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr">
+      <c r="D30" s="64" t="inlineStr">
         <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="E30" s="65" t="inlineStr">
+      <c r="E30" s="64" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="F30" s="65" t="inlineStr"/>
-      <c r="G30" s="65" t="inlineStr"/>
-      <c r="H30" s="65" t="inlineStr"/>
-      <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="inlineStr"/>
-      <c r="K30" s="65" t="inlineStr"/>
-      <c r="L30" s="65" t="n"/>
-      <c r="M30" s="65" t="n"/>
+      <c r="F30" s="64" t="inlineStr"/>
+      <c r="G30" s="64" t="inlineStr"/>
+      <c r="H30" s="64" t="inlineStr"/>
+      <c r="I30" s="64" t="inlineStr"/>
+      <c r="J30" s="64" t="inlineStr"/>
+      <c r="K30" s="64" t="inlineStr"/>
+      <c r="L30" s="64" t="n"/>
+      <c r="M30" s="64" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B31" s="64" t="inlineStr">
+      <c r="A31" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B31" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="C31" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr">
+      <c r="D31" s="65" t="inlineStr">
         <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="E31" s="64" t="inlineStr">
+      <c r="E31" s="65" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="F31" s="64" t="inlineStr"/>
-      <c r="G31" s="64" t="inlineStr"/>
-      <c r="H31" s="64" t="inlineStr"/>
-      <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="inlineStr"/>
-      <c r="K31" s="64" t="inlineStr"/>
-      <c r="L31" s="64" t="n"/>
-      <c r="M31" s="64" t="n"/>
+      <c r="F31" s="65" t="inlineStr"/>
+      <c r="G31" s="65" t="inlineStr"/>
+      <c r="H31" s="65" t="inlineStr"/>
+      <c r="I31" s="65" t="inlineStr"/>
+      <c r="J31" s="65" t="inlineStr"/>
+      <c r="K31" s="65" t="inlineStr"/>
+      <c r="L31" s="65" t="n"/>
+      <c r="M31" s="65" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B32" s="65" t="inlineStr">
+      <c r="A32" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B32" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="C32" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr">
+      <c r="D32" s="64" t="inlineStr">
         <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="E32" s="65" t="inlineStr">
+      <c r="E32" s="64" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="F32" s="65" t="inlineStr"/>
-      <c r="G32" s="65" t="inlineStr"/>
-      <c r="H32" s="65" t="inlineStr"/>
-      <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="inlineStr"/>
-      <c r="K32" s="65" t="inlineStr"/>
-      <c r="L32" s="65" t="n"/>
-      <c r="M32" s="65" t="n"/>
+      <c r="F32" s="64" t="inlineStr"/>
+      <c r="G32" s="64" t="inlineStr"/>
+      <c r="H32" s="64" t="inlineStr"/>
+      <c r="I32" s="64" t="inlineStr"/>
+      <c r="J32" s="64" t="inlineStr"/>
+      <c r="K32" s="64" t="inlineStr"/>
+      <c r="L32" s="64" t="n"/>
+      <c r="M32" s="64" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B33" s="64" t="inlineStr">
+      <c r="A33" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B33" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="C33" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr">
+      <c r="D33" s="65" t="inlineStr">
         <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="E33" s="64" t="inlineStr">
+      <c r="E33" s="65" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="F33" s="64" t="inlineStr"/>
-      <c r="G33" s="64" t="inlineStr"/>
-      <c r="H33" s="64" t="inlineStr"/>
-      <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="inlineStr"/>
-      <c r="K33" s="64" t="inlineStr"/>
-      <c r="L33" s="64" t="n"/>
-      <c r="M33" s="64" t="n"/>
+      <c r="F33" s="65" t="inlineStr"/>
+      <c r="G33" s="65" t="inlineStr"/>
+      <c r="H33" s="65" t="inlineStr"/>
+      <c r="I33" s="65" t="inlineStr"/>
+      <c r="J33" s="65" t="inlineStr"/>
+      <c r="K33" s="65" t="inlineStr"/>
+      <c r="L33" s="65" t="n"/>
+      <c r="M33" s="65" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B34" s="65" t="inlineStr">
+      <c r="A34" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B34" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="C34" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr">
+      <c r="D34" s="64" t="inlineStr">
         <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="E34" s="65" t="inlineStr">
+      <c r="E34" s="64" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="F34" s="65" t="inlineStr"/>
-      <c r="G34" s="65" t="inlineStr"/>
-      <c r="H34" s="65" t="inlineStr"/>
-      <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="inlineStr"/>
-      <c r="K34" s="65" t="inlineStr"/>
-      <c r="L34" s="65" t="n"/>
-      <c r="M34" s="65" t="n"/>
+      <c r="F34" s="64" t="inlineStr"/>
+      <c r="G34" s="64" t="inlineStr"/>
+      <c r="H34" s="64" t="inlineStr"/>
+      <c r="I34" s="64" t="inlineStr"/>
+      <c r="J34" s="64" t="inlineStr"/>
+      <c r="K34" s="64" t="inlineStr"/>
+      <c r="L34" s="64" t="n"/>
+      <c r="M34" s="64" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B35" s="64" t="inlineStr">
+      <c r="A35" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B35" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="C35" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr">
+      <c r="D35" s="65" t="inlineStr">
         <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="E35" s="64" t="inlineStr">
+      <c r="E35" s="65" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="F35" s="64" t="inlineStr"/>
-      <c r="G35" s="64" t="inlineStr"/>
-      <c r="H35" s="64" t="inlineStr"/>
-      <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="inlineStr"/>
-      <c r="K35" s="64" t="inlineStr"/>
-      <c r="L35" s="64" t="n"/>
-      <c r="M35" s="64" t="n"/>
+      <c r="F35" s="65" t="inlineStr"/>
+      <c r="G35" s="65" t="inlineStr"/>
+      <c r="H35" s="65" t="inlineStr"/>
+      <c r="I35" s="65" t="inlineStr"/>
+      <c r="J35" s="65" t="inlineStr"/>
+      <c r="K35" s="65" t="inlineStr"/>
+      <c r="L35" s="65" t="n"/>
+      <c r="M35" s="65" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B36" s="65" t="inlineStr">
+      <c r="A36" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B36" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="C36" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr">
+      <c r="D36" s="64" t="inlineStr">
         <is>
           <t>Eth2-01</t>
         </is>
       </c>
-      <c r="E36" s="65" t="inlineStr">
+      <c r="E36" s="64" t="inlineStr">
         <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F36" s="65" t="inlineStr"/>
-      <c r="G36" s="65" t="inlineStr"/>
-      <c r="H36" s="65" t="inlineStr"/>
-      <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="inlineStr"/>
-      <c r="K36" s="65" t="inlineStr"/>
-      <c r="L36" s="65" t="n"/>
-      <c r="M36" s="65" t="n"/>
+      <c r="F36" s="64" t="inlineStr"/>
+      <c r="G36" s="64" t="inlineStr"/>
+      <c r="H36" s="64" t="inlineStr"/>
+      <c r="I36" s="64" t="inlineStr"/>
+      <c r="J36" s="64" t="inlineStr"/>
+      <c r="K36" s="64" t="inlineStr"/>
+      <c r="L36" s="64" t="n"/>
+      <c r="M36" s="64" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B37" s="64" t="inlineStr">
+      <c r="A37" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B37" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="C37" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr">
+      <c r="D37" s="65" t="inlineStr">
         <is>
           <t>Eth2-02</t>
         </is>
       </c>
-      <c r="E37" s="64" t="inlineStr">
+      <c r="E37" s="65" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F37" s="64" t="inlineStr"/>
-      <c r="G37" s="64" t="inlineStr"/>
-      <c r="H37" s="64" t="inlineStr"/>
-      <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="inlineStr"/>
-      <c r="K37" s="64" t="inlineStr"/>
-      <c r="L37" s="64" t="n"/>
-      <c r="M37" s="64" t="n"/>
+      <c r="F37" s="65" t="inlineStr"/>
+      <c r="G37" s="65" t="inlineStr"/>
+      <c r="H37" s="65" t="inlineStr"/>
+      <c r="I37" s="65" t="inlineStr"/>
+      <c r="J37" s="65" t="inlineStr"/>
+      <c r="K37" s="65" t="inlineStr"/>
+      <c r="L37" s="65" t="n"/>
+      <c r="M37" s="65" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B38" s="65" t="inlineStr">
+      <c r="A38" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B38" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="C38" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr">
+      <c r="D38" s="64" t="inlineStr">
         <is>
           <t>Eth2-03</t>
         </is>
       </c>
-      <c r="E38" s="65" t="inlineStr">
+      <c r="E38" s="64" t="inlineStr">
         <is>
           <t>2/3</t>
         </is>
       </c>
-      <c r="F38" s="65" t="inlineStr"/>
-      <c r="G38" s="65" t="inlineStr"/>
-      <c r="H38" s="65" t="inlineStr"/>
-      <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="inlineStr"/>
-      <c r="K38" s="65" t="inlineStr"/>
-      <c r="L38" s="65" t="n"/>
-      <c r="M38" s="65" t="n"/>
+      <c r="F38" s="64" t="inlineStr"/>
+      <c r="G38" s="64" t="inlineStr"/>
+      <c r="H38" s="64" t="inlineStr"/>
+      <c r="I38" s="64" t="inlineStr"/>
+      <c r="J38" s="64" t="inlineStr"/>
+      <c r="K38" s="64" t="inlineStr"/>
+      <c r="L38" s="64" t="n"/>
+      <c r="M38" s="64" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B39" s="64" t="inlineStr">
+      <c r="A39" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B39" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="C39" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr">
+      <c r="D39" s="65" t="inlineStr">
         <is>
           <t>Eth2-04</t>
         </is>
       </c>
-      <c r="E39" s="64" t="inlineStr">
+      <c r="E39" s="65" t="inlineStr">
         <is>
           <t>2/4</t>
         </is>
       </c>
-      <c r="F39" s="64" t="inlineStr"/>
-      <c r="G39" s="64" t="inlineStr"/>
-      <c r="H39" s="64" t="inlineStr"/>
-      <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="inlineStr"/>
-      <c r="K39" s="64" t="inlineStr"/>
-      <c r="L39" s="64" t="n"/>
-      <c r="M39" s="64" t="n"/>
+      <c r="F39" s="65" t="inlineStr"/>
+      <c r="G39" s="65" t="inlineStr"/>
+      <c r="H39" s="65" t="inlineStr"/>
+      <c r="I39" s="65" t="inlineStr"/>
+      <c r="J39" s="65" t="inlineStr"/>
+      <c r="K39" s="65" t="inlineStr"/>
+      <c r="L39" s="65" t="n"/>
+      <c r="M39" s="65" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B40" s="65" t="inlineStr">
+      <c r="A40" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B40" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="C40" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr">
+      <c r="D40" s="64" t="inlineStr">
         <is>
           <t>Eth2-05</t>
         </is>
       </c>
-      <c r="E40" s="65" t="inlineStr">
+      <c r="E40" s="64" t="inlineStr">
         <is>
           <t>2/5</t>
         </is>
       </c>
-      <c r="F40" s="65" t="inlineStr"/>
-      <c r="G40" s="65" t="inlineStr"/>
-      <c r="H40" s="65" t="inlineStr"/>
-      <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="inlineStr"/>
-      <c r="K40" s="65" t="inlineStr"/>
-      <c r="L40" s="65" t="n"/>
-      <c r="M40" s="65" t="n"/>
+      <c r="F40" s="64" t="inlineStr"/>
+      <c r="G40" s="64" t="inlineStr"/>
+      <c r="H40" s="64" t="inlineStr"/>
+      <c r="I40" s="64" t="inlineStr"/>
+      <c r="J40" s="64" t="inlineStr"/>
+      <c r="K40" s="64" t="inlineStr"/>
+      <c r="L40" s="64" t="n"/>
+      <c r="M40" s="64" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B41" s="64" t="inlineStr">
+      <c r="A41" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B41" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="C41" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr">
+      <c r="D41" s="65" t="inlineStr">
         <is>
           <t>Eth2-06</t>
         </is>
       </c>
-      <c r="E41" s="64" t="inlineStr">
+      <c r="E41" s="65" t="inlineStr">
         <is>
           <t>2/6</t>
         </is>
       </c>
-      <c r="F41" s="64" t="inlineStr"/>
-      <c r="G41" s="64" t="inlineStr"/>
-      <c r="H41" s="64" t="inlineStr"/>
-      <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="inlineStr"/>
-      <c r="K41" s="64" t="inlineStr"/>
-      <c r="L41" s="64" t="n"/>
-      <c r="M41" s="64" t="n"/>
+      <c r="F41" s="65" t="inlineStr"/>
+      <c r="G41" s="65" t="inlineStr"/>
+      <c r="H41" s="65" t="inlineStr"/>
+      <c r="I41" s="65" t="inlineStr"/>
+      <c r="J41" s="65" t="inlineStr"/>
+      <c r="K41" s="65" t="inlineStr"/>
+      <c r="L41" s="65" t="n"/>
+      <c r="M41" s="65" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B42" s="65" t="inlineStr">
+      <c r="A42" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B42" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="C42" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr">
+      <c r="D42" s="64" t="inlineStr">
         <is>
           <t>Eth2-07</t>
         </is>
       </c>
-      <c r="E42" s="65" t="inlineStr">
+      <c r="E42" s="64" t="inlineStr">
         <is>
           <t>2/7</t>
         </is>
       </c>
-      <c r="F42" s="65" t="inlineStr"/>
-      <c r="G42" s="65" t="inlineStr"/>
-      <c r="H42" s="65" t="inlineStr"/>
-      <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="inlineStr"/>
-      <c r="K42" s="65" t="inlineStr"/>
-      <c r="L42" s="65" t="n"/>
-      <c r="M42" s="65" t="n"/>
+      <c r="F42" s="64" t="inlineStr"/>
+      <c r="G42" s="64" t="inlineStr"/>
+      <c r="H42" s="64" t="inlineStr"/>
+      <c r="I42" s="64" t="inlineStr"/>
+      <c r="J42" s="64" t="inlineStr"/>
+      <c r="K42" s="64" t="inlineStr"/>
+      <c r="L42" s="64" t="n"/>
+      <c r="M42" s="64" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B43" s="64" t="inlineStr">
+      <c r="A43" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B43" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="C43" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr">
+      <c r="D43" s="65" t="inlineStr">
         <is>
           <t>Eth2-08</t>
         </is>
       </c>
-      <c r="E43" s="64" t="inlineStr">
+      <c r="E43" s="65" t="inlineStr">
         <is>
           <t>2/8</t>
         </is>
       </c>
-      <c r="F43" s="64" t="inlineStr"/>
-      <c r="G43" s="64" t="inlineStr"/>
-      <c r="H43" s="64" t="inlineStr"/>
-      <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="inlineStr"/>
-      <c r="K43" s="64" t="inlineStr"/>
-      <c r="L43" s="64" t="n"/>
-      <c r="M43" s="64" t="n"/>
+      <c r="F43" s="65" t="inlineStr"/>
+      <c r="G43" s="65" t="inlineStr"/>
+      <c r="H43" s="65" t="inlineStr"/>
+      <c r="I43" s="65" t="inlineStr"/>
+      <c r="J43" s="65" t="inlineStr"/>
+      <c r="K43" s="65" t="inlineStr"/>
+      <c r="L43" s="65" t="n"/>
+      <c r="M43" s="65" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B44" s="65" t="inlineStr">
+      <c r="A44" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B44" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="C44" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr">
+      <c r="D44" s="64" t="inlineStr">
         <is>
           <t>Eth2-09</t>
         </is>
       </c>
-      <c r="E44" s="65" t="inlineStr">
+      <c r="E44" s="64" t="inlineStr">
         <is>
           <t>2/9</t>
         </is>
       </c>
-      <c r="F44" s="65" t="inlineStr"/>
-      <c r="G44" s="65" t="inlineStr"/>
-      <c r="H44" s="65" t="inlineStr"/>
-      <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="inlineStr"/>
-      <c r="K44" s="65" t="inlineStr"/>
-      <c r="L44" s="65" t="n"/>
-      <c r="M44" s="65" t="n"/>
+      <c r="F44" s="64" t="inlineStr"/>
+      <c r="G44" s="64" t="inlineStr"/>
+      <c r="H44" s="64" t="inlineStr"/>
+      <c r="I44" s="64" t="inlineStr"/>
+      <c r="J44" s="64" t="inlineStr"/>
+      <c r="K44" s="64" t="inlineStr"/>
+      <c r="L44" s="64" t="n"/>
+      <c r="M44" s="64" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B45" s="64" t="inlineStr">
+      <c r="A45" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B45" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="C45" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr">
+      <c r="D45" s="65" t="inlineStr">
         <is>
           <t>Eth2-10</t>
         </is>
       </c>
-      <c r="E45" s="64" t="inlineStr">
+      <c r="E45" s="65" t="inlineStr">
         <is>
           <t>2/10</t>
         </is>
       </c>
-      <c r="F45" s="64" t="inlineStr"/>
-      <c r="G45" s="64" t="inlineStr"/>
-      <c r="H45" s="64" t="inlineStr"/>
-      <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="inlineStr"/>
-      <c r="K45" s="64" t="inlineStr"/>
-      <c r="L45" s="64" t="n"/>
-      <c r="M45" s="64" t="n"/>
+      <c r="F45" s="65" t="inlineStr"/>
+      <c r="G45" s="65" t="inlineStr"/>
+      <c r="H45" s="65" t="inlineStr"/>
+      <c r="I45" s="65" t="inlineStr"/>
+      <c r="J45" s="65" t="inlineStr"/>
+      <c r="K45" s="65" t="inlineStr"/>
+      <c r="L45" s="65" t="n"/>
+      <c r="M45" s="65" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B46" s="65" t="inlineStr">
+      <c r="A46" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B46" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="C46" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr">
+      <c r="D46" s="64" t="inlineStr">
         <is>
           <t>Eth2-11</t>
         </is>
       </c>
-      <c r="E46" s="65" t="inlineStr">
+      <c r="E46" s="64" t="inlineStr">
         <is>
           <t>2/11</t>
         </is>
       </c>
-      <c r="F46" s="65" t="inlineStr"/>
-      <c r="G46" s="65" t="inlineStr"/>
-      <c r="H46" s="65" t="inlineStr"/>
-      <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="inlineStr"/>
-      <c r="K46" s="65" t="inlineStr"/>
-      <c r="L46" s="65" t="n"/>
-      <c r="M46" s="65" t="n"/>
+      <c r="F46" s="64" t="inlineStr"/>
+      <c r="G46" s="64" t="inlineStr"/>
+      <c r="H46" s="64" t="inlineStr"/>
+      <c r="I46" s="64" t="inlineStr"/>
+      <c r="J46" s="64" t="inlineStr"/>
+      <c r="K46" s="64" t="inlineStr"/>
+      <c r="L46" s="64" t="n"/>
+      <c r="M46" s="64" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B47" s="64" t="inlineStr">
+      <c r="A47" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B47" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="C47" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr">
+      <c r="D47" s="65" t="inlineStr">
         <is>
           <t>Eth2-12</t>
         </is>
       </c>
-      <c r="E47" s="64" t="inlineStr">
+      <c r="E47" s="65" t="inlineStr">
         <is>
           <t>2/12</t>
         </is>
       </c>
-      <c r="F47" s="64" t="inlineStr"/>
-      <c r="G47" s="64" t="inlineStr"/>
-      <c r="H47" s="64" t="inlineStr"/>
-      <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="inlineStr"/>
-      <c r="K47" s="64" t="inlineStr"/>
-      <c r="L47" s="64" t="n"/>
-      <c r="M47" s="64" t="n"/>
+      <c r="F47" s="65" t="inlineStr"/>
+      <c r="G47" s="65" t="inlineStr"/>
+      <c r="H47" s="65" t="inlineStr"/>
+      <c r="I47" s="65" t="inlineStr"/>
+      <c r="J47" s="65" t="inlineStr"/>
+      <c r="K47" s="65" t="inlineStr"/>
+      <c r="L47" s="65" t="n"/>
+      <c r="M47" s="65" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B48" s="65" t="inlineStr">
+      <c r="A48" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B48" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="C48" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr">
+      <c r="D48" s="64" t="inlineStr">
         <is>
           <t>Eth2-13</t>
         </is>
       </c>
-      <c r="E48" s="65" t="inlineStr">
+      <c r="E48" s="64" t="inlineStr">
         <is>
           <t>2/13</t>
         </is>
       </c>
-      <c r="F48" s="65" t="inlineStr"/>
-      <c r="G48" s="65" t="inlineStr"/>
-      <c r="H48" s="65" t="inlineStr"/>
-      <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="inlineStr"/>
-      <c r="K48" s="65" t="inlineStr"/>
-      <c r="L48" s="65" t="n"/>
-      <c r="M48" s="65" t="n"/>
+      <c r="F48" s="64" t="inlineStr"/>
+      <c r="G48" s="64" t="inlineStr"/>
+      <c r="H48" s="64" t="inlineStr"/>
+      <c r="I48" s="64" t="inlineStr"/>
+      <c r="J48" s="64" t="inlineStr"/>
+      <c r="K48" s="64" t="inlineStr"/>
+      <c r="L48" s="64" t="n"/>
+      <c r="M48" s="64" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B49" s="64" t="inlineStr">
+      <c r="A49" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B49" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="C49" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr">
+      <c r="D49" s="65" t="inlineStr">
         <is>
           <t>Eth2-14</t>
         </is>
       </c>
-      <c r="E49" s="64" t="inlineStr">
+      <c r="E49" s="65" t="inlineStr">
         <is>
           <t>2/14</t>
         </is>
       </c>
-      <c r="F49" s="64" t="inlineStr"/>
-      <c r="G49" s="64" t="inlineStr"/>
-      <c r="H49" s="64" t="inlineStr"/>
-      <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="inlineStr"/>
-      <c r="K49" s="64" t="inlineStr"/>
-      <c r="L49" s="64" t="n"/>
-      <c r="M49" s="64" t="n"/>
+      <c r="F49" s="65" t="inlineStr"/>
+      <c r="G49" s="65" t="inlineStr"/>
+      <c r="H49" s="65" t="inlineStr"/>
+      <c r="I49" s="65" t="inlineStr"/>
+      <c r="J49" s="65" t="inlineStr"/>
+      <c r="K49" s="65" t="inlineStr"/>
+      <c r="L49" s="65" t="n"/>
+      <c r="M49" s="65" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B50" s="65" t="inlineStr">
+      <c r="A50" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B50" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="C50" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr">
+      <c r="D50" s="64" t="inlineStr">
         <is>
           <t>Eth2-15</t>
         </is>
       </c>
-      <c r="E50" s="65" t="inlineStr">
+      <c r="E50" s="64" t="inlineStr">
         <is>
           <t>2/15</t>
         </is>
       </c>
-      <c r="F50" s="65" t="inlineStr"/>
-      <c r="G50" s="65" t="inlineStr"/>
-      <c r="H50" s="65" t="inlineStr"/>
-      <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="inlineStr"/>
-      <c r="K50" s="65" t="inlineStr"/>
-      <c r="L50" s="65" t="n"/>
-      <c r="M50" s="65" t="n"/>
+      <c r="F50" s="64" t="inlineStr"/>
+      <c r="G50" s="64" t="inlineStr"/>
+      <c r="H50" s="64" t="inlineStr"/>
+      <c r="I50" s="64" t="inlineStr"/>
+      <c r="J50" s="64" t="inlineStr"/>
+      <c r="K50" s="64" t="inlineStr"/>
+      <c r="L50" s="64" t="n"/>
+      <c r="M50" s="64" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B51" s="64" t="inlineStr">
+      <c r="A51" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B51" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="C51" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr">
+      <c r="D51" s="65" t="inlineStr">
         <is>
           <t>Eth2-16</t>
         </is>
       </c>
-      <c r="E51" s="64" t="inlineStr">
+      <c r="E51" s="65" t="inlineStr">
         <is>
           <t>2/16</t>
         </is>
       </c>
-      <c r="F51" s="64" t="inlineStr"/>
-      <c r="G51" s="64" t="inlineStr"/>
-      <c r="H51" s="64" t="inlineStr"/>
-      <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="inlineStr"/>
-      <c r="K51" s="64" t="inlineStr"/>
-      <c r="L51" s="64" t="n"/>
-      <c r="M51" s="64" t="n"/>
+      <c r="F51" s="65" t="inlineStr"/>
+      <c r="G51" s="65" t="inlineStr"/>
+      <c r="H51" s="65" t="inlineStr"/>
+      <c r="I51" s="65" t="inlineStr"/>
+      <c r="J51" s="65" t="inlineStr"/>
+      <c r="K51" s="65" t="inlineStr"/>
+      <c r="L51" s="65" t="n"/>
+      <c r="M51" s="65" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B52" s="65" t="inlineStr">
+      <c r="A52" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B52" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="C52" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr">
+      <c r="D52" s="64" t="inlineStr">
         <is>
           <t>Eth2-17</t>
         </is>
       </c>
-      <c r="E52" s="65" t="inlineStr">
+      <c r="E52" s="64" t="inlineStr">
         <is>
           <t>2/17</t>
         </is>
       </c>
-      <c r="F52" s="65" t="inlineStr"/>
-      <c r="G52" s="65" t="inlineStr"/>
-      <c r="H52" s="65" t="inlineStr"/>
-      <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="inlineStr"/>
-      <c r="K52" s="65" t="inlineStr"/>
-      <c r="L52" s="65" t="n"/>
-      <c r="M52" s="65" t="n"/>
+      <c r="F52" s="64" t="inlineStr"/>
+      <c r="G52" s="64" t="inlineStr"/>
+      <c r="H52" s="64" t="inlineStr"/>
+      <c r="I52" s="64" t="inlineStr"/>
+      <c r="J52" s="64" t="inlineStr"/>
+      <c r="K52" s="64" t="inlineStr"/>
+      <c r="L52" s="64" t="n"/>
+      <c r="M52" s="64" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B53" s="64" t="inlineStr">
+      <c r="A53" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B53" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="C53" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr">
+      <c r="D53" s="65" t="inlineStr">
         <is>
           <t>Eth2-18</t>
         </is>
       </c>
-      <c r="E53" s="64" t="inlineStr">
+      <c r="E53" s="65" t="inlineStr">
         <is>
           <t>2/18</t>
         </is>
       </c>
-      <c r="F53" s="64" t="inlineStr"/>
-      <c r="G53" s="64" t="inlineStr"/>
-      <c r="H53" s="64" t="inlineStr"/>
-      <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="inlineStr"/>
-      <c r="K53" s="64" t="inlineStr"/>
-      <c r="L53" s="64" t="n"/>
-      <c r="M53" s="64" t="n"/>
+      <c r="F53" s="65" t="inlineStr"/>
+      <c r="G53" s="65" t="inlineStr"/>
+      <c r="H53" s="65" t="inlineStr"/>
+      <c r="I53" s="65" t="inlineStr"/>
+      <c r="J53" s="65" t="inlineStr"/>
+      <c r="K53" s="65" t="inlineStr"/>
+      <c r="L53" s="65" t="n"/>
+      <c r="M53" s="65" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B54" s="65" t="inlineStr">
+      <c r="A54" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B54" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="C54" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr">
+      <c r="D54" s="64" t="inlineStr">
         <is>
           <t>Eth2-19</t>
         </is>
       </c>
-      <c r="E54" s="65" t="inlineStr">
+      <c r="E54" s="64" t="inlineStr">
         <is>
           <t>2/19</t>
         </is>
       </c>
-      <c r="F54" s="65" t="inlineStr"/>
-      <c r="G54" s="65" t="inlineStr"/>
-      <c r="H54" s="65" t="inlineStr"/>
-      <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="inlineStr"/>
-      <c r="K54" s="65" t="inlineStr"/>
-      <c r="L54" s="65" t="n"/>
-      <c r="M54" s="65" t="n"/>
+      <c r="F54" s="64" t="inlineStr"/>
+      <c r="G54" s="64" t="inlineStr"/>
+      <c r="H54" s="64" t="inlineStr"/>
+      <c r="I54" s="64" t="inlineStr"/>
+      <c r="J54" s="64" t="inlineStr"/>
+      <c r="K54" s="64" t="inlineStr"/>
+      <c r="L54" s="64" t="n"/>
+      <c r="M54" s="64" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B55" s="64" t="inlineStr">
+      <c r="A55" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B55" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="C55" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr">
+      <c r="D55" s="65" t="inlineStr">
         <is>
           <t>Eth2-20</t>
         </is>
       </c>
-      <c r="E55" s="64" t="inlineStr">
+      <c r="E55" s="65" t="inlineStr">
         <is>
           <t>2/20</t>
         </is>
       </c>
-      <c r="F55" s="64" t="inlineStr"/>
-      <c r="G55" s="64" t="inlineStr"/>
-      <c r="H55" s="64" t="inlineStr"/>
-      <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="inlineStr"/>
-      <c r="K55" s="64" t="inlineStr"/>
-      <c r="L55" s="64" t="n"/>
-      <c r="M55" s="64" t="n"/>
+      <c r="F55" s="65" t="inlineStr"/>
+      <c r="G55" s="65" t="inlineStr"/>
+      <c r="H55" s="65" t="inlineStr"/>
+      <c r="I55" s="65" t="inlineStr"/>
+      <c r="J55" s="65" t="inlineStr"/>
+      <c r="K55" s="65" t="inlineStr"/>
+      <c r="L55" s="65" t="n"/>
+      <c r="M55" s="65" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B56" s="65" t="inlineStr">
+      <c r="A56" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B56" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="C56" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr">
+      <c r="D56" s="64" t="inlineStr">
         <is>
           <t>Eth2-21</t>
         </is>
       </c>
-      <c r="E56" s="65" t="inlineStr">
+      <c r="E56" s="64" t="inlineStr">
         <is>
           <t>2/21</t>
         </is>
       </c>
-      <c r="F56" s="65" t="inlineStr"/>
-      <c r="G56" s="65" t="inlineStr"/>
-      <c r="H56" s="65" t="inlineStr"/>
-      <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="inlineStr"/>
-      <c r="K56" s="65" t="inlineStr"/>
-      <c r="L56" s="65" t="n"/>
-      <c r="M56" s="65" t="n"/>
+      <c r="F56" s="64" t="inlineStr"/>
+      <c r="G56" s="64" t="inlineStr"/>
+      <c r="H56" s="64" t="inlineStr"/>
+      <c r="I56" s="64" t="inlineStr"/>
+      <c r="J56" s="64" t="inlineStr"/>
+      <c r="K56" s="64" t="inlineStr"/>
+      <c r="L56" s="64" t="n"/>
+      <c r="M56" s="64" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B57" s="64" t="inlineStr">
+      <c r="A57" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B57" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="C57" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr">
+      <c r="D57" s="65" t="inlineStr">
         <is>
           <t>Eth2-22</t>
         </is>
       </c>
-      <c r="E57" s="64" t="inlineStr">
+      <c r="E57" s="65" t="inlineStr">
         <is>
           <t>2/22</t>
         </is>
       </c>
-      <c r="F57" s="64" t="inlineStr"/>
-      <c r="G57" s="64" t="inlineStr"/>
-      <c r="H57" s="64" t="inlineStr"/>
-      <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="inlineStr"/>
-      <c r="K57" s="64" t="inlineStr"/>
-      <c r="L57" s="64" t="n"/>
-      <c r="M57" s="64" t="n"/>
+      <c r="F57" s="65" t="inlineStr"/>
+      <c r="G57" s="65" t="inlineStr"/>
+      <c r="H57" s="65" t="inlineStr"/>
+      <c r="I57" s="65" t="inlineStr"/>
+      <c r="J57" s="65" t="inlineStr"/>
+      <c r="K57" s="65" t="inlineStr"/>
+      <c r="L57" s="65" t="n"/>
+      <c r="M57" s="65" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B58" s="65" t="inlineStr">
+      <c r="A58" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B58" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C58" s="65" t="inlineStr">
+      <c r="C58" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D58" s="65" t="inlineStr">
+      <c r="D58" s="64" t="inlineStr">
         <is>
           <t>Eth2-23</t>
         </is>
       </c>
-      <c r="E58" s="65" t="inlineStr">
+      <c r="E58" s="64" t="inlineStr">
         <is>
           <t>2/23</t>
         </is>
       </c>
-      <c r="F58" s="65" t="inlineStr"/>
-      <c r="G58" s="65" t="inlineStr"/>
-      <c r="H58" s="65" t="inlineStr"/>
-      <c r="I58" s="65" t="inlineStr"/>
-      <c r="J58" s="65" t="inlineStr"/>
-      <c r="K58" s="65" t="inlineStr"/>
-      <c r="L58" s="65" t="n"/>
-      <c r="M58" s="65" t="n"/>
+      <c r="F58" s="64" t="inlineStr"/>
+      <c r="G58" s="64" t="inlineStr"/>
+      <c r="H58" s="64" t="inlineStr"/>
+      <c r="I58" s="64" t="inlineStr"/>
+      <c r="J58" s="64" t="inlineStr"/>
+      <c r="K58" s="64" t="inlineStr"/>
+      <c r="L58" s="64" t="n"/>
+      <c r="M58" s="64" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B59" s="64" t="inlineStr">
+      <c r="A59" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B59" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C59" s="64" t="inlineStr">
+      <c r="C59" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D59" s="64" t="inlineStr">
+      <c r="D59" s="65" t="inlineStr">
         <is>
           <t>Eth2-24</t>
         </is>
       </c>
-      <c r="E59" s="64" t="inlineStr">
+      <c r="E59" s="65" t="inlineStr">
         <is>
           <t>2/24</t>
         </is>
       </c>
-      <c r="F59" s="64" t="inlineStr"/>
-      <c r="G59" s="64" t="inlineStr"/>
-      <c r="H59" s="64" t="inlineStr"/>
-      <c r="I59" s="64" t="inlineStr"/>
-      <c r="J59" s="64" t="inlineStr"/>
-      <c r="K59" s="64" t="inlineStr"/>
-      <c r="L59" s="64" t="n"/>
-      <c r="M59" s="64" t="n"/>
+      <c r="F59" s="65" t="inlineStr"/>
+      <c r="G59" s="65" t="inlineStr"/>
+      <c r="H59" s="65" t="inlineStr"/>
+      <c r="I59" s="65" t="inlineStr"/>
+      <c r="J59" s="65" t="inlineStr"/>
+      <c r="K59" s="65" t="inlineStr"/>
+      <c r="L59" s="65" t="n"/>
+      <c r="M59" s="65" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B60" s="65" t="inlineStr">
+      <c r="A60" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B60" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C60" s="65" t="inlineStr">
+      <c r="C60" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D60" s="65" t="inlineStr">
+      <c r="D60" s="64" t="inlineStr">
         <is>
           <t>Eth2-25</t>
         </is>
       </c>
-      <c r="E60" s="65" t="inlineStr">
+      <c r="E60" s="64" t="inlineStr">
         <is>
           <t>2/25</t>
         </is>
       </c>
-      <c r="F60" s="65" t="inlineStr"/>
-      <c r="G60" s="65" t="inlineStr"/>
-      <c r="H60" s="65" t="inlineStr"/>
-      <c r="I60" s="65" t="inlineStr"/>
-      <c r="J60" s="65" t="inlineStr"/>
-      <c r="K60" s="65" t="inlineStr"/>
-      <c r="L60" s="65" t="n"/>
-      <c r="M60" s="65" t="n"/>
+      <c r="F60" s="64" t="inlineStr"/>
+      <c r="G60" s="64" t="inlineStr"/>
+      <c r="H60" s="64" t="inlineStr"/>
+      <c r="I60" s="64" t="inlineStr"/>
+      <c r="J60" s="64" t="inlineStr"/>
+      <c r="K60" s="64" t="inlineStr"/>
+      <c r="L60" s="64" t="n"/>
+      <c r="M60" s="64" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B61" s="64" t="inlineStr">
+      <c r="A61" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B61" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C61" s="64" t="inlineStr">
+      <c r="C61" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D61" s="64" t="inlineStr">
+      <c r="D61" s="65" t="inlineStr">
         <is>
           <t>Eth2-26</t>
         </is>
       </c>
-      <c r="E61" s="64" t="inlineStr">
+      <c r="E61" s="65" t="inlineStr">
         <is>
           <t>2/26</t>
         </is>
       </c>
-      <c r="F61" s="64" t="inlineStr"/>
-      <c r="G61" s="64" t="inlineStr"/>
-      <c r="H61" s="64" t="inlineStr"/>
-      <c r="I61" s="64" t="inlineStr"/>
-      <c r="J61" s="64" t="inlineStr"/>
-      <c r="K61" s="64" t="inlineStr"/>
-      <c r="L61" s="64" t="n"/>
-      <c r="M61" s="64" t="n"/>
+      <c r="F61" s="65" t="inlineStr"/>
+      <c r="G61" s="65" t="inlineStr"/>
+      <c r="H61" s="65" t="inlineStr"/>
+      <c r="I61" s="65" t="inlineStr"/>
+      <c r="J61" s="65" t="inlineStr"/>
+      <c r="K61" s="65" t="inlineStr"/>
+      <c r="L61" s="65" t="n"/>
+      <c r="M61" s="65" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B62" s="65" t="inlineStr">
+      <c r="A62" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B62" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C62" s="65" t="inlineStr">
+      <c r="C62" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D62" s="65" t="inlineStr">
+      <c r="D62" s="64" t="inlineStr">
         <is>
           <t>Eth2-27</t>
         </is>
       </c>
-      <c r="E62" s="65" t="inlineStr">
+      <c r="E62" s="64" t="inlineStr">
         <is>
           <t>2/27</t>
         </is>
       </c>
-      <c r="F62" s="65" t="inlineStr"/>
-      <c r="G62" s="65" t="inlineStr"/>
-      <c r="H62" s="65" t="inlineStr"/>
-      <c r="I62" s="65" t="inlineStr"/>
-      <c r="J62" s="65" t="inlineStr"/>
-      <c r="K62" s="65" t="inlineStr"/>
-      <c r="L62" s="65" t="n"/>
-      <c r="M62" s="65" t="n"/>
+      <c r="F62" s="64" t="inlineStr"/>
+      <c r="G62" s="64" t="inlineStr"/>
+      <c r="H62" s="64" t="inlineStr"/>
+      <c r="I62" s="64" t="inlineStr"/>
+      <c r="J62" s="64" t="inlineStr"/>
+      <c r="K62" s="64" t="inlineStr"/>
+      <c r="L62" s="64" t="n"/>
+      <c r="M62" s="64" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B63" s="64" t="inlineStr">
+      <c r="A63" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B63" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C63" s="64" t="inlineStr">
+      <c r="C63" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D63" s="64" t="inlineStr">
+      <c r="D63" s="65" t="inlineStr">
         <is>
           <t>Eth2-28</t>
         </is>
       </c>
-      <c r="E63" s="64" t="inlineStr">
+      <c r="E63" s="65" t="inlineStr">
         <is>
           <t>2/28</t>
         </is>
       </c>
-      <c r="F63" s="64" t="inlineStr"/>
-      <c r="G63" s="64" t="inlineStr"/>
-      <c r="H63" s="64" t="inlineStr"/>
-      <c r="I63" s="64" t="inlineStr"/>
-      <c r="J63" s="64" t="inlineStr"/>
-      <c r="K63" s="64" t="inlineStr"/>
-      <c r="L63" s="64" t="n"/>
-      <c r="M63" s="64" t="n"/>
+      <c r="F63" s="65" t="inlineStr"/>
+      <c r="G63" s="65" t="inlineStr"/>
+      <c r="H63" s="65" t="inlineStr"/>
+      <c r="I63" s="65" t="inlineStr"/>
+      <c r="J63" s="65" t="inlineStr"/>
+      <c r="K63" s="65" t="inlineStr"/>
+      <c r="L63" s="65" t="n"/>
+      <c r="M63" s="65" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B64" s="65" t="inlineStr">
+      <c r="A64" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B64" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C64" s="65" t="inlineStr">
+      <c r="C64" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D64" s="65" t="inlineStr">
+      <c r="D64" s="64" t="inlineStr">
         <is>
           <t>Eth2-29</t>
         </is>
       </c>
-      <c r="E64" s="65" t="inlineStr">
+      <c r="E64" s="64" t="inlineStr">
         <is>
           <t>2/29</t>
         </is>
       </c>
-      <c r="F64" s="65" t="inlineStr"/>
-      <c r="G64" s="65" t="inlineStr"/>
-      <c r="H64" s="65" t="inlineStr"/>
-      <c r="I64" s="65" t="inlineStr"/>
-      <c r="J64" s="65" t="inlineStr"/>
-      <c r="K64" s="65" t="inlineStr"/>
-      <c r="L64" s="65" t="n"/>
-      <c r="M64" s="65" t="n"/>
+      <c r="F64" s="64" t="inlineStr"/>
+      <c r="G64" s="64" t="inlineStr"/>
+      <c r="H64" s="64" t="inlineStr"/>
+      <c r="I64" s="64" t="inlineStr"/>
+      <c r="J64" s="64" t="inlineStr"/>
+      <c r="K64" s="64" t="inlineStr"/>
+      <c r="L64" s="64" t="n"/>
+      <c r="M64" s="64" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B65" s="64" t="inlineStr">
+      <c r="A65" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B65" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C65" s="64" t="inlineStr">
+      <c r="C65" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D65" s="64" t="inlineStr">
+      <c r="D65" s="65" t="inlineStr">
         <is>
           <t>Eth2-30</t>
         </is>
       </c>
-      <c r="E65" s="64" t="inlineStr">
+      <c r="E65" s="65" t="inlineStr">
         <is>
           <t>2/30</t>
         </is>
       </c>
-      <c r="F65" s="64" t="inlineStr"/>
-      <c r="G65" s="64" t="inlineStr"/>
-      <c r="H65" s="64" t="inlineStr"/>
-      <c r="I65" s="64" t="inlineStr"/>
-      <c r="J65" s="64" t="inlineStr"/>
-      <c r="K65" s="64" t="inlineStr"/>
-      <c r="L65" s="64" t="n"/>
-      <c r="M65" s="64" t="n"/>
+      <c r="F65" s="65" t="inlineStr"/>
+      <c r="G65" s="65" t="inlineStr"/>
+      <c r="H65" s="65" t="inlineStr"/>
+      <c r="I65" s="65" t="inlineStr"/>
+      <c r="J65" s="65" t="inlineStr"/>
+      <c r="K65" s="65" t="inlineStr"/>
+      <c r="L65" s="65" t="n"/>
+      <c r="M65" s="65" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B66" s="65" t="inlineStr">
+      <c r="A66" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B66" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C66" s="65" t="inlineStr">
+      <c r="C66" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D66" s="65" t="inlineStr">
+      <c r="D66" s="64" t="inlineStr">
         <is>
           <t>Eth2-31</t>
         </is>
       </c>
-      <c r="E66" s="65" t="inlineStr">
+      <c r="E66" s="64" t="inlineStr">
         <is>
           <t>2/31</t>
         </is>
       </c>
-      <c r="F66" s="65" t="inlineStr"/>
-      <c r="G66" s="65" t="inlineStr"/>
-      <c r="H66" s="65" t="inlineStr"/>
-      <c r="I66" s="65" t="inlineStr"/>
-      <c r="J66" s="65" t="inlineStr"/>
-      <c r="K66" s="65" t="inlineStr"/>
-      <c r="L66" s="65" t="n"/>
-      <c r="M66" s="65" t="n"/>
+      <c r="F66" s="64" t="inlineStr"/>
+      <c r="G66" s="64" t="inlineStr"/>
+      <c r="H66" s="64" t="inlineStr"/>
+      <c r="I66" s="64" t="inlineStr"/>
+      <c r="J66" s="64" t="inlineStr"/>
+      <c r="K66" s="64" t="inlineStr"/>
+      <c r="L66" s="64" t="n"/>
+      <c r="M66" s="64" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B67" s="64" t="inlineStr">
+      <c r="A67" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B67" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C67" s="64" t="inlineStr">
+      <c r="C67" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D67" s="64" t="inlineStr">
+      <c r="D67" s="65" t="inlineStr">
         <is>
           <t>Eth2-32</t>
         </is>
       </c>
-      <c r="E67" s="64" t="inlineStr">
+      <c r="E67" s="65" t="inlineStr">
         <is>
           <t>2/32</t>
         </is>
       </c>
-      <c r="F67" s="64" t="inlineStr"/>
-      <c r="G67" s="64" t="inlineStr"/>
-      <c r="H67" s="64" t="inlineStr"/>
-      <c r="I67" s="64" t="inlineStr"/>
-      <c r="J67" s="64" t="inlineStr"/>
-      <c r="K67" s="64" t="inlineStr"/>
-      <c r="L67" s="64" t="n"/>
-      <c r="M67" s="64" t="n"/>
+      <c r="F67" s="65" t="inlineStr"/>
+      <c r="G67" s="65" t="inlineStr"/>
+      <c r="H67" s="65" t="inlineStr"/>
+      <c r="I67" s="65" t="inlineStr"/>
+      <c r="J67" s="65" t="inlineStr"/>
+      <c r="K67" s="65" t="inlineStr"/>
+      <c r="L67" s="65" t="n"/>
+      <c r="M67" s="65" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B68" s="65" t="inlineStr">
+      <c r="A68" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B68" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C68" s="65" t="inlineStr">
+      <c r="C68" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D68" s="65" t="inlineStr">
+      <c r="D68" s="64" t="inlineStr">
         <is>
           <t>Eth2-33</t>
         </is>
       </c>
-      <c r="E68" s="65" t="inlineStr">
+      <c r="E68" s="64" t="inlineStr">
         <is>
           <t>2/33</t>
         </is>
       </c>
-      <c r="F68" s="65" t="inlineStr"/>
-      <c r="G68" s="65" t="inlineStr"/>
-      <c r="H68" s="65" t="inlineStr"/>
-      <c r="I68" s="65" t="inlineStr"/>
-      <c r="J68" s="65" t="inlineStr"/>
-      <c r="K68" s="65" t="inlineStr"/>
-      <c r="L68" s="65" t="n"/>
-      <c r="M68" s="65" t="n"/>
+      <c r="F68" s="64" t="inlineStr"/>
+      <c r="G68" s="64" t="inlineStr"/>
+      <c r="H68" s="64" t="inlineStr"/>
+      <c r="I68" s="64" t="inlineStr"/>
+      <c r="J68" s="64" t="inlineStr"/>
+      <c r="K68" s="64" t="inlineStr"/>
+      <c r="L68" s="64" t="n"/>
+      <c r="M68" s="64" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B69" s="64" t="inlineStr">
+      <c r="A69" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B69" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C69" s="64" t="inlineStr">
+      <c r="C69" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D69" s="64" t="inlineStr">
+      <c r="D69" s="65" t="inlineStr">
         <is>
           <t>Eth2-34</t>
         </is>
       </c>
-      <c r="E69" s="64" t="inlineStr">
+      <c r="E69" s="65" t="inlineStr">
         <is>
           <t>2/34</t>
         </is>
       </c>
-      <c r="F69" s="64" t="inlineStr"/>
-      <c r="G69" s="64" t="inlineStr"/>
-      <c r="H69" s="64" t="inlineStr"/>
-      <c r="I69" s="64" t="inlineStr"/>
-      <c r="J69" s="64" t="inlineStr"/>
-      <c r="K69" s="64" t="inlineStr"/>
-      <c r="L69" s="64" t="n"/>
-      <c r="M69" s="64" t="n"/>
+      <c r="F69" s="65" t="inlineStr"/>
+      <c r="G69" s="65" t="inlineStr"/>
+      <c r="H69" s="65" t="inlineStr"/>
+      <c r="I69" s="65" t="inlineStr"/>
+      <c r="J69" s="65" t="inlineStr"/>
+      <c r="K69" s="65" t="inlineStr"/>
+      <c r="L69" s="65" t="n"/>
+      <c r="M69" s="65" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B70" s="65" t="inlineStr">
+      <c r="A70" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B70" s="64" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C70" s="65" t="inlineStr">
+      <c r="C70" s="64" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D70" s="65" t="inlineStr">
+      <c r="D70" s="64" t="inlineStr">
         <is>
           <t>Eth2-35</t>
         </is>
       </c>
-      <c r="E70" s="65" t="inlineStr">
+      <c r="E70" s="64" t="inlineStr">
         <is>
           <t>2/35</t>
         </is>
       </c>
-      <c r="F70" s="65" t="inlineStr"/>
-      <c r="G70" s="65" t="inlineStr"/>
-      <c r="H70" s="65" t="inlineStr"/>
-      <c r="I70" s="65" t="inlineStr"/>
-      <c r="J70" s="65" t="inlineStr"/>
-      <c r="K70" s="65" t="inlineStr"/>
-      <c r="L70" s="65" t="n"/>
-      <c r="M70" s="65" t="n"/>
+      <c r="F70" s="64" t="inlineStr"/>
+      <c r="G70" s="64" t="inlineStr"/>
+      <c r="H70" s="64" t="inlineStr"/>
+      <c r="I70" s="64" t="inlineStr"/>
+      <c r="J70" s="64" t="inlineStr"/>
+      <c r="K70" s="64" t="inlineStr"/>
+      <c r="L70" s="64" t="n"/>
+      <c r="M70" s="64" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B71" s="64" t="inlineStr">
+      <c r="A71" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B71" s="65" t="inlineStr">
         <is>
           <t>dc2-spine101</t>
         </is>
       </c>
-      <c r="C71" s="64" t="inlineStr">
+      <c r="C71" s="65" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D71" s="64" t="inlineStr">
+      <c r="D71" s="65" t="inlineStr">
         <is>
           <t>Eth2-36</t>
         </is>
       </c>
-      <c r="E71" s="64" t="inlineStr">
+      <c r="E71" s="65" t="inlineStr">
         <is>
           <t>2/36</t>
         </is>
       </c>
-      <c r="F71" s="64" t="inlineStr"/>
-      <c r="G71" s="64" t="inlineStr"/>
-      <c r="H71" s="64" t="inlineStr"/>
-      <c r="I71" s="64" t="inlineStr"/>
-      <c r="J71" s="64" t="inlineStr"/>
-      <c r="K71" s="64" t="inlineStr"/>
-      <c r="L71" s="64" t="n"/>
-      <c r="M71" s="64" t="n"/>
+      <c r="F71" s="65" t="inlineStr"/>
+      <c r="G71" s="65" t="inlineStr"/>
+      <c r="H71" s="65" t="inlineStr"/>
+      <c r="I71" s="65" t="inlineStr"/>
+      <c r="J71" s="65" t="inlineStr"/>
+      <c r="K71" s="65" t="inlineStr"/>
+      <c r="L71" s="65" t="n"/>
+      <c r="M71" s="65" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3931,1894 +3931,1894 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B4" s="65" t="inlineStr">
+      <c r="A4" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="C4" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr">
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="E4" s="65" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="F4" s="65" t="inlineStr"/>
-      <c r="G4" s="65" t="inlineStr"/>
-      <c r="H4" s="65" t="inlineStr"/>
-      <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="inlineStr"/>
-      <c r="K4" s="65" t="inlineStr"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="65" t="n"/>
+      <c r="F4" s="64" t="inlineStr"/>
+      <c r="G4" s="64" t="inlineStr"/>
+      <c r="H4" s="64" t="inlineStr"/>
+      <c r="I4" s="64" t="inlineStr"/>
+      <c r="J4" s="64" t="inlineStr"/>
+      <c r="K4" s="64" t="inlineStr"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B5" s="64" t="inlineStr">
+      <c r="A5" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B5" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr">
+      <c r="D5" s="65" t="inlineStr">
         <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="E5" s="64" t="inlineStr">
+      <c r="E5" s="65" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="F5" s="64" t="inlineStr"/>
-      <c r="G5" s="64" t="inlineStr"/>
-      <c r="H5" s="64" t="inlineStr"/>
-      <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="inlineStr"/>
-      <c r="K5" s="64" t="inlineStr"/>
-      <c r="L5" s="64" t="n"/>
-      <c r="M5" s="64" t="n"/>
+      <c r="F5" s="65" t="inlineStr"/>
+      <c r="G5" s="65" t="inlineStr"/>
+      <c r="H5" s="65" t="inlineStr"/>
+      <c r="I5" s="65" t="inlineStr"/>
+      <c r="J5" s="65" t="inlineStr"/>
+      <c r="K5" s="65" t="inlineStr"/>
+      <c r="L5" s="65" t="n"/>
+      <c r="M5" s="65" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B6" s="65" t="inlineStr">
+      <c r="A6" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="C6" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr">
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="E6" s="65" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F6" s="65" t="inlineStr"/>
-      <c r="G6" s="65" t="inlineStr"/>
-      <c r="H6" s="65" t="inlineStr"/>
-      <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="inlineStr"/>
-      <c r="K6" s="65" t="inlineStr"/>
-      <c r="L6" s="65" t="n"/>
-      <c r="M6" s="65" t="n"/>
+      <c r="F6" s="64" t="inlineStr"/>
+      <c r="G6" s="64" t="inlineStr"/>
+      <c r="H6" s="64" t="inlineStr"/>
+      <c r="I6" s="64" t="inlineStr"/>
+      <c r="J6" s="64" t="inlineStr"/>
+      <c r="K6" s="64" t="inlineStr"/>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="64" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B7" s="64" t="inlineStr">
+      <c r="A7" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B7" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="C7" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr">
+      <c r="D7" s="65" t="inlineStr">
         <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="E7" s="64" t="inlineStr">
+      <c r="E7" s="65" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="F7" s="64" t="inlineStr"/>
-      <c r="G7" s="64" t="inlineStr"/>
-      <c r="H7" s="64" t="inlineStr"/>
-      <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="inlineStr"/>
-      <c r="K7" s="64" t="inlineStr"/>
-      <c r="L7" s="64" t="n"/>
-      <c r="M7" s="64" t="n"/>
+      <c r="F7" s="65" t="inlineStr"/>
+      <c r="G7" s="65" t="inlineStr"/>
+      <c r="H7" s="65" t="inlineStr"/>
+      <c r="I7" s="65" t="inlineStr"/>
+      <c r="J7" s="65" t="inlineStr"/>
+      <c r="K7" s="65" t="inlineStr"/>
+      <c r="L7" s="65" t="n"/>
+      <c r="M7" s="65" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B8" s="65" t="inlineStr">
+      <c r="A8" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr">
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="E8" s="65" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="F8" s="65" t="inlineStr"/>
-      <c r="G8" s="65" t="inlineStr"/>
-      <c r="H8" s="65" t="inlineStr"/>
-      <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="inlineStr"/>
-      <c r="K8" s="65" t="inlineStr"/>
-      <c r="L8" s="65" t="n"/>
-      <c r="M8" s="65" t="n"/>
+      <c r="F8" s="64" t="inlineStr"/>
+      <c r="G8" s="64" t="inlineStr"/>
+      <c r="H8" s="64" t="inlineStr"/>
+      <c r="I8" s="64" t="inlineStr"/>
+      <c r="J8" s="64" t="inlineStr"/>
+      <c r="K8" s="64" t="inlineStr"/>
+      <c r="L8" s="64" t="n"/>
+      <c r="M8" s="64" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B9" s="64" t="inlineStr">
+      <c r="A9" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B9" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="C9" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr">
+      <c r="D9" s="65" t="inlineStr">
         <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="E9" s="64" t="inlineStr">
+      <c r="E9" s="65" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="F9" s="64" t="inlineStr"/>
-      <c r="G9" s="64" t="inlineStr"/>
-      <c r="H9" s="64" t="inlineStr"/>
-      <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="inlineStr"/>
-      <c r="K9" s="64" t="inlineStr"/>
-      <c r="L9" s="64" t="n"/>
-      <c r="M9" s="64" t="n"/>
+      <c r="F9" s="65" t="inlineStr"/>
+      <c r="G9" s="65" t="inlineStr"/>
+      <c r="H9" s="65" t="inlineStr"/>
+      <c r="I9" s="65" t="inlineStr"/>
+      <c r="J9" s="65" t="inlineStr"/>
+      <c r="K9" s="65" t="inlineStr"/>
+      <c r="L9" s="65" t="n"/>
+      <c r="M9" s="65" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B10" s="65" t="inlineStr">
+      <c r="A10" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B10" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="C10" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr">
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="E10" s="65" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="F10" s="65" t="inlineStr"/>
-      <c r="G10" s="65" t="inlineStr"/>
-      <c r="H10" s="65" t="inlineStr"/>
-      <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="inlineStr"/>
-      <c r="K10" s="65" t="inlineStr"/>
-      <c r="L10" s="65" t="n"/>
-      <c r="M10" s="65" t="n"/>
+      <c r="F10" s="64" t="inlineStr"/>
+      <c r="G10" s="64" t="inlineStr"/>
+      <c r="H10" s="64" t="inlineStr"/>
+      <c r="I10" s="64" t="inlineStr"/>
+      <c r="J10" s="64" t="inlineStr"/>
+      <c r="K10" s="64" t="inlineStr"/>
+      <c r="L10" s="64" t="n"/>
+      <c r="M10" s="64" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B11" s="64" t="inlineStr">
+      <c r="A11" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B11" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="C11" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr">
+      <c r="D11" s="65" t="inlineStr">
         <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="E11" s="64" t="inlineStr">
+      <c r="E11" s="65" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="F11" s="64" t="inlineStr"/>
-      <c r="G11" s="64" t="inlineStr"/>
-      <c r="H11" s="64" t="inlineStr"/>
-      <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="inlineStr"/>
-      <c r="K11" s="64" t="inlineStr"/>
-      <c r="L11" s="64" t="n"/>
-      <c r="M11" s="64" t="n"/>
+      <c r="F11" s="65" t="inlineStr"/>
+      <c r="G11" s="65" t="inlineStr"/>
+      <c r="H11" s="65" t="inlineStr"/>
+      <c r="I11" s="65" t="inlineStr"/>
+      <c r="J11" s="65" t="inlineStr"/>
+      <c r="K11" s="65" t="inlineStr"/>
+      <c r="L11" s="65" t="n"/>
+      <c r="M11" s="65" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B12" s="65" t="inlineStr">
+      <c r="A12" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B12" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="C12" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr">
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="E12" s="65" t="inlineStr">
+      <c r="E12" s="64" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="F12" s="65" t="inlineStr"/>
-      <c r="G12" s="65" t="inlineStr"/>
-      <c r="H12" s="65" t="inlineStr"/>
-      <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="inlineStr"/>
-      <c r="K12" s="65" t="inlineStr"/>
-      <c r="L12" s="65" t="n"/>
-      <c r="M12" s="65" t="n"/>
+      <c r="F12" s="64" t="inlineStr"/>
+      <c r="G12" s="64" t="inlineStr"/>
+      <c r="H12" s="64" t="inlineStr"/>
+      <c r="I12" s="64" t="inlineStr"/>
+      <c r="J12" s="64" t="inlineStr"/>
+      <c r="K12" s="64" t="inlineStr"/>
+      <c r="L12" s="64" t="n"/>
+      <c r="M12" s="64" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B13" s="64" t="inlineStr">
+      <c r="A13" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B13" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="C13" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr">
+      <c r="D13" s="65" t="inlineStr">
         <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="E13" s="64" t="inlineStr">
+      <c r="E13" s="65" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="F13" s="64" t="inlineStr"/>
-      <c r="G13" s="64" t="inlineStr"/>
-      <c r="H13" s="64" t="inlineStr"/>
-      <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="inlineStr"/>
-      <c r="K13" s="64" t="inlineStr"/>
-      <c r="L13" s="64" t="n"/>
-      <c r="M13" s="64" t="n"/>
+      <c r="F13" s="65" t="inlineStr"/>
+      <c r="G13" s="65" t="inlineStr"/>
+      <c r="H13" s="65" t="inlineStr"/>
+      <c r="I13" s="65" t="inlineStr"/>
+      <c r="J13" s="65" t="inlineStr"/>
+      <c r="K13" s="65" t="inlineStr"/>
+      <c r="L13" s="65" t="n"/>
+      <c r="M13" s="65" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B14" s="65" t="inlineStr">
+      <c r="A14" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B14" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="C14" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr">
+      <c r="D14" s="64" t="inlineStr">
         <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="E14" s="65" t="inlineStr">
+      <c r="E14" s="64" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="F14" s="65" t="inlineStr"/>
-      <c r="G14" s="65" t="inlineStr"/>
-      <c r="H14" s="65" t="inlineStr"/>
-      <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="inlineStr"/>
-      <c r="K14" s="65" t="inlineStr"/>
-      <c r="L14" s="65" t="n"/>
-      <c r="M14" s="65" t="n"/>
+      <c r="F14" s="64" t="inlineStr"/>
+      <c r="G14" s="64" t="inlineStr"/>
+      <c r="H14" s="64" t="inlineStr"/>
+      <c r="I14" s="64" t="inlineStr"/>
+      <c r="J14" s="64" t="inlineStr"/>
+      <c r="K14" s="64" t="inlineStr"/>
+      <c r="L14" s="64" t="n"/>
+      <c r="M14" s="64" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B15" s="64" t="inlineStr">
+      <c r="A15" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B15" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="C15" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr">
+      <c r="D15" s="65" t="inlineStr">
         <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="E15" s="64" t="inlineStr">
+      <c r="E15" s="65" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="F15" s="64" t="inlineStr"/>
-      <c r="G15" s="64" t="inlineStr"/>
-      <c r="H15" s="64" t="inlineStr"/>
-      <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="inlineStr"/>
-      <c r="K15" s="64" t="inlineStr"/>
-      <c r="L15" s="64" t="n"/>
-      <c r="M15" s="64" t="n"/>
+      <c r="F15" s="65" t="inlineStr"/>
+      <c r="G15" s="65" t="inlineStr"/>
+      <c r="H15" s="65" t="inlineStr"/>
+      <c r="I15" s="65" t="inlineStr"/>
+      <c r="J15" s="65" t="inlineStr"/>
+      <c r="K15" s="65" t="inlineStr"/>
+      <c r="L15" s="65" t="n"/>
+      <c r="M15" s="65" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B16" s="65" t="inlineStr">
+      <c r="A16" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B16" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="C16" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr">
+      <c r="D16" s="64" t="inlineStr">
         <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="E16" s="65" t="inlineStr">
+      <c r="E16" s="64" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="F16" s="65" t="inlineStr"/>
-      <c r="G16" s="65" t="inlineStr"/>
-      <c r="H16" s="65" t="inlineStr"/>
-      <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="inlineStr"/>
-      <c r="K16" s="65" t="inlineStr"/>
-      <c r="L16" s="65" t="n"/>
-      <c r="M16" s="65" t="n"/>
+      <c r="F16" s="64" t="inlineStr"/>
+      <c r="G16" s="64" t="inlineStr"/>
+      <c r="H16" s="64" t="inlineStr"/>
+      <c r="I16" s="64" t="inlineStr"/>
+      <c r="J16" s="64" t="inlineStr"/>
+      <c r="K16" s="64" t="inlineStr"/>
+      <c r="L16" s="64" t="n"/>
+      <c r="M16" s="64" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B17" s="64" t="inlineStr">
+      <c r="A17" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B17" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="C17" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr">
+      <c r="D17" s="65" t="inlineStr">
         <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="E17" s="64" t="inlineStr">
+      <c r="E17" s="65" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="F17" s="64" t="inlineStr"/>
-      <c r="G17" s="64" t="inlineStr"/>
-      <c r="H17" s="64" t="inlineStr"/>
-      <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="inlineStr"/>
-      <c r="K17" s="64" t="inlineStr"/>
-      <c r="L17" s="64" t="n"/>
-      <c r="M17" s="64" t="n"/>
+      <c r="F17" s="65" t="inlineStr"/>
+      <c r="G17" s="65" t="inlineStr"/>
+      <c r="H17" s="65" t="inlineStr"/>
+      <c r="I17" s="65" t="inlineStr"/>
+      <c r="J17" s="65" t="inlineStr"/>
+      <c r="K17" s="65" t="inlineStr"/>
+      <c r="L17" s="65" t="n"/>
+      <c r="M17" s="65" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B18" s="65" t="inlineStr">
+      <c r="A18" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B18" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="C18" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr">
+      <c r="D18" s="64" t="inlineStr">
         <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="E18" s="65" t="inlineStr">
+      <c r="E18" s="64" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="F18" s="65" t="inlineStr"/>
-      <c r="G18" s="65" t="inlineStr"/>
-      <c r="H18" s="65" t="inlineStr"/>
-      <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="inlineStr"/>
-      <c r="K18" s="65" t="inlineStr"/>
-      <c r="L18" s="65" t="n"/>
-      <c r="M18" s="65" t="n"/>
+      <c r="F18" s="64" t="inlineStr"/>
+      <c r="G18" s="64" t="inlineStr"/>
+      <c r="H18" s="64" t="inlineStr"/>
+      <c r="I18" s="64" t="inlineStr"/>
+      <c r="J18" s="64" t="inlineStr"/>
+      <c r="K18" s="64" t="inlineStr"/>
+      <c r="L18" s="64" t="n"/>
+      <c r="M18" s="64" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B19" s="64" t="inlineStr">
+      <c r="A19" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B19" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="C19" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr">
+      <c r="D19" s="65" t="inlineStr">
         <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="E19" s="64" t="inlineStr">
+      <c r="E19" s="65" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="F19" s="64" t="inlineStr"/>
-      <c r="G19" s="64" t="inlineStr"/>
-      <c r="H19" s="64" t="inlineStr"/>
-      <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="inlineStr"/>
-      <c r="K19" s="64" t="inlineStr"/>
-      <c r="L19" s="64" t="n"/>
-      <c r="M19" s="64" t="n"/>
+      <c r="F19" s="65" t="inlineStr"/>
+      <c r="G19" s="65" t="inlineStr"/>
+      <c r="H19" s="65" t="inlineStr"/>
+      <c r="I19" s="65" t="inlineStr"/>
+      <c r="J19" s="65" t="inlineStr"/>
+      <c r="K19" s="65" t="inlineStr"/>
+      <c r="L19" s="65" t="n"/>
+      <c r="M19" s="65" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B20" s="65" t="inlineStr">
+      <c r="A20" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B20" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="C20" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr">
+      <c r="D20" s="64" t="inlineStr">
         <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="E20" s="65" t="inlineStr">
+      <c r="E20" s="64" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="F20" s="65" t="inlineStr"/>
-      <c r="G20" s="65" t="inlineStr"/>
-      <c r="H20" s="65" t="inlineStr"/>
-      <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="inlineStr"/>
-      <c r="K20" s="65" t="inlineStr"/>
-      <c r="L20" s="65" t="n"/>
-      <c r="M20" s="65" t="n"/>
+      <c r="F20" s="64" t="inlineStr"/>
+      <c r="G20" s="64" t="inlineStr"/>
+      <c r="H20" s="64" t="inlineStr"/>
+      <c r="I20" s="64" t="inlineStr"/>
+      <c r="J20" s="64" t="inlineStr"/>
+      <c r="K20" s="64" t="inlineStr"/>
+      <c r="L20" s="64" t="n"/>
+      <c r="M20" s="64" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B21" s="64" t="inlineStr">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B21" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="C21" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr">
+      <c r="D21" s="65" t="inlineStr">
         <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="E21" s="64" t="inlineStr">
+      <c r="E21" s="65" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="F21" s="64" t="inlineStr"/>
-      <c r="G21" s="64" t="inlineStr"/>
-      <c r="H21" s="64" t="inlineStr"/>
-      <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="inlineStr"/>
-      <c r="K21" s="64" t="inlineStr"/>
-      <c r="L21" s="64" t="n"/>
-      <c r="M21" s="64" t="n"/>
+      <c r="F21" s="65" t="inlineStr"/>
+      <c r="G21" s="65" t="inlineStr"/>
+      <c r="H21" s="65" t="inlineStr"/>
+      <c r="I21" s="65" t="inlineStr"/>
+      <c r="J21" s="65" t="inlineStr"/>
+      <c r="K21" s="65" t="inlineStr"/>
+      <c r="L21" s="65" t="n"/>
+      <c r="M21" s="65" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B22" s="65" t="inlineStr">
+      <c r="A22" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B22" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="C22" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr">
+      <c r="D22" s="64" t="inlineStr">
         <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="E22" s="65" t="inlineStr">
+      <c r="E22" s="64" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="F22" s="65" t="inlineStr"/>
-      <c r="G22" s="65" t="inlineStr"/>
-      <c r="H22" s="65" t="inlineStr"/>
-      <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="inlineStr"/>
-      <c r="K22" s="65" t="inlineStr"/>
-      <c r="L22" s="65" t="n"/>
-      <c r="M22" s="65" t="n"/>
+      <c r="F22" s="64" t="inlineStr"/>
+      <c r="G22" s="64" t="inlineStr"/>
+      <c r="H22" s="64" t="inlineStr"/>
+      <c r="I22" s="64" t="inlineStr"/>
+      <c r="J22" s="64" t="inlineStr"/>
+      <c r="K22" s="64" t="inlineStr"/>
+      <c r="L22" s="64" t="n"/>
+      <c r="M22" s="64" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B23" s="64" t="inlineStr">
+      <c r="A23" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B23" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="C23" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr">
+      <c r="D23" s="65" t="inlineStr">
         <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="E23" s="64" t="inlineStr">
+      <c r="E23" s="65" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="F23" s="64" t="inlineStr"/>
-      <c r="G23" s="64" t="inlineStr"/>
-      <c r="H23" s="64" t="inlineStr"/>
-      <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="inlineStr"/>
-      <c r="K23" s="64" t="inlineStr"/>
-      <c r="L23" s="64" t="n"/>
-      <c r="M23" s="64" t="n"/>
+      <c r="F23" s="65" t="inlineStr"/>
+      <c r="G23" s="65" t="inlineStr"/>
+      <c r="H23" s="65" t="inlineStr"/>
+      <c r="I23" s="65" t="inlineStr"/>
+      <c r="J23" s="65" t="inlineStr"/>
+      <c r="K23" s="65" t="inlineStr"/>
+      <c r="L23" s="65" t="n"/>
+      <c r="M23" s="65" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B24" s="65" t="inlineStr">
+      <c r="A24" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B24" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="C24" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr">
+      <c r="D24" s="64" t="inlineStr">
         <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="E24" s="65" t="inlineStr">
+      <c r="E24" s="64" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="F24" s="65" t="inlineStr"/>
-      <c r="G24" s="65" t="inlineStr"/>
-      <c r="H24" s="65" t="inlineStr"/>
-      <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="inlineStr"/>
-      <c r="K24" s="65" t="inlineStr"/>
-      <c r="L24" s="65" t="n"/>
-      <c r="M24" s="65" t="n"/>
+      <c r="F24" s="64" t="inlineStr"/>
+      <c r="G24" s="64" t="inlineStr"/>
+      <c r="H24" s="64" t="inlineStr"/>
+      <c r="I24" s="64" t="inlineStr"/>
+      <c r="J24" s="64" t="inlineStr"/>
+      <c r="K24" s="64" t="inlineStr"/>
+      <c r="L24" s="64" t="n"/>
+      <c r="M24" s="64" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B25" s="64" t="inlineStr">
+      <c r="A25" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B25" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="C25" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr">
+      <c r="D25" s="65" t="inlineStr">
         <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="E25" s="64" t="inlineStr">
+      <c r="E25" s="65" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="F25" s="64" t="inlineStr"/>
-      <c r="G25" s="64" t="inlineStr"/>
-      <c r="H25" s="64" t="inlineStr"/>
-      <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="inlineStr"/>
-      <c r="K25" s="64" t="inlineStr"/>
-      <c r="L25" s="64" t="n"/>
-      <c r="M25" s="64" t="n"/>
+      <c r="F25" s="65" t="inlineStr"/>
+      <c r="G25" s="65" t="inlineStr"/>
+      <c r="H25" s="65" t="inlineStr"/>
+      <c r="I25" s="65" t="inlineStr"/>
+      <c r="J25" s="65" t="inlineStr"/>
+      <c r="K25" s="65" t="inlineStr"/>
+      <c r="L25" s="65" t="n"/>
+      <c r="M25" s="65" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B26" s="65" t="inlineStr">
+      <c r="A26" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B26" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="C26" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr">
+      <c r="D26" s="64" t="inlineStr">
         <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="E26" s="65" t="inlineStr">
+      <c r="E26" s="64" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="F26" s="65" t="inlineStr"/>
-      <c r="G26" s="65" t="inlineStr"/>
-      <c r="H26" s="65" t="inlineStr"/>
-      <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="inlineStr"/>
-      <c r="K26" s="65" t="inlineStr"/>
-      <c r="L26" s="65" t="n"/>
-      <c r="M26" s="65" t="n"/>
+      <c r="F26" s="64" t="inlineStr"/>
+      <c r="G26" s="64" t="inlineStr"/>
+      <c r="H26" s="64" t="inlineStr"/>
+      <c r="I26" s="64" t="inlineStr"/>
+      <c r="J26" s="64" t="inlineStr"/>
+      <c r="K26" s="64" t="inlineStr"/>
+      <c r="L26" s="64" t="n"/>
+      <c r="M26" s="64" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B27" s="64" t="inlineStr">
+      <c r="A27" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B27" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="C27" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr">
+      <c r="D27" s="65" t="inlineStr">
         <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="E27" s="64" t="inlineStr">
+      <c r="E27" s="65" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="F27" s="64" t="inlineStr"/>
-      <c r="G27" s="64" t="inlineStr"/>
-      <c r="H27" s="64" t="inlineStr"/>
-      <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="inlineStr"/>
-      <c r="K27" s="64" t="inlineStr"/>
-      <c r="L27" s="64" t="n"/>
-      <c r="M27" s="64" t="n"/>
+      <c r="F27" s="65" t="inlineStr"/>
+      <c r="G27" s="65" t="inlineStr"/>
+      <c r="H27" s="65" t="inlineStr"/>
+      <c r="I27" s="65" t="inlineStr"/>
+      <c r="J27" s="65" t="inlineStr"/>
+      <c r="K27" s="65" t="inlineStr"/>
+      <c r="L27" s="65" t="n"/>
+      <c r="M27" s="65" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B28" s="65" t="inlineStr">
+      <c r="A28" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B28" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="C28" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr">
+      <c r="D28" s="64" t="inlineStr">
         <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="E28" s="65" t="inlineStr">
+      <c r="E28" s="64" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="F28" s="65" t="inlineStr"/>
-      <c r="G28" s="65" t="inlineStr"/>
-      <c r="H28" s="65" t="inlineStr"/>
-      <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="inlineStr"/>
-      <c r="K28" s="65" t="inlineStr"/>
-      <c r="L28" s="65" t="n"/>
-      <c r="M28" s="65" t="n"/>
+      <c r="F28" s="64" t="inlineStr"/>
+      <c r="G28" s="64" t="inlineStr"/>
+      <c r="H28" s="64" t="inlineStr"/>
+      <c r="I28" s="64" t="inlineStr"/>
+      <c r="J28" s="64" t="inlineStr"/>
+      <c r="K28" s="64" t="inlineStr"/>
+      <c r="L28" s="64" t="n"/>
+      <c r="M28" s="64" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B29" s="64" t="inlineStr">
+      <c r="A29" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B29" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="C29" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr">
+      <c r="D29" s="65" t="inlineStr">
         <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="E29" s="64" t="inlineStr">
+      <c r="E29" s="65" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="F29" s="64" t="inlineStr"/>
-      <c r="G29" s="64" t="inlineStr"/>
-      <c r="H29" s="64" t="inlineStr"/>
-      <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="inlineStr"/>
-      <c r="K29" s="64" t="inlineStr"/>
-      <c r="L29" s="64" t="n"/>
-      <c r="M29" s="64" t="n"/>
+      <c r="F29" s="65" t="inlineStr"/>
+      <c r="G29" s="65" t="inlineStr"/>
+      <c r="H29" s="65" t="inlineStr"/>
+      <c r="I29" s="65" t="inlineStr"/>
+      <c r="J29" s="65" t="inlineStr"/>
+      <c r="K29" s="65" t="inlineStr"/>
+      <c r="L29" s="65" t="n"/>
+      <c r="M29" s="65" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B30" s="65" t="inlineStr">
+      <c r="A30" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B30" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="C30" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr">
+      <c r="D30" s="64" t="inlineStr">
         <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="E30" s="65" t="inlineStr">
+      <c r="E30" s="64" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="F30" s="65" t="inlineStr"/>
-      <c r="G30" s="65" t="inlineStr"/>
-      <c r="H30" s="65" t="inlineStr"/>
-      <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="inlineStr"/>
-      <c r="K30" s="65" t="inlineStr"/>
-      <c r="L30" s="65" t="n"/>
-      <c r="M30" s="65" t="n"/>
+      <c r="F30" s="64" t="inlineStr"/>
+      <c r="G30" s="64" t="inlineStr"/>
+      <c r="H30" s="64" t="inlineStr"/>
+      <c r="I30" s="64" t="inlineStr"/>
+      <c r="J30" s="64" t="inlineStr"/>
+      <c r="K30" s="64" t="inlineStr"/>
+      <c r="L30" s="64" t="n"/>
+      <c r="M30" s="64" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B31" s="64" t="inlineStr">
+      <c r="A31" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B31" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="C31" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr">
+      <c r="D31" s="65" t="inlineStr">
         <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="E31" s="64" t="inlineStr">
+      <c r="E31" s="65" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="F31" s="64" t="inlineStr"/>
-      <c r="G31" s="64" t="inlineStr"/>
-      <c r="H31" s="64" t="inlineStr"/>
-      <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="inlineStr"/>
-      <c r="K31" s="64" t="inlineStr"/>
-      <c r="L31" s="64" t="n"/>
-      <c r="M31" s="64" t="n"/>
+      <c r="F31" s="65" t="inlineStr"/>
+      <c r="G31" s="65" t="inlineStr"/>
+      <c r="H31" s="65" t="inlineStr"/>
+      <c r="I31" s="65" t="inlineStr"/>
+      <c r="J31" s="65" t="inlineStr"/>
+      <c r="K31" s="65" t="inlineStr"/>
+      <c r="L31" s="65" t="n"/>
+      <c r="M31" s="65" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B32" s="65" t="inlineStr">
+      <c r="A32" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B32" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="C32" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr">
+      <c r="D32" s="64" t="inlineStr">
         <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="E32" s="65" t="inlineStr">
+      <c r="E32" s="64" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="F32" s="65" t="inlineStr"/>
-      <c r="G32" s="65" t="inlineStr"/>
-      <c r="H32" s="65" t="inlineStr"/>
-      <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="inlineStr"/>
-      <c r="K32" s="65" t="inlineStr"/>
-      <c r="L32" s="65" t="n"/>
-      <c r="M32" s="65" t="n"/>
+      <c r="F32" s="64" t="inlineStr"/>
+      <c r="G32" s="64" t="inlineStr"/>
+      <c r="H32" s="64" t="inlineStr"/>
+      <c r="I32" s="64" t="inlineStr"/>
+      <c r="J32" s="64" t="inlineStr"/>
+      <c r="K32" s="64" t="inlineStr"/>
+      <c r="L32" s="64" t="n"/>
+      <c r="M32" s="64" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B33" s="64" t="inlineStr">
+      <c r="A33" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B33" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="C33" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr">
+      <c r="D33" s="65" t="inlineStr">
         <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="E33" s="64" t="inlineStr">
+      <c r="E33" s="65" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="F33" s="64" t="inlineStr"/>
-      <c r="G33" s="64" t="inlineStr"/>
-      <c r="H33" s="64" t="inlineStr"/>
-      <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="inlineStr"/>
-      <c r="K33" s="64" t="inlineStr"/>
-      <c r="L33" s="64" t="n"/>
-      <c r="M33" s="64" t="n"/>
+      <c r="F33" s="65" t="inlineStr"/>
+      <c r="G33" s="65" t="inlineStr"/>
+      <c r="H33" s="65" t="inlineStr"/>
+      <c r="I33" s="65" t="inlineStr"/>
+      <c r="J33" s="65" t="inlineStr"/>
+      <c r="K33" s="65" t="inlineStr"/>
+      <c r="L33" s="65" t="n"/>
+      <c r="M33" s="65" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B34" s="65" t="inlineStr">
+      <c r="A34" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B34" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="C34" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr">
+      <c r="D34" s="64" t="inlineStr">
         <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="E34" s="65" t="inlineStr">
+      <c r="E34" s="64" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="F34" s="65" t="inlineStr"/>
-      <c r="G34" s="65" t="inlineStr"/>
-      <c r="H34" s="65" t="inlineStr"/>
-      <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="inlineStr"/>
-      <c r="K34" s="65" t="inlineStr"/>
-      <c r="L34" s="65" t="n"/>
-      <c r="M34" s="65" t="n"/>
+      <c r="F34" s="64" t="inlineStr"/>
+      <c r="G34" s="64" t="inlineStr"/>
+      <c r="H34" s="64" t="inlineStr"/>
+      <c r="I34" s="64" t="inlineStr"/>
+      <c r="J34" s="64" t="inlineStr"/>
+      <c r="K34" s="64" t="inlineStr"/>
+      <c r="L34" s="64" t="n"/>
+      <c r="M34" s="64" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B35" s="64" t="inlineStr">
+      <c r="A35" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B35" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="C35" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr">
+      <c r="D35" s="65" t="inlineStr">
         <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="E35" s="64" t="inlineStr">
+      <c r="E35" s="65" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="F35" s="64" t="inlineStr"/>
-      <c r="G35" s="64" t="inlineStr"/>
-      <c r="H35" s="64" t="inlineStr"/>
-      <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="inlineStr"/>
-      <c r="K35" s="64" t="inlineStr"/>
-      <c r="L35" s="64" t="n"/>
-      <c r="M35" s="64" t="n"/>
+      <c r="F35" s="65" t="inlineStr"/>
+      <c r="G35" s="65" t="inlineStr"/>
+      <c r="H35" s="65" t="inlineStr"/>
+      <c r="I35" s="65" t="inlineStr"/>
+      <c r="J35" s="65" t="inlineStr"/>
+      <c r="K35" s="65" t="inlineStr"/>
+      <c r="L35" s="65" t="n"/>
+      <c r="M35" s="65" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B36" s="65" t="inlineStr">
+      <c r="A36" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B36" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="C36" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr">
+      <c r="D36" s="64" t="inlineStr">
         <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="E36" s="65" t="inlineStr">
+      <c r="E36" s="64" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="F36" s="65" t="inlineStr"/>
-      <c r="G36" s="65" t="inlineStr"/>
-      <c r="H36" s="65" t="inlineStr"/>
-      <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="inlineStr"/>
-      <c r="K36" s="65" t="inlineStr"/>
-      <c r="L36" s="65" t="n"/>
-      <c r="M36" s="65" t="n"/>
+      <c r="F36" s="64" t="inlineStr"/>
+      <c r="G36" s="64" t="inlineStr"/>
+      <c r="H36" s="64" t="inlineStr"/>
+      <c r="I36" s="64" t="inlineStr"/>
+      <c r="J36" s="64" t="inlineStr"/>
+      <c r="K36" s="64" t="inlineStr"/>
+      <c r="L36" s="64" t="n"/>
+      <c r="M36" s="64" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B37" s="64" t="inlineStr">
+      <c r="A37" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B37" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="C37" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr">
+      <c r="D37" s="65" t="inlineStr">
         <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="E37" s="64" t="inlineStr">
+      <c r="E37" s="65" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="F37" s="64" t="inlineStr"/>
-      <c r="G37" s="64" t="inlineStr"/>
-      <c r="H37" s="64" t="inlineStr"/>
-      <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="inlineStr"/>
-      <c r="K37" s="64" t="inlineStr"/>
-      <c r="L37" s="64" t="n"/>
-      <c r="M37" s="64" t="n"/>
+      <c r="F37" s="65" t="inlineStr"/>
+      <c r="G37" s="65" t="inlineStr"/>
+      <c r="H37" s="65" t="inlineStr"/>
+      <c r="I37" s="65" t="inlineStr"/>
+      <c r="J37" s="65" t="inlineStr"/>
+      <c r="K37" s="65" t="inlineStr"/>
+      <c r="L37" s="65" t="n"/>
+      <c r="M37" s="65" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B38" s="65" t="inlineStr">
+      <c r="A38" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B38" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="C38" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr">
+      <c r="D38" s="64" t="inlineStr">
         <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="E38" s="65" t="inlineStr">
+      <c r="E38" s="64" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="F38" s="65" t="inlineStr"/>
-      <c r="G38" s="65" t="inlineStr"/>
-      <c r="H38" s="65" t="inlineStr"/>
-      <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="inlineStr"/>
-      <c r="K38" s="65" t="inlineStr"/>
-      <c r="L38" s="65" t="n"/>
-      <c r="M38" s="65" t="n"/>
+      <c r="F38" s="64" t="inlineStr"/>
+      <c r="G38" s="64" t="inlineStr"/>
+      <c r="H38" s="64" t="inlineStr"/>
+      <c r="I38" s="64" t="inlineStr"/>
+      <c r="J38" s="64" t="inlineStr"/>
+      <c r="K38" s="64" t="inlineStr"/>
+      <c r="L38" s="64" t="n"/>
+      <c r="M38" s="64" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B39" s="64" t="inlineStr">
+      <c r="A39" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B39" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="C39" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr">
+      <c r="D39" s="65" t="inlineStr">
         <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="E39" s="64" t="inlineStr">
+      <c r="E39" s="65" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="F39" s="64" t="inlineStr"/>
-      <c r="G39" s="64" t="inlineStr"/>
-      <c r="H39" s="64" t="inlineStr"/>
-      <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="inlineStr"/>
-      <c r="K39" s="64" t="inlineStr"/>
-      <c r="L39" s="64" t="n"/>
-      <c r="M39" s="64" t="n"/>
+      <c r="F39" s="65" t="inlineStr"/>
+      <c r="G39" s="65" t="inlineStr"/>
+      <c r="H39" s="65" t="inlineStr"/>
+      <c r="I39" s="65" t="inlineStr"/>
+      <c r="J39" s="65" t="inlineStr"/>
+      <c r="K39" s="65" t="inlineStr"/>
+      <c r="L39" s="65" t="n"/>
+      <c r="M39" s="65" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B40" s="65" t="inlineStr">
+      <c r="A40" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B40" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="C40" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr">
+      <c r="D40" s="64" t="inlineStr">
         <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="E40" s="65" t="inlineStr">
+      <c r="E40" s="64" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="F40" s="65" t="inlineStr"/>
-      <c r="G40" s="65" t="inlineStr"/>
-      <c r="H40" s="65" t="inlineStr"/>
-      <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="inlineStr"/>
-      <c r="K40" s="65" t="inlineStr"/>
-      <c r="L40" s="65" t="n"/>
-      <c r="M40" s="65" t="n"/>
+      <c r="F40" s="64" t="inlineStr"/>
+      <c r="G40" s="64" t="inlineStr"/>
+      <c r="H40" s="64" t="inlineStr"/>
+      <c r="I40" s="64" t="inlineStr"/>
+      <c r="J40" s="64" t="inlineStr"/>
+      <c r="K40" s="64" t="inlineStr"/>
+      <c r="L40" s="64" t="n"/>
+      <c r="M40" s="64" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B41" s="64" t="inlineStr">
+      <c r="A41" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B41" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="C41" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr">
+      <c r="D41" s="65" t="inlineStr">
         <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="E41" s="64" t="inlineStr">
+      <c r="E41" s="65" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="F41" s="64" t="inlineStr"/>
-      <c r="G41" s="64" t="inlineStr"/>
-      <c r="H41" s="64" t="inlineStr"/>
-      <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="inlineStr"/>
-      <c r="K41" s="64" t="inlineStr"/>
-      <c r="L41" s="64" t="n"/>
-      <c r="M41" s="64" t="n"/>
+      <c r="F41" s="65" t="inlineStr"/>
+      <c r="G41" s="65" t="inlineStr"/>
+      <c r="H41" s="65" t="inlineStr"/>
+      <c r="I41" s="65" t="inlineStr"/>
+      <c r="J41" s="65" t="inlineStr"/>
+      <c r="K41" s="65" t="inlineStr"/>
+      <c r="L41" s="65" t="n"/>
+      <c r="M41" s="65" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B42" s="65" t="inlineStr">
+      <c r="A42" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B42" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="C42" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr">
+      <c r="D42" s="64" t="inlineStr">
         <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="E42" s="65" t="inlineStr">
+      <c r="E42" s="64" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="F42" s="65" t="inlineStr"/>
-      <c r="G42" s="65" t="inlineStr"/>
-      <c r="H42" s="65" t="inlineStr"/>
-      <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="inlineStr"/>
-      <c r="K42" s="65" t="inlineStr"/>
-      <c r="L42" s="65" t="n"/>
-      <c r="M42" s="65" t="n"/>
+      <c r="F42" s="64" t="inlineStr"/>
+      <c r="G42" s="64" t="inlineStr"/>
+      <c r="H42" s="64" t="inlineStr"/>
+      <c r="I42" s="64" t="inlineStr"/>
+      <c r="J42" s="64" t="inlineStr"/>
+      <c r="K42" s="64" t="inlineStr"/>
+      <c r="L42" s="64" t="n"/>
+      <c r="M42" s="64" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B43" s="64" t="inlineStr">
+      <c r="A43" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B43" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="C43" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr">
+      <c r="D43" s="65" t="inlineStr">
         <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="E43" s="64" t="inlineStr">
+      <c r="E43" s="65" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="F43" s="64" t="inlineStr"/>
-      <c r="G43" s="64" t="inlineStr"/>
-      <c r="H43" s="64" t="inlineStr"/>
-      <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="inlineStr"/>
-      <c r="K43" s="64" t="inlineStr"/>
-      <c r="L43" s="64" t="n"/>
-      <c r="M43" s="64" t="n"/>
+      <c r="F43" s="65" t="inlineStr"/>
+      <c r="G43" s="65" t="inlineStr"/>
+      <c r="H43" s="65" t="inlineStr"/>
+      <c r="I43" s="65" t="inlineStr"/>
+      <c r="J43" s="65" t="inlineStr"/>
+      <c r="K43" s="65" t="inlineStr"/>
+      <c r="L43" s="65" t="n"/>
+      <c r="M43" s="65" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B44" s="65" t="inlineStr">
+      <c r="A44" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B44" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="C44" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr">
+      <c r="D44" s="64" t="inlineStr">
         <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="E44" s="65" t="inlineStr">
+      <c r="E44" s="64" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="F44" s="65" t="inlineStr"/>
-      <c r="G44" s="65" t="inlineStr"/>
-      <c r="H44" s="65" t="inlineStr"/>
-      <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="inlineStr"/>
-      <c r="K44" s="65" t="inlineStr"/>
-      <c r="L44" s="65" t="n"/>
-      <c r="M44" s="65" t="n"/>
+      <c r="F44" s="64" t="inlineStr"/>
+      <c r="G44" s="64" t="inlineStr"/>
+      <c r="H44" s="64" t="inlineStr"/>
+      <c r="I44" s="64" t="inlineStr"/>
+      <c r="J44" s="64" t="inlineStr"/>
+      <c r="K44" s="64" t="inlineStr"/>
+      <c r="L44" s="64" t="n"/>
+      <c r="M44" s="64" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B45" s="64" t="inlineStr">
+      <c r="A45" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B45" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="C45" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr">
+      <c r="D45" s="65" t="inlineStr">
         <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="E45" s="64" t="inlineStr">
+      <c r="E45" s="65" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="F45" s="64" t="inlineStr"/>
-      <c r="G45" s="64" t="inlineStr"/>
-      <c r="H45" s="64" t="inlineStr"/>
-      <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="inlineStr"/>
-      <c r="K45" s="64" t="inlineStr"/>
-      <c r="L45" s="64" t="n"/>
-      <c r="M45" s="64" t="n"/>
+      <c r="F45" s="65" t="inlineStr"/>
+      <c r="G45" s="65" t="inlineStr"/>
+      <c r="H45" s="65" t="inlineStr"/>
+      <c r="I45" s="65" t="inlineStr"/>
+      <c r="J45" s="65" t="inlineStr"/>
+      <c r="K45" s="65" t="inlineStr"/>
+      <c r="L45" s="65" t="n"/>
+      <c r="M45" s="65" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B46" s="65" t="inlineStr">
+      <c r="A46" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B46" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="C46" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr">
+      <c r="D46" s="64" t="inlineStr">
         <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="E46" s="65" t="inlineStr">
+      <c r="E46" s="64" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="F46" s="65" t="inlineStr"/>
-      <c r="G46" s="65" t="inlineStr"/>
-      <c r="H46" s="65" t="inlineStr"/>
-      <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="inlineStr"/>
-      <c r="K46" s="65" t="inlineStr"/>
-      <c r="L46" s="65" t="n"/>
-      <c r="M46" s="65" t="n"/>
+      <c r="F46" s="64" t="inlineStr"/>
+      <c r="G46" s="64" t="inlineStr"/>
+      <c r="H46" s="64" t="inlineStr"/>
+      <c r="I46" s="64" t="inlineStr"/>
+      <c r="J46" s="64" t="inlineStr"/>
+      <c r="K46" s="64" t="inlineStr"/>
+      <c r="L46" s="64" t="n"/>
+      <c r="M46" s="64" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B47" s="64" t="inlineStr">
+      <c r="A47" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B47" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="C47" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr">
+      <c r="D47" s="65" t="inlineStr">
         <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="E47" s="64" t="inlineStr">
+      <c r="E47" s="65" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="F47" s="64" t="inlineStr"/>
-      <c r="G47" s="64" t="inlineStr"/>
-      <c r="H47" s="64" t="inlineStr"/>
-      <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="inlineStr"/>
-      <c r="K47" s="64" t="inlineStr"/>
-      <c r="L47" s="64" t="n"/>
-      <c r="M47" s="64" t="n"/>
+      <c r="F47" s="65" t="inlineStr"/>
+      <c r="G47" s="65" t="inlineStr"/>
+      <c r="H47" s="65" t="inlineStr"/>
+      <c r="I47" s="65" t="inlineStr"/>
+      <c r="J47" s="65" t="inlineStr"/>
+      <c r="K47" s="65" t="inlineStr"/>
+      <c r="L47" s="65" t="n"/>
+      <c r="M47" s="65" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B48" s="65" t="inlineStr">
+      <c r="A48" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B48" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="C48" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr">
+      <c r="D48" s="64" t="inlineStr">
         <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="E48" s="65" t="inlineStr">
+      <c r="E48" s="64" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="F48" s="65" t="inlineStr"/>
-      <c r="G48" s="65" t="inlineStr"/>
-      <c r="H48" s="65" t="inlineStr"/>
-      <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="inlineStr"/>
-      <c r="K48" s="65" t="inlineStr"/>
-      <c r="L48" s="65" t="n"/>
-      <c r="M48" s="65" t="n"/>
+      <c r="F48" s="64" t="inlineStr"/>
+      <c r="G48" s="64" t="inlineStr"/>
+      <c r="H48" s="64" t="inlineStr"/>
+      <c r="I48" s="64" t="inlineStr"/>
+      <c r="J48" s="64" t="inlineStr"/>
+      <c r="K48" s="64" t="inlineStr"/>
+      <c r="L48" s="64" t="n"/>
+      <c r="M48" s="64" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B49" s="64" t="inlineStr">
+      <c r="A49" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B49" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="C49" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr">
+      <c r="D49" s="65" t="inlineStr">
         <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="E49" s="64" t="inlineStr">
+      <c r="E49" s="65" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="F49" s="64" t="inlineStr"/>
-      <c r="G49" s="64" t="inlineStr"/>
-      <c r="H49" s="64" t="inlineStr"/>
-      <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="inlineStr"/>
-      <c r="K49" s="64" t="inlineStr"/>
-      <c r="L49" s="64" t="n"/>
-      <c r="M49" s="64" t="n"/>
+      <c r="F49" s="65" t="inlineStr"/>
+      <c r="G49" s="65" t="inlineStr"/>
+      <c r="H49" s="65" t="inlineStr"/>
+      <c r="I49" s="65" t="inlineStr"/>
+      <c r="J49" s="65" t="inlineStr"/>
+      <c r="K49" s="65" t="inlineStr"/>
+      <c r="L49" s="65" t="n"/>
+      <c r="M49" s="65" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B50" s="65" t="inlineStr">
+      <c r="A50" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B50" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="C50" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr">
+      <c r="D50" s="64" t="inlineStr">
         <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="E50" s="65" t="inlineStr">
+      <c r="E50" s="64" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="F50" s="65" t="inlineStr"/>
-      <c r="G50" s="65" t="inlineStr"/>
-      <c r="H50" s="65" t="inlineStr"/>
-      <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="inlineStr"/>
-      <c r="K50" s="65" t="inlineStr"/>
-      <c r="L50" s="65" t="n"/>
-      <c r="M50" s="65" t="n"/>
+      <c r="F50" s="64" t="inlineStr"/>
+      <c r="G50" s="64" t="inlineStr"/>
+      <c r="H50" s="64" t="inlineStr"/>
+      <c r="I50" s="64" t="inlineStr"/>
+      <c r="J50" s="64" t="inlineStr"/>
+      <c r="K50" s="64" t="inlineStr"/>
+      <c r="L50" s="64" t="n"/>
+      <c r="M50" s="64" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B51" s="64" t="inlineStr">
+      <c r="A51" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B51" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="C51" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr">
+      <c r="D51" s="65" t="inlineStr">
         <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="E51" s="64" t="inlineStr">
+      <c r="E51" s="65" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="F51" s="64" t="inlineStr"/>
-      <c r="G51" s="64" t="inlineStr"/>
-      <c r="H51" s="64" t="inlineStr"/>
-      <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="inlineStr"/>
-      <c r="K51" s="64" t="inlineStr"/>
-      <c r="L51" s="64" t="n"/>
-      <c r="M51" s="64" t="n"/>
+      <c r="F51" s="65" t="inlineStr"/>
+      <c r="G51" s="65" t="inlineStr"/>
+      <c r="H51" s="65" t="inlineStr"/>
+      <c r="I51" s="65" t="inlineStr"/>
+      <c r="J51" s="65" t="inlineStr"/>
+      <c r="K51" s="65" t="inlineStr"/>
+      <c r="L51" s="65" t="n"/>
+      <c r="M51" s="65" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B52" s="65" t="inlineStr">
+      <c r="A52" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B52" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="C52" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr">
+      <c r="D52" s="64" t="inlineStr">
         <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="E52" s="65" t="inlineStr">
+      <c r="E52" s="64" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="F52" s="65" t="inlineStr"/>
-      <c r="G52" s="65" t="inlineStr"/>
-      <c r="H52" s="65" t="inlineStr"/>
-      <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="inlineStr"/>
-      <c r="K52" s="65" t="inlineStr"/>
-      <c r="L52" s="65" t="n"/>
-      <c r="M52" s="65" t="n"/>
+      <c r="F52" s="64" t="inlineStr"/>
+      <c r="G52" s="64" t="inlineStr"/>
+      <c r="H52" s="64" t="inlineStr"/>
+      <c r="I52" s="64" t="inlineStr"/>
+      <c r="J52" s="64" t="inlineStr"/>
+      <c r="K52" s="64" t="inlineStr"/>
+      <c r="L52" s="64" t="n"/>
+      <c r="M52" s="64" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B53" s="64" t="inlineStr">
+      <c r="A53" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B53" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="C53" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr">
+      <c r="D53" s="65" t="inlineStr">
         <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="E53" s="64" t="inlineStr">
+      <c r="E53" s="65" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="F53" s="64" t="inlineStr"/>
-      <c r="G53" s="64" t="inlineStr"/>
-      <c r="H53" s="64" t="inlineStr"/>
-      <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="inlineStr"/>
-      <c r="K53" s="64" t="inlineStr"/>
-      <c r="L53" s="64" t="n"/>
-      <c r="M53" s="64" t="n"/>
+      <c r="F53" s="65" t="inlineStr"/>
+      <c r="G53" s="65" t="inlineStr"/>
+      <c r="H53" s="65" t="inlineStr"/>
+      <c r="I53" s="65" t="inlineStr"/>
+      <c r="J53" s="65" t="inlineStr"/>
+      <c r="K53" s="65" t="inlineStr"/>
+      <c r="L53" s="65" t="n"/>
+      <c r="M53" s="65" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B54" s="65" t="inlineStr">
+      <c r="A54" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B54" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="C54" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr">
+      <c r="D54" s="64" t="inlineStr">
         <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="E54" s="65" t="inlineStr">
+      <c r="E54" s="64" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="F54" s="65" t="inlineStr"/>
-      <c r="G54" s="65" t="inlineStr"/>
-      <c r="H54" s="65" t="inlineStr"/>
-      <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="inlineStr"/>
-      <c r="K54" s="65" t="inlineStr"/>
-      <c r="L54" s="65" t="n"/>
-      <c r="M54" s="65" t="n"/>
+      <c r="F54" s="64" t="inlineStr"/>
+      <c r="G54" s="64" t="inlineStr"/>
+      <c r="H54" s="64" t="inlineStr"/>
+      <c r="I54" s="64" t="inlineStr"/>
+      <c r="J54" s="64" t="inlineStr"/>
+      <c r="K54" s="64" t="inlineStr"/>
+      <c r="L54" s="64" t="n"/>
+      <c r="M54" s="64" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B55" s="64" t="inlineStr">
+      <c r="A55" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B55" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="C55" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr">
+      <c r="D55" s="65" t="inlineStr">
         <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="E55" s="64" t="inlineStr">
+      <c r="E55" s="65" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="F55" s="64" t="inlineStr"/>
-      <c r="G55" s="64" t="inlineStr"/>
-      <c r="H55" s="64" t="inlineStr"/>
-      <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="inlineStr"/>
-      <c r="K55" s="64" t="inlineStr"/>
-      <c r="L55" s="64" t="n"/>
-      <c r="M55" s="64" t="n"/>
+      <c r="F55" s="65" t="inlineStr"/>
+      <c r="G55" s="65" t="inlineStr"/>
+      <c r="H55" s="65" t="inlineStr"/>
+      <c r="I55" s="65" t="inlineStr"/>
+      <c r="J55" s="65" t="inlineStr"/>
+      <c r="K55" s="65" t="inlineStr"/>
+      <c r="L55" s="65" t="n"/>
+      <c r="M55" s="65" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B56" s="65" t="inlineStr">
+      <c r="A56" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B56" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="C56" s="64" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr">
+      <c r="D56" s="64" t="inlineStr">
         <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="E56" s="65" t="inlineStr">
+      <c r="E56" s="64" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="F56" s="65" t="inlineStr"/>
-      <c r="G56" s="65" t="inlineStr"/>
-      <c r="H56" s="65" t="inlineStr"/>
-      <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="inlineStr"/>
-      <c r="K56" s="65" t="inlineStr"/>
-      <c r="L56" s="65" t="n"/>
-      <c r="M56" s="65" t="n"/>
+      <c r="F56" s="64" t="inlineStr"/>
+      <c r="G56" s="64" t="inlineStr"/>
+      <c r="H56" s="64" t="inlineStr"/>
+      <c r="I56" s="64" t="inlineStr"/>
+      <c r="J56" s="64" t="inlineStr"/>
+      <c r="K56" s="64" t="inlineStr"/>
+      <c r="L56" s="64" t="n"/>
+      <c r="M56" s="64" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B57" s="64" t="inlineStr">
+      <c r="A57" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B57" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf201</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="C57" s="65" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr">
+      <c r="D57" s="65" t="inlineStr">
         <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="E57" s="64" t="inlineStr">
+      <c r="E57" s="65" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="F57" s="64" t="inlineStr"/>
-      <c r="G57" s="64" t="inlineStr"/>
-      <c r="H57" s="64" t="inlineStr"/>
-      <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="inlineStr"/>
-      <c r="K57" s="64" t="inlineStr"/>
-      <c r="L57" s="64" t="n"/>
-      <c r="M57" s="64" t="n"/>
+      <c r="F57" s="65" t="inlineStr"/>
+      <c r="G57" s="65" t="inlineStr"/>
+      <c r="H57" s="65" t="inlineStr"/>
+      <c r="I57" s="65" t="inlineStr"/>
+      <c r="J57" s="65" t="inlineStr"/>
+      <c r="K57" s="65" t="inlineStr"/>
+      <c r="L57" s="65" t="n"/>
+      <c r="M57" s="65" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5975,1894 +5975,1894 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B4" s="65" t="inlineStr">
+      <c r="A4" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C4" s="65" t="inlineStr">
+      <c r="C4" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D4" s="65" t="inlineStr">
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>Eth1-01</t>
         </is>
       </c>
-      <c r="E4" s="65" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="F4" s="65" t="inlineStr"/>
-      <c r="G4" s="65" t="inlineStr"/>
-      <c r="H4" s="65" t="inlineStr"/>
-      <c r="I4" s="65" t="inlineStr"/>
-      <c r="J4" s="65" t="inlineStr"/>
-      <c r="K4" s="65" t="inlineStr"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="65" t="n"/>
+      <c r="F4" s="64" t="inlineStr"/>
+      <c r="G4" s="64" t="inlineStr"/>
+      <c r="H4" s="64" t="inlineStr"/>
+      <c r="I4" s="64" t="inlineStr"/>
+      <c r="J4" s="64" t="inlineStr"/>
+      <c r="K4" s="64" t="inlineStr"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B5" s="64" t="inlineStr">
+      <c r="A5" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B5" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C5" s="64" t="inlineStr">
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D5" s="64" t="inlineStr">
+      <c r="D5" s="65" t="inlineStr">
         <is>
           <t>Eth1-02</t>
         </is>
       </c>
-      <c r="E5" s="64" t="inlineStr">
+      <c r="E5" s="65" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="F5" s="64" t="inlineStr"/>
-      <c r="G5" s="64" t="inlineStr"/>
-      <c r="H5" s="64" t="inlineStr"/>
-      <c r="I5" s="64" t="inlineStr"/>
-      <c r="J5" s="64" t="inlineStr"/>
-      <c r="K5" s="64" t="inlineStr"/>
-      <c r="L5" s="64" t="n"/>
-      <c r="M5" s="64" t="n"/>
+      <c r="F5" s="65" t="inlineStr"/>
+      <c r="G5" s="65" t="inlineStr"/>
+      <c r="H5" s="65" t="inlineStr"/>
+      <c r="I5" s="65" t="inlineStr"/>
+      <c r="J5" s="65" t="inlineStr"/>
+      <c r="K5" s="65" t="inlineStr"/>
+      <c r="L5" s="65" t="n"/>
+      <c r="M5" s="65" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B6" s="65" t="inlineStr">
+      <c r="A6" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C6" s="65" t="inlineStr">
+      <c r="C6" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D6" s="65" t="inlineStr">
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>Eth1-03</t>
         </is>
       </c>
-      <c r="E6" s="65" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>1/3</t>
         </is>
       </c>
-      <c r="F6" s="65" t="inlineStr"/>
-      <c r="G6" s="65" t="inlineStr"/>
-      <c r="H6" s="65" t="inlineStr"/>
-      <c r="I6" s="65" t="inlineStr"/>
-      <c r="J6" s="65" t="inlineStr"/>
-      <c r="K6" s="65" t="inlineStr"/>
-      <c r="L6" s="65" t="n"/>
-      <c r="M6" s="65" t="n"/>
+      <c r="F6" s="64" t="inlineStr"/>
+      <c r="G6" s="64" t="inlineStr"/>
+      <c r="H6" s="64" t="inlineStr"/>
+      <c r="I6" s="64" t="inlineStr"/>
+      <c r="J6" s="64" t="inlineStr"/>
+      <c r="K6" s="64" t="inlineStr"/>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="64" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B7" s="64" t="inlineStr">
+      <c r="A7" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B7" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C7" s="64" t="inlineStr">
+      <c r="C7" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D7" s="64" t="inlineStr">
+      <c r="D7" s="65" t="inlineStr">
         <is>
           <t>Eth1-04</t>
         </is>
       </c>
-      <c r="E7" s="64" t="inlineStr">
+      <c r="E7" s="65" t="inlineStr">
         <is>
           <t>1/4</t>
         </is>
       </c>
-      <c r="F7" s="64" t="inlineStr"/>
-      <c r="G7" s="64" t="inlineStr"/>
-      <c r="H7" s="64" t="inlineStr"/>
-      <c r="I7" s="64" t="inlineStr"/>
-      <c r="J7" s="64" t="inlineStr"/>
-      <c r="K7" s="64" t="inlineStr"/>
-      <c r="L7" s="64" t="n"/>
-      <c r="M7" s="64" t="n"/>
+      <c r="F7" s="65" t="inlineStr"/>
+      <c r="G7" s="65" t="inlineStr"/>
+      <c r="H7" s="65" t="inlineStr"/>
+      <c r="I7" s="65" t="inlineStr"/>
+      <c r="J7" s="65" t="inlineStr"/>
+      <c r="K7" s="65" t="inlineStr"/>
+      <c r="L7" s="65" t="n"/>
+      <c r="M7" s="65" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B8" s="65" t="inlineStr">
+      <c r="A8" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr">
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>Eth1-05</t>
         </is>
       </c>
-      <c r="E8" s="65" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>1/5</t>
         </is>
       </c>
-      <c r="F8" s="65" t="inlineStr"/>
-      <c r="G8" s="65" t="inlineStr"/>
-      <c r="H8" s="65" t="inlineStr"/>
-      <c r="I8" s="65" t="inlineStr"/>
-      <c r="J8" s="65" t="inlineStr"/>
-      <c r="K8" s="65" t="inlineStr"/>
-      <c r="L8" s="65" t="n"/>
-      <c r="M8" s="65" t="n"/>
+      <c r="F8" s="64" t="inlineStr"/>
+      <c r="G8" s="64" t="inlineStr"/>
+      <c r="H8" s="64" t="inlineStr"/>
+      <c r="I8" s="64" t="inlineStr"/>
+      <c r="J8" s="64" t="inlineStr"/>
+      <c r="K8" s="64" t="inlineStr"/>
+      <c r="L8" s="64" t="n"/>
+      <c r="M8" s="64" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B9" s="64" t="inlineStr">
+      <c r="A9" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B9" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C9" s="64" t="inlineStr">
+      <c r="C9" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D9" s="64" t="inlineStr">
+      <c r="D9" s="65" t="inlineStr">
         <is>
           <t>Eth1-06</t>
         </is>
       </c>
-      <c r="E9" s="64" t="inlineStr">
+      <c r="E9" s="65" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="F9" s="64" t="inlineStr"/>
-      <c r="G9" s="64" t="inlineStr"/>
-      <c r="H9" s="64" t="inlineStr"/>
-      <c r="I9" s="64" t="inlineStr"/>
-      <c r="J9" s="64" t="inlineStr"/>
-      <c r="K9" s="64" t="inlineStr"/>
-      <c r="L9" s="64" t="n"/>
-      <c r="M9" s="64" t="n"/>
+      <c r="F9" s="65" t="inlineStr"/>
+      <c r="G9" s="65" t="inlineStr"/>
+      <c r="H9" s="65" t="inlineStr"/>
+      <c r="I9" s="65" t="inlineStr"/>
+      <c r="J9" s="65" t="inlineStr"/>
+      <c r="K9" s="65" t="inlineStr"/>
+      <c r="L9" s="65" t="n"/>
+      <c r="M9" s="65" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B10" s="65" t="inlineStr">
+      <c r="A10" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B10" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C10" s="65" t="inlineStr">
+      <c r="C10" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D10" s="65" t="inlineStr">
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>Eth1-07</t>
         </is>
       </c>
-      <c r="E10" s="65" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>1/7</t>
         </is>
       </c>
-      <c r="F10" s="65" t="inlineStr"/>
-      <c r="G10" s="65" t="inlineStr"/>
-      <c r="H10" s="65" t="inlineStr"/>
-      <c r="I10" s="65" t="inlineStr"/>
-      <c r="J10" s="65" t="inlineStr"/>
-      <c r="K10" s="65" t="inlineStr"/>
-      <c r="L10" s="65" t="n"/>
-      <c r="M10" s="65" t="n"/>
+      <c r="F10" s="64" t="inlineStr"/>
+      <c r="G10" s="64" t="inlineStr"/>
+      <c r="H10" s="64" t="inlineStr"/>
+      <c r="I10" s="64" t="inlineStr"/>
+      <c r="J10" s="64" t="inlineStr"/>
+      <c r="K10" s="64" t="inlineStr"/>
+      <c r="L10" s="64" t="n"/>
+      <c r="M10" s="64" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B11" s="64" t="inlineStr">
+      <c r="A11" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B11" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C11" s="64" t="inlineStr">
+      <c r="C11" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D11" s="64" t="inlineStr">
+      <c r="D11" s="65" t="inlineStr">
         <is>
           <t>Eth1-08</t>
         </is>
       </c>
-      <c r="E11" s="64" t="inlineStr">
+      <c r="E11" s="65" t="inlineStr">
         <is>
           <t>1/8</t>
         </is>
       </c>
-      <c r="F11" s="64" t="inlineStr"/>
-      <c r="G11" s="64" t="inlineStr"/>
-      <c r="H11" s="64" t="inlineStr"/>
-      <c r="I11" s="64" t="inlineStr"/>
-      <c r="J11" s="64" t="inlineStr"/>
-      <c r="K11" s="64" t="inlineStr"/>
-      <c r="L11" s="64" t="n"/>
-      <c r="M11" s="64" t="n"/>
+      <c r="F11" s="65" t="inlineStr"/>
+      <c r="G11" s="65" t="inlineStr"/>
+      <c r="H11" s="65" t="inlineStr"/>
+      <c r="I11" s="65" t="inlineStr"/>
+      <c r="J11" s="65" t="inlineStr"/>
+      <c r="K11" s="65" t="inlineStr"/>
+      <c r="L11" s="65" t="n"/>
+      <c r="M11" s="65" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B12" s="65" t="inlineStr">
+      <c r="A12" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B12" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C12" s="65" t="inlineStr">
+      <c r="C12" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D12" s="65" t="inlineStr">
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>Eth1-09</t>
         </is>
       </c>
-      <c r="E12" s="65" t="inlineStr">
+      <c r="E12" s="64" t="inlineStr">
         <is>
           <t>1/9</t>
         </is>
       </c>
-      <c r="F12" s="65" t="inlineStr"/>
-      <c r="G12" s="65" t="inlineStr"/>
-      <c r="H12" s="65" t="inlineStr"/>
-      <c r="I12" s="65" t="inlineStr"/>
-      <c r="J12" s="65" t="inlineStr"/>
-      <c r="K12" s="65" t="inlineStr"/>
-      <c r="L12" s="65" t="n"/>
-      <c r="M12" s="65" t="n"/>
+      <c r="F12" s="64" t="inlineStr"/>
+      <c r="G12" s="64" t="inlineStr"/>
+      <c r="H12" s="64" t="inlineStr"/>
+      <c r="I12" s="64" t="inlineStr"/>
+      <c r="J12" s="64" t="inlineStr"/>
+      <c r="K12" s="64" t="inlineStr"/>
+      <c r="L12" s="64" t="n"/>
+      <c r="M12" s="64" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B13" s="64" t="inlineStr">
+      <c r="A13" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B13" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C13" s="64" t="inlineStr">
+      <c r="C13" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D13" s="64" t="inlineStr">
+      <c r="D13" s="65" t="inlineStr">
         <is>
           <t>Eth1-10</t>
         </is>
       </c>
-      <c r="E13" s="64" t="inlineStr">
+      <c r="E13" s="65" t="inlineStr">
         <is>
           <t>1/10</t>
         </is>
       </c>
-      <c r="F13" s="64" t="inlineStr"/>
-      <c r="G13" s="64" t="inlineStr"/>
-      <c r="H13" s="64" t="inlineStr"/>
-      <c r="I13" s="64" t="inlineStr"/>
-      <c r="J13" s="64" t="inlineStr"/>
-      <c r="K13" s="64" t="inlineStr"/>
-      <c r="L13" s="64" t="n"/>
-      <c r="M13" s="64" t="n"/>
+      <c r="F13" s="65" t="inlineStr"/>
+      <c r="G13" s="65" t="inlineStr"/>
+      <c r="H13" s="65" t="inlineStr"/>
+      <c r="I13" s="65" t="inlineStr"/>
+      <c r="J13" s="65" t="inlineStr"/>
+      <c r="K13" s="65" t="inlineStr"/>
+      <c r="L13" s="65" t="n"/>
+      <c r="M13" s="65" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B14" s="65" t="inlineStr">
+      <c r="A14" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B14" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C14" s="65" t="inlineStr">
+      <c r="C14" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D14" s="65" t="inlineStr">
+      <c r="D14" s="64" t="inlineStr">
         <is>
           <t>Eth1-11</t>
         </is>
       </c>
-      <c r="E14" s="65" t="inlineStr">
+      <c r="E14" s="64" t="inlineStr">
         <is>
           <t>1/11</t>
         </is>
       </c>
-      <c r="F14" s="65" t="inlineStr"/>
-      <c r="G14" s="65" t="inlineStr"/>
-      <c r="H14" s="65" t="inlineStr"/>
-      <c r="I14" s="65" t="inlineStr"/>
-      <c r="J14" s="65" t="inlineStr"/>
-      <c r="K14" s="65" t="inlineStr"/>
-      <c r="L14" s="65" t="n"/>
-      <c r="M14" s="65" t="n"/>
+      <c r="F14" s="64" t="inlineStr"/>
+      <c r="G14" s="64" t="inlineStr"/>
+      <c r="H14" s="64" t="inlineStr"/>
+      <c r="I14" s="64" t="inlineStr"/>
+      <c r="J14" s="64" t="inlineStr"/>
+      <c r="K14" s="64" t="inlineStr"/>
+      <c r="L14" s="64" t="n"/>
+      <c r="M14" s="64" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B15" s="64" t="inlineStr">
+      <c r="A15" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B15" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C15" s="64" t="inlineStr">
+      <c r="C15" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D15" s="64" t="inlineStr">
+      <c r="D15" s="65" t="inlineStr">
         <is>
           <t>Eth1-12</t>
         </is>
       </c>
-      <c r="E15" s="64" t="inlineStr">
+      <c r="E15" s="65" t="inlineStr">
         <is>
           <t>1/12</t>
         </is>
       </c>
-      <c r="F15" s="64" t="inlineStr"/>
-      <c r="G15" s="64" t="inlineStr"/>
-      <c r="H15" s="64" t="inlineStr"/>
-      <c r="I15" s="64" t="inlineStr"/>
-      <c r="J15" s="64" t="inlineStr"/>
-      <c r="K15" s="64" t="inlineStr"/>
-      <c r="L15" s="64" t="n"/>
-      <c r="M15" s="64" t="n"/>
+      <c r="F15" s="65" t="inlineStr"/>
+      <c r="G15" s="65" t="inlineStr"/>
+      <c r="H15" s="65" t="inlineStr"/>
+      <c r="I15" s="65" t="inlineStr"/>
+      <c r="J15" s="65" t="inlineStr"/>
+      <c r="K15" s="65" t="inlineStr"/>
+      <c r="L15" s="65" t="n"/>
+      <c r="M15" s="65" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B16" s="65" t="inlineStr">
+      <c r="A16" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B16" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C16" s="65" t="inlineStr">
+      <c r="C16" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D16" s="65" t="inlineStr">
+      <c r="D16" s="64" t="inlineStr">
         <is>
           <t>Eth1-13</t>
         </is>
       </c>
-      <c r="E16" s="65" t="inlineStr">
+      <c r="E16" s="64" t="inlineStr">
         <is>
           <t>1/13</t>
         </is>
       </c>
-      <c r="F16" s="65" t="inlineStr"/>
-      <c r="G16" s="65" t="inlineStr"/>
-      <c r="H16" s="65" t="inlineStr"/>
-      <c r="I16" s="65" t="inlineStr"/>
-      <c r="J16" s="65" t="inlineStr"/>
-      <c r="K16" s="65" t="inlineStr"/>
-      <c r="L16" s="65" t="n"/>
-      <c r="M16" s="65" t="n"/>
+      <c r="F16" s="64" t="inlineStr"/>
+      <c r="G16" s="64" t="inlineStr"/>
+      <c r="H16" s="64" t="inlineStr"/>
+      <c r="I16" s="64" t="inlineStr"/>
+      <c r="J16" s="64" t="inlineStr"/>
+      <c r="K16" s="64" t="inlineStr"/>
+      <c r="L16" s="64" t="n"/>
+      <c r="M16" s="64" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B17" s="64" t="inlineStr">
+      <c r="A17" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B17" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C17" s="64" t="inlineStr">
+      <c r="C17" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D17" s="64" t="inlineStr">
+      <c r="D17" s="65" t="inlineStr">
         <is>
           <t>Eth1-14</t>
         </is>
       </c>
-      <c r="E17" s="64" t="inlineStr">
+      <c r="E17" s="65" t="inlineStr">
         <is>
           <t>1/14</t>
         </is>
       </c>
-      <c r="F17" s="64" t="inlineStr"/>
-      <c r="G17" s="64" t="inlineStr"/>
-      <c r="H17" s="64" t="inlineStr"/>
-      <c r="I17" s="64" t="inlineStr"/>
-      <c r="J17" s="64" t="inlineStr"/>
-      <c r="K17" s="64" t="inlineStr"/>
-      <c r="L17" s="64" t="n"/>
-      <c r="M17" s="64" t="n"/>
+      <c r="F17" s="65" t="inlineStr"/>
+      <c r="G17" s="65" t="inlineStr"/>
+      <c r="H17" s="65" t="inlineStr"/>
+      <c r="I17" s="65" t="inlineStr"/>
+      <c r="J17" s="65" t="inlineStr"/>
+      <c r="K17" s="65" t="inlineStr"/>
+      <c r="L17" s="65" t="n"/>
+      <c r="M17" s="65" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B18" s="65" t="inlineStr">
+      <c r="A18" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B18" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C18" s="65" t="inlineStr">
+      <c r="C18" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D18" s="65" t="inlineStr">
+      <c r="D18" s="64" t="inlineStr">
         <is>
           <t>Eth1-15</t>
         </is>
       </c>
-      <c r="E18" s="65" t="inlineStr">
+      <c r="E18" s="64" t="inlineStr">
         <is>
           <t>1/15</t>
         </is>
       </c>
-      <c r="F18" s="65" t="inlineStr"/>
-      <c r="G18" s="65" t="inlineStr"/>
-      <c r="H18" s="65" t="inlineStr"/>
-      <c r="I18" s="65" t="inlineStr"/>
-      <c r="J18" s="65" t="inlineStr"/>
-      <c r="K18" s="65" t="inlineStr"/>
-      <c r="L18" s="65" t="n"/>
-      <c r="M18" s="65" t="n"/>
+      <c r="F18" s="64" t="inlineStr"/>
+      <c r="G18" s="64" t="inlineStr"/>
+      <c r="H18" s="64" t="inlineStr"/>
+      <c r="I18" s="64" t="inlineStr"/>
+      <c r="J18" s="64" t="inlineStr"/>
+      <c r="K18" s="64" t="inlineStr"/>
+      <c r="L18" s="64" t="n"/>
+      <c r="M18" s="64" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B19" s="64" t="inlineStr">
+      <c r="A19" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B19" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C19" s="64" t="inlineStr">
+      <c r="C19" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D19" s="64" t="inlineStr">
+      <c r="D19" s="65" t="inlineStr">
         <is>
           <t>Eth1-16</t>
         </is>
       </c>
-      <c r="E19" s="64" t="inlineStr">
+      <c r="E19" s="65" t="inlineStr">
         <is>
           <t>1/16</t>
         </is>
       </c>
-      <c r="F19" s="64" t="inlineStr"/>
-      <c r="G19" s="64" t="inlineStr"/>
-      <c r="H19" s="64" t="inlineStr"/>
-      <c r="I19" s="64" t="inlineStr"/>
-      <c r="J19" s="64" t="inlineStr"/>
-      <c r="K19" s="64" t="inlineStr"/>
-      <c r="L19" s="64" t="n"/>
-      <c r="M19" s="64" t="n"/>
+      <c r="F19" s="65" t="inlineStr"/>
+      <c r="G19" s="65" t="inlineStr"/>
+      <c r="H19" s="65" t="inlineStr"/>
+      <c r="I19" s="65" t="inlineStr"/>
+      <c r="J19" s="65" t="inlineStr"/>
+      <c r="K19" s="65" t="inlineStr"/>
+      <c r="L19" s="65" t="n"/>
+      <c r="M19" s="65" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B20" s="65" t="inlineStr">
+      <c r="A20" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B20" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C20" s="65" t="inlineStr">
+      <c r="C20" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D20" s="65" t="inlineStr">
+      <c r="D20" s="64" t="inlineStr">
         <is>
           <t>Eth1-17</t>
         </is>
       </c>
-      <c r="E20" s="65" t="inlineStr">
+      <c r="E20" s="64" t="inlineStr">
         <is>
           <t>1/17</t>
         </is>
       </c>
-      <c r="F20" s="65" t="inlineStr"/>
-      <c r="G20" s="65" t="inlineStr"/>
-      <c r="H20" s="65" t="inlineStr"/>
-      <c r="I20" s="65" t="inlineStr"/>
-      <c r="J20" s="65" t="inlineStr"/>
-      <c r="K20" s="65" t="inlineStr"/>
-      <c r="L20" s="65" t="n"/>
-      <c r="M20" s="65" t="n"/>
+      <c r="F20" s="64" t="inlineStr"/>
+      <c r="G20" s="64" t="inlineStr"/>
+      <c r="H20" s="64" t="inlineStr"/>
+      <c r="I20" s="64" t="inlineStr"/>
+      <c r="J20" s="64" t="inlineStr"/>
+      <c r="K20" s="64" t="inlineStr"/>
+      <c r="L20" s="64" t="n"/>
+      <c r="M20" s="64" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B21" s="64" t="inlineStr">
+      <c r="A21" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B21" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C21" s="64" t="inlineStr">
+      <c r="C21" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D21" s="64" t="inlineStr">
+      <c r="D21" s="65" t="inlineStr">
         <is>
           <t>Eth1-18</t>
         </is>
       </c>
-      <c r="E21" s="64" t="inlineStr">
+      <c r="E21" s="65" t="inlineStr">
         <is>
           <t>1/18</t>
         </is>
       </c>
-      <c r="F21" s="64" t="inlineStr"/>
-      <c r="G21" s="64" t="inlineStr"/>
-      <c r="H21" s="64" t="inlineStr"/>
-      <c r="I21" s="64" t="inlineStr"/>
-      <c r="J21" s="64" t="inlineStr"/>
-      <c r="K21" s="64" t="inlineStr"/>
-      <c r="L21" s="64" t="n"/>
-      <c r="M21" s="64" t="n"/>
+      <c r="F21" s="65" t="inlineStr"/>
+      <c r="G21" s="65" t="inlineStr"/>
+      <c r="H21" s="65" t="inlineStr"/>
+      <c r="I21" s="65" t="inlineStr"/>
+      <c r="J21" s="65" t="inlineStr"/>
+      <c r="K21" s="65" t="inlineStr"/>
+      <c r="L21" s="65" t="n"/>
+      <c r="M21" s="65" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B22" s="65" t="inlineStr">
+      <c r="A22" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B22" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C22" s="65" t="inlineStr">
+      <c r="C22" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D22" s="65" t="inlineStr">
+      <c r="D22" s="64" t="inlineStr">
         <is>
           <t>Eth1-19</t>
         </is>
       </c>
-      <c r="E22" s="65" t="inlineStr">
+      <c r="E22" s="64" t="inlineStr">
         <is>
           <t>1/19</t>
         </is>
       </c>
-      <c r="F22" s="65" t="inlineStr"/>
-      <c r="G22" s="65" t="inlineStr"/>
-      <c r="H22" s="65" t="inlineStr"/>
-      <c r="I22" s="65" t="inlineStr"/>
-      <c r="J22" s="65" t="inlineStr"/>
-      <c r="K22" s="65" t="inlineStr"/>
-      <c r="L22" s="65" t="n"/>
-      <c r="M22" s="65" t="n"/>
+      <c r="F22" s="64" t="inlineStr"/>
+      <c r="G22" s="64" t="inlineStr"/>
+      <c r="H22" s="64" t="inlineStr"/>
+      <c r="I22" s="64" t="inlineStr"/>
+      <c r="J22" s="64" t="inlineStr"/>
+      <c r="K22" s="64" t="inlineStr"/>
+      <c r="L22" s="64" t="n"/>
+      <c r="M22" s="64" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B23" s="64" t="inlineStr">
+      <c r="A23" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B23" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C23" s="64" t="inlineStr">
+      <c r="C23" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D23" s="64" t="inlineStr">
+      <c r="D23" s="65" t="inlineStr">
         <is>
           <t>Eth1-20</t>
         </is>
       </c>
-      <c r="E23" s="64" t="inlineStr">
+      <c r="E23" s="65" t="inlineStr">
         <is>
           <t>1/20</t>
         </is>
       </c>
-      <c r="F23" s="64" t="inlineStr"/>
-      <c r="G23" s="64" t="inlineStr"/>
-      <c r="H23" s="64" t="inlineStr"/>
-      <c r="I23" s="64" t="inlineStr"/>
-      <c r="J23" s="64" t="inlineStr"/>
-      <c r="K23" s="64" t="inlineStr"/>
-      <c r="L23" s="64" t="n"/>
-      <c r="M23" s="64" t="n"/>
+      <c r="F23" s="65" t="inlineStr"/>
+      <c r="G23" s="65" t="inlineStr"/>
+      <c r="H23" s="65" t="inlineStr"/>
+      <c r="I23" s="65" t="inlineStr"/>
+      <c r="J23" s="65" t="inlineStr"/>
+      <c r="K23" s="65" t="inlineStr"/>
+      <c r="L23" s="65" t="n"/>
+      <c r="M23" s="65" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B24" s="65" t="inlineStr">
+      <c r="A24" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B24" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C24" s="65" t="inlineStr">
+      <c r="C24" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D24" s="65" t="inlineStr">
+      <c r="D24" s="64" t="inlineStr">
         <is>
           <t>Eth1-21</t>
         </is>
       </c>
-      <c r="E24" s="65" t="inlineStr">
+      <c r="E24" s="64" t="inlineStr">
         <is>
           <t>1/21</t>
         </is>
       </c>
-      <c r="F24" s="65" t="inlineStr"/>
-      <c r="G24" s="65" t="inlineStr"/>
-      <c r="H24" s="65" t="inlineStr"/>
-      <c r="I24" s="65" t="inlineStr"/>
-      <c r="J24" s="65" t="inlineStr"/>
-      <c r="K24" s="65" t="inlineStr"/>
-      <c r="L24" s="65" t="n"/>
-      <c r="M24" s="65" t="n"/>
+      <c r="F24" s="64" t="inlineStr"/>
+      <c r="G24" s="64" t="inlineStr"/>
+      <c r="H24" s="64" t="inlineStr"/>
+      <c r="I24" s="64" t="inlineStr"/>
+      <c r="J24" s="64" t="inlineStr"/>
+      <c r="K24" s="64" t="inlineStr"/>
+      <c r="L24" s="64" t="n"/>
+      <c r="M24" s="64" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B25" s="64" t="inlineStr">
+      <c r="A25" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B25" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C25" s="64" t="inlineStr">
+      <c r="C25" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D25" s="64" t="inlineStr">
+      <c r="D25" s="65" t="inlineStr">
         <is>
           <t>Eth1-22</t>
         </is>
       </c>
-      <c r="E25" s="64" t="inlineStr">
+      <c r="E25" s="65" t="inlineStr">
         <is>
           <t>1/22</t>
         </is>
       </c>
-      <c r="F25" s="64" t="inlineStr"/>
-      <c r="G25" s="64" t="inlineStr"/>
-      <c r="H25" s="64" t="inlineStr"/>
-      <c r="I25" s="64" t="inlineStr"/>
-      <c r="J25" s="64" t="inlineStr"/>
-      <c r="K25" s="64" t="inlineStr"/>
-      <c r="L25" s="64" t="n"/>
-      <c r="M25" s="64" t="n"/>
+      <c r="F25" s="65" t="inlineStr"/>
+      <c r="G25" s="65" t="inlineStr"/>
+      <c r="H25" s="65" t="inlineStr"/>
+      <c r="I25" s="65" t="inlineStr"/>
+      <c r="J25" s="65" t="inlineStr"/>
+      <c r="K25" s="65" t="inlineStr"/>
+      <c r="L25" s="65" t="n"/>
+      <c r="M25" s="65" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B26" s="65" t="inlineStr">
+      <c r="A26" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B26" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C26" s="65" t="inlineStr">
+      <c r="C26" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D26" s="65" t="inlineStr">
+      <c r="D26" s="64" t="inlineStr">
         <is>
           <t>Eth1-23</t>
         </is>
       </c>
-      <c r="E26" s="65" t="inlineStr">
+      <c r="E26" s="64" t="inlineStr">
         <is>
           <t>1/23</t>
         </is>
       </c>
-      <c r="F26" s="65" t="inlineStr"/>
-      <c r="G26" s="65" t="inlineStr"/>
-      <c r="H26" s="65" t="inlineStr"/>
-      <c r="I26" s="65" t="inlineStr"/>
-      <c r="J26" s="65" t="inlineStr"/>
-      <c r="K26" s="65" t="inlineStr"/>
-      <c r="L26" s="65" t="n"/>
-      <c r="M26" s="65" t="n"/>
+      <c r="F26" s="64" t="inlineStr"/>
+      <c r="G26" s="64" t="inlineStr"/>
+      <c r="H26" s="64" t="inlineStr"/>
+      <c r="I26" s="64" t="inlineStr"/>
+      <c r="J26" s="64" t="inlineStr"/>
+      <c r="K26" s="64" t="inlineStr"/>
+      <c r="L26" s="64" t="n"/>
+      <c r="M26" s="64" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B27" s="64" t="inlineStr">
+      <c r="A27" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B27" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C27" s="64" t="inlineStr">
+      <c r="C27" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D27" s="64" t="inlineStr">
+      <c r="D27" s="65" t="inlineStr">
         <is>
           <t>Eth1-24</t>
         </is>
       </c>
-      <c r="E27" s="64" t="inlineStr">
+      <c r="E27" s="65" t="inlineStr">
         <is>
           <t>1/24</t>
         </is>
       </c>
-      <c r="F27" s="64" t="inlineStr"/>
-      <c r="G27" s="64" t="inlineStr"/>
-      <c r="H27" s="64" t="inlineStr"/>
-      <c r="I27" s="64" t="inlineStr"/>
-      <c r="J27" s="64" t="inlineStr"/>
-      <c r="K27" s="64" t="inlineStr"/>
-      <c r="L27" s="64" t="n"/>
-      <c r="M27" s="64" t="n"/>
+      <c r="F27" s="65" t="inlineStr"/>
+      <c r="G27" s="65" t="inlineStr"/>
+      <c r="H27" s="65" t="inlineStr"/>
+      <c r="I27" s="65" t="inlineStr"/>
+      <c r="J27" s="65" t="inlineStr"/>
+      <c r="K27" s="65" t="inlineStr"/>
+      <c r="L27" s="65" t="n"/>
+      <c r="M27" s="65" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B28" s="65" t="inlineStr">
+      <c r="A28" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B28" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C28" s="65" t="inlineStr">
+      <c r="C28" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D28" s="65" t="inlineStr">
+      <c r="D28" s="64" t="inlineStr">
         <is>
           <t>Eth1-25</t>
         </is>
       </c>
-      <c r="E28" s="65" t="inlineStr">
+      <c r="E28" s="64" t="inlineStr">
         <is>
           <t>1/25</t>
         </is>
       </c>
-      <c r="F28" s="65" t="inlineStr"/>
-      <c r="G28" s="65" t="inlineStr"/>
-      <c r="H28" s="65" t="inlineStr"/>
-      <c r="I28" s="65" t="inlineStr"/>
-      <c r="J28" s="65" t="inlineStr"/>
-      <c r="K28" s="65" t="inlineStr"/>
-      <c r="L28" s="65" t="n"/>
-      <c r="M28" s="65" t="n"/>
+      <c r="F28" s="64" t="inlineStr"/>
+      <c r="G28" s="64" t="inlineStr"/>
+      <c r="H28" s="64" t="inlineStr"/>
+      <c r="I28" s="64" t="inlineStr"/>
+      <c r="J28" s="64" t="inlineStr"/>
+      <c r="K28" s="64" t="inlineStr"/>
+      <c r="L28" s="64" t="n"/>
+      <c r="M28" s="64" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B29" s="64" t="inlineStr">
+      <c r="A29" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B29" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C29" s="64" t="inlineStr">
+      <c r="C29" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D29" s="64" t="inlineStr">
+      <c r="D29" s="65" t="inlineStr">
         <is>
           <t>Eth1-26</t>
         </is>
       </c>
-      <c r="E29" s="64" t="inlineStr">
+      <c r="E29" s="65" t="inlineStr">
         <is>
           <t>1/26</t>
         </is>
       </c>
-      <c r="F29" s="64" t="inlineStr"/>
-      <c r="G29" s="64" t="inlineStr"/>
-      <c r="H29" s="64" t="inlineStr"/>
-      <c r="I29" s="64" t="inlineStr"/>
-      <c r="J29" s="64" t="inlineStr"/>
-      <c r="K29" s="64" t="inlineStr"/>
-      <c r="L29" s="64" t="n"/>
-      <c r="M29" s="64" t="n"/>
+      <c r="F29" s="65" t="inlineStr"/>
+      <c r="G29" s="65" t="inlineStr"/>
+      <c r="H29" s="65" t="inlineStr"/>
+      <c r="I29" s="65" t="inlineStr"/>
+      <c r="J29" s="65" t="inlineStr"/>
+      <c r="K29" s="65" t="inlineStr"/>
+      <c r="L29" s="65" t="n"/>
+      <c r="M29" s="65" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B30" s="65" t="inlineStr">
+      <c r="A30" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B30" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C30" s="65" t="inlineStr">
+      <c r="C30" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D30" s="65" t="inlineStr">
+      <c r="D30" s="64" t="inlineStr">
         <is>
           <t>Eth1-27</t>
         </is>
       </c>
-      <c r="E30" s="65" t="inlineStr">
+      <c r="E30" s="64" t="inlineStr">
         <is>
           <t>1/27</t>
         </is>
       </c>
-      <c r="F30" s="65" t="inlineStr"/>
-      <c r="G30" s="65" t="inlineStr"/>
-      <c r="H30" s="65" t="inlineStr"/>
-      <c r="I30" s="65" t="inlineStr"/>
-      <c r="J30" s="65" t="inlineStr"/>
-      <c r="K30" s="65" t="inlineStr"/>
-      <c r="L30" s="65" t="n"/>
-      <c r="M30" s="65" t="n"/>
+      <c r="F30" s="64" t="inlineStr"/>
+      <c r="G30" s="64" t="inlineStr"/>
+      <c r="H30" s="64" t="inlineStr"/>
+      <c r="I30" s="64" t="inlineStr"/>
+      <c r="J30" s="64" t="inlineStr"/>
+      <c r="K30" s="64" t="inlineStr"/>
+      <c r="L30" s="64" t="n"/>
+      <c r="M30" s="64" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B31" s="64" t="inlineStr">
+      <c r="A31" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B31" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C31" s="64" t="inlineStr">
+      <c r="C31" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D31" s="64" t="inlineStr">
+      <c r="D31" s="65" t="inlineStr">
         <is>
           <t>Eth1-28</t>
         </is>
       </c>
-      <c r="E31" s="64" t="inlineStr">
+      <c r="E31" s="65" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="F31" s="64" t="inlineStr"/>
-      <c r="G31" s="64" t="inlineStr"/>
-      <c r="H31" s="64" t="inlineStr"/>
-      <c r="I31" s="64" t="inlineStr"/>
-      <c r="J31" s="64" t="inlineStr"/>
-      <c r="K31" s="64" t="inlineStr"/>
-      <c r="L31" s="64" t="n"/>
-      <c r="M31" s="64" t="n"/>
+      <c r="F31" s="65" t="inlineStr"/>
+      <c r="G31" s="65" t="inlineStr"/>
+      <c r="H31" s="65" t="inlineStr"/>
+      <c r="I31" s="65" t="inlineStr"/>
+      <c r="J31" s="65" t="inlineStr"/>
+      <c r="K31" s="65" t="inlineStr"/>
+      <c r="L31" s="65" t="n"/>
+      <c r="M31" s="65" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B32" s="65" t="inlineStr">
+      <c r="A32" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B32" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C32" s="65" t="inlineStr">
+      <c r="C32" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D32" s="65" t="inlineStr">
+      <c r="D32" s="64" t="inlineStr">
         <is>
           <t>Eth1-29</t>
         </is>
       </c>
-      <c r="E32" s="65" t="inlineStr">
+      <c r="E32" s="64" t="inlineStr">
         <is>
           <t>1/29</t>
         </is>
       </c>
-      <c r="F32" s="65" t="inlineStr"/>
-      <c r="G32" s="65" t="inlineStr"/>
-      <c r="H32" s="65" t="inlineStr"/>
-      <c r="I32" s="65" t="inlineStr"/>
-      <c r="J32" s="65" t="inlineStr"/>
-      <c r="K32" s="65" t="inlineStr"/>
-      <c r="L32" s="65" t="n"/>
-      <c r="M32" s="65" t="n"/>
+      <c r="F32" s="64" t="inlineStr"/>
+      <c r="G32" s="64" t="inlineStr"/>
+      <c r="H32" s="64" t="inlineStr"/>
+      <c r="I32" s="64" t="inlineStr"/>
+      <c r="J32" s="64" t="inlineStr"/>
+      <c r="K32" s="64" t="inlineStr"/>
+      <c r="L32" s="64" t="n"/>
+      <c r="M32" s="64" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B33" s="64" t="inlineStr">
+      <c r="A33" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B33" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C33" s="64" t="inlineStr">
+      <c r="C33" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D33" s="64" t="inlineStr">
+      <c r="D33" s="65" t="inlineStr">
         <is>
           <t>Eth1-30</t>
         </is>
       </c>
-      <c r="E33" s="64" t="inlineStr">
+      <c r="E33" s="65" t="inlineStr">
         <is>
           <t>1/30</t>
         </is>
       </c>
-      <c r="F33" s="64" t="inlineStr"/>
-      <c r="G33" s="64" t="inlineStr"/>
-      <c r="H33" s="64" t="inlineStr"/>
-      <c r="I33" s="64" t="inlineStr"/>
-      <c r="J33" s="64" t="inlineStr"/>
-      <c r="K33" s="64" t="inlineStr"/>
-      <c r="L33" s="64" t="n"/>
-      <c r="M33" s="64" t="n"/>
+      <c r="F33" s="65" t="inlineStr"/>
+      <c r="G33" s="65" t="inlineStr"/>
+      <c r="H33" s="65" t="inlineStr"/>
+      <c r="I33" s="65" t="inlineStr"/>
+      <c r="J33" s="65" t="inlineStr"/>
+      <c r="K33" s="65" t="inlineStr"/>
+      <c r="L33" s="65" t="n"/>
+      <c r="M33" s="65" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B34" s="65" t="inlineStr">
+      <c r="A34" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B34" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C34" s="65" t="inlineStr">
+      <c r="C34" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D34" s="65" t="inlineStr">
+      <c r="D34" s="64" t="inlineStr">
         <is>
           <t>Eth1-31</t>
         </is>
       </c>
-      <c r="E34" s="65" t="inlineStr">
+      <c r="E34" s="64" t="inlineStr">
         <is>
           <t>1/31</t>
         </is>
       </c>
-      <c r="F34" s="65" t="inlineStr"/>
-      <c r="G34" s="65" t="inlineStr"/>
-      <c r="H34" s="65" t="inlineStr"/>
-      <c r="I34" s="65" t="inlineStr"/>
-      <c r="J34" s="65" t="inlineStr"/>
-      <c r="K34" s="65" t="inlineStr"/>
-      <c r="L34" s="65" t="n"/>
-      <c r="M34" s="65" t="n"/>
+      <c r="F34" s="64" t="inlineStr"/>
+      <c r="G34" s="64" t="inlineStr"/>
+      <c r="H34" s="64" t="inlineStr"/>
+      <c r="I34" s="64" t="inlineStr"/>
+      <c r="J34" s="64" t="inlineStr"/>
+      <c r="K34" s="64" t="inlineStr"/>
+      <c r="L34" s="64" t="n"/>
+      <c r="M34" s="64" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B35" s="64" t="inlineStr">
+      <c r="A35" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B35" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C35" s="64" t="inlineStr">
+      <c r="C35" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D35" s="64" t="inlineStr">
+      <c r="D35" s="65" t="inlineStr">
         <is>
           <t>Eth1-32</t>
         </is>
       </c>
-      <c r="E35" s="64" t="inlineStr">
+      <c r="E35" s="65" t="inlineStr">
         <is>
           <t>1/32</t>
         </is>
       </c>
-      <c r="F35" s="64" t="inlineStr"/>
-      <c r="G35" s="64" t="inlineStr"/>
-      <c r="H35" s="64" t="inlineStr"/>
-      <c r="I35" s="64" t="inlineStr"/>
-      <c r="J35" s="64" t="inlineStr"/>
-      <c r="K35" s="64" t="inlineStr"/>
-      <c r="L35" s="64" t="n"/>
-      <c r="M35" s="64" t="n"/>
+      <c r="F35" s="65" t="inlineStr"/>
+      <c r="G35" s="65" t="inlineStr"/>
+      <c r="H35" s="65" t="inlineStr"/>
+      <c r="I35" s="65" t="inlineStr"/>
+      <c r="J35" s="65" t="inlineStr"/>
+      <c r="K35" s="65" t="inlineStr"/>
+      <c r="L35" s="65" t="n"/>
+      <c r="M35" s="65" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B36" s="65" t="inlineStr">
+      <c r="A36" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B36" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C36" s="65" t="inlineStr">
+      <c r="C36" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D36" s="65" t="inlineStr">
+      <c r="D36" s="64" t="inlineStr">
         <is>
           <t>Eth1-33</t>
         </is>
       </c>
-      <c r="E36" s="65" t="inlineStr">
+      <c r="E36" s="64" t="inlineStr">
         <is>
           <t>1/33</t>
         </is>
       </c>
-      <c r="F36" s="65" t="inlineStr"/>
-      <c r="G36" s="65" t="inlineStr"/>
-      <c r="H36" s="65" t="inlineStr"/>
-      <c r="I36" s="65" t="inlineStr"/>
-      <c r="J36" s="65" t="inlineStr"/>
-      <c r="K36" s="65" t="inlineStr"/>
-      <c r="L36" s="65" t="n"/>
-      <c r="M36" s="65" t="n"/>
+      <c r="F36" s="64" t="inlineStr"/>
+      <c r="G36" s="64" t="inlineStr"/>
+      <c r="H36" s="64" t="inlineStr"/>
+      <c r="I36" s="64" t="inlineStr"/>
+      <c r="J36" s="64" t="inlineStr"/>
+      <c r="K36" s="64" t="inlineStr"/>
+      <c r="L36" s="64" t="n"/>
+      <c r="M36" s="64" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B37" s="64" t="inlineStr">
+      <c r="A37" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B37" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C37" s="64" t="inlineStr">
+      <c r="C37" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D37" s="64" t="inlineStr">
+      <c r="D37" s="65" t="inlineStr">
         <is>
           <t>Eth1-34</t>
         </is>
       </c>
-      <c r="E37" s="64" t="inlineStr">
+      <c r="E37" s="65" t="inlineStr">
         <is>
           <t>1/34</t>
         </is>
       </c>
-      <c r="F37" s="64" t="inlineStr"/>
-      <c r="G37" s="64" t="inlineStr"/>
-      <c r="H37" s="64" t="inlineStr"/>
-      <c r="I37" s="64" t="inlineStr"/>
-      <c r="J37" s="64" t="inlineStr"/>
-      <c r="K37" s="64" t="inlineStr"/>
-      <c r="L37" s="64" t="n"/>
-      <c r="M37" s="64" t="n"/>
+      <c r="F37" s="65" t="inlineStr"/>
+      <c r="G37" s="65" t="inlineStr"/>
+      <c r="H37" s="65" t="inlineStr"/>
+      <c r="I37" s="65" t="inlineStr"/>
+      <c r="J37" s="65" t="inlineStr"/>
+      <c r="K37" s="65" t="inlineStr"/>
+      <c r="L37" s="65" t="n"/>
+      <c r="M37" s="65" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B38" s="65" t="inlineStr">
+      <c r="A38" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B38" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C38" s="65" t="inlineStr">
+      <c r="C38" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D38" s="65" t="inlineStr">
+      <c r="D38" s="64" t="inlineStr">
         <is>
           <t>Eth1-35</t>
         </is>
       </c>
-      <c r="E38" s="65" t="inlineStr">
+      <c r="E38" s="64" t="inlineStr">
         <is>
           <t>1/35</t>
         </is>
       </c>
-      <c r="F38" s="65" t="inlineStr"/>
-      <c r="G38" s="65" t="inlineStr"/>
-      <c r="H38" s="65" t="inlineStr"/>
-      <c r="I38" s="65" t="inlineStr"/>
-      <c r="J38" s="65" t="inlineStr"/>
-      <c r="K38" s="65" t="inlineStr"/>
-      <c r="L38" s="65" t="n"/>
-      <c r="M38" s="65" t="n"/>
+      <c r="F38" s="64" t="inlineStr"/>
+      <c r="G38" s="64" t="inlineStr"/>
+      <c r="H38" s="64" t="inlineStr"/>
+      <c r="I38" s="64" t="inlineStr"/>
+      <c r="J38" s="64" t="inlineStr"/>
+      <c r="K38" s="64" t="inlineStr"/>
+      <c r="L38" s="64" t="n"/>
+      <c r="M38" s="64" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B39" s="64" t="inlineStr">
+      <c r="A39" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B39" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C39" s="64" t="inlineStr">
+      <c r="C39" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D39" s="64" t="inlineStr">
+      <c r="D39" s="65" t="inlineStr">
         <is>
           <t>Eth1-36</t>
         </is>
       </c>
-      <c r="E39" s="64" t="inlineStr">
+      <c r="E39" s="65" t="inlineStr">
         <is>
           <t>1/36</t>
         </is>
       </c>
-      <c r="F39" s="64" t="inlineStr"/>
-      <c r="G39" s="64" t="inlineStr"/>
-      <c r="H39" s="64" t="inlineStr"/>
-      <c r="I39" s="64" t="inlineStr"/>
-      <c r="J39" s="64" t="inlineStr"/>
-      <c r="K39" s="64" t="inlineStr"/>
-      <c r="L39" s="64" t="n"/>
-      <c r="M39" s="64" t="n"/>
+      <c r="F39" s="65" t="inlineStr"/>
+      <c r="G39" s="65" t="inlineStr"/>
+      <c r="H39" s="65" t="inlineStr"/>
+      <c r="I39" s="65" t="inlineStr"/>
+      <c r="J39" s="65" t="inlineStr"/>
+      <c r="K39" s="65" t="inlineStr"/>
+      <c r="L39" s="65" t="n"/>
+      <c r="M39" s="65" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B40" s="65" t="inlineStr">
+      <c r="A40" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B40" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C40" s="65" t="inlineStr">
+      <c r="C40" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D40" s="65" t="inlineStr">
+      <c r="D40" s="64" t="inlineStr">
         <is>
           <t>Eth1-37</t>
         </is>
       </c>
-      <c r="E40" s="65" t="inlineStr">
+      <c r="E40" s="64" t="inlineStr">
         <is>
           <t>1/37</t>
         </is>
       </c>
-      <c r="F40" s="65" t="inlineStr"/>
-      <c r="G40" s="65" t="inlineStr"/>
-      <c r="H40" s="65" t="inlineStr"/>
-      <c r="I40" s="65" t="inlineStr"/>
-      <c r="J40" s="65" t="inlineStr"/>
-      <c r="K40" s="65" t="inlineStr"/>
-      <c r="L40" s="65" t="n"/>
-      <c r="M40" s="65" t="n"/>
+      <c r="F40" s="64" t="inlineStr"/>
+      <c r="G40" s="64" t="inlineStr"/>
+      <c r="H40" s="64" t="inlineStr"/>
+      <c r="I40" s="64" t="inlineStr"/>
+      <c r="J40" s="64" t="inlineStr"/>
+      <c r="K40" s="64" t="inlineStr"/>
+      <c r="L40" s="64" t="n"/>
+      <c r="M40" s="64" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B41" s="64" t="inlineStr">
+      <c r="A41" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B41" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C41" s="64" t="inlineStr">
+      <c r="C41" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D41" s="64" t="inlineStr">
+      <c r="D41" s="65" t="inlineStr">
         <is>
           <t>Eth1-38</t>
         </is>
       </c>
-      <c r="E41" s="64" t="inlineStr">
+      <c r="E41" s="65" t="inlineStr">
         <is>
           <t>1/38</t>
         </is>
       </c>
-      <c r="F41" s="64" t="inlineStr"/>
-      <c r="G41" s="64" t="inlineStr"/>
-      <c r="H41" s="64" t="inlineStr"/>
-      <c r="I41" s="64" t="inlineStr"/>
-      <c r="J41" s="64" t="inlineStr"/>
-      <c r="K41" s="64" t="inlineStr"/>
-      <c r="L41" s="64" t="n"/>
-      <c r="M41" s="64" t="n"/>
+      <c r="F41" s="65" t="inlineStr"/>
+      <c r="G41" s="65" t="inlineStr"/>
+      <c r="H41" s="65" t="inlineStr"/>
+      <c r="I41" s="65" t="inlineStr"/>
+      <c r="J41" s="65" t="inlineStr"/>
+      <c r="K41" s="65" t="inlineStr"/>
+      <c r="L41" s="65" t="n"/>
+      <c r="M41" s="65" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B42" s="65" t="inlineStr">
+      <c r="A42" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B42" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C42" s="65" t="inlineStr">
+      <c r="C42" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr">
+      <c r="D42" s="64" t="inlineStr">
         <is>
           <t>Eth1-39</t>
         </is>
       </c>
-      <c r="E42" s="65" t="inlineStr">
+      <c r="E42" s="64" t="inlineStr">
         <is>
           <t>1/39</t>
         </is>
       </c>
-      <c r="F42" s="65" t="inlineStr"/>
-      <c r="G42" s="65" t="inlineStr"/>
-      <c r="H42" s="65" t="inlineStr"/>
-      <c r="I42" s="65" t="inlineStr"/>
-      <c r="J42" s="65" t="inlineStr"/>
-      <c r="K42" s="65" t="inlineStr"/>
-      <c r="L42" s="65" t="n"/>
-      <c r="M42" s="65" t="n"/>
+      <c r="F42" s="64" t="inlineStr"/>
+      <c r="G42" s="64" t="inlineStr"/>
+      <c r="H42" s="64" t="inlineStr"/>
+      <c r="I42" s="64" t="inlineStr"/>
+      <c r="J42" s="64" t="inlineStr"/>
+      <c r="K42" s="64" t="inlineStr"/>
+      <c r="L42" s="64" t="n"/>
+      <c r="M42" s="64" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B43" s="64" t="inlineStr">
+      <c r="A43" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B43" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C43" s="64" t="inlineStr">
+      <c r="C43" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D43" s="64" t="inlineStr">
+      <c r="D43" s="65" t="inlineStr">
         <is>
           <t>Eth1-40</t>
         </is>
       </c>
-      <c r="E43" s="64" t="inlineStr">
+      <c r="E43" s="65" t="inlineStr">
         <is>
           <t>1/40</t>
         </is>
       </c>
-      <c r="F43" s="64" t="inlineStr"/>
-      <c r="G43" s="64" t="inlineStr"/>
-      <c r="H43" s="64" t="inlineStr"/>
-      <c r="I43" s="64" t="inlineStr"/>
-      <c r="J43" s="64" t="inlineStr"/>
-      <c r="K43" s="64" t="inlineStr"/>
-      <c r="L43" s="64" t="n"/>
-      <c r="M43" s="64" t="n"/>
+      <c r="F43" s="65" t="inlineStr"/>
+      <c r="G43" s="65" t="inlineStr"/>
+      <c r="H43" s="65" t="inlineStr"/>
+      <c r="I43" s="65" t="inlineStr"/>
+      <c r="J43" s="65" t="inlineStr"/>
+      <c r="K43" s="65" t="inlineStr"/>
+      <c r="L43" s="65" t="n"/>
+      <c r="M43" s="65" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B44" s="65" t="inlineStr">
+      <c r="A44" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B44" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C44" s="65" t="inlineStr">
+      <c r="C44" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D44" s="65" t="inlineStr">
+      <c r="D44" s="64" t="inlineStr">
         <is>
           <t>Eth1-41</t>
         </is>
       </c>
-      <c r="E44" s="65" t="inlineStr">
+      <c r="E44" s="64" t="inlineStr">
         <is>
           <t>1/41</t>
         </is>
       </c>
-      <c r="F44" s="65" t="inlineStr"/>
-      <c r="G44" s="65" t="inlineStr"/>
-      <c r="H44" s="65" t="inlineStr"/>
-      <c r="I44" s="65" t="inlineStr"/>
-      <c r="J44" s="65" t="inlineStr"/>
-      <c r="K44" s="65" t="inlineStr"/>
-      <c r="L44" s="65" t="n"/>
-      <c r="M44" s="65" t="n"/>
+      <c r="F44" s="64" t="inlineStr"/>
+      <c r="G44" s="64" t="inlineStr"/>
+      <c r="H44" s="64" t="inlineStr"/>
+      <c r="I44" s="64" t="inlineStr"/>
+      <c r="J44" s="64" t="inlineStr"/>
+      <c r="K44" s="64" t="inlineStr"/>
+      <c r="L44" s="64" t="n"/>
+      <c r="M44" s="64" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B45" s="64" t="inlineStr">
+      <c r="A45" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B45" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C45" s="64" t="inlineStr">
+      <c r="C45" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D45" s="64" t="inlineStr">
+      <c r="D45" s="65" t="inlineStr">
         <is>
           <t>Eth1-42</t>
         </is>
       </c>
-      <c r="E45" s="64" t="inlineStr">
+      <c r="E45" s="65" t="inlineStr">
         <is>
           <t>1/42</t>
         </is>
       </c>
-      <c r="F45" s="64" t="inlineStr"/>
-      <c r="G45" s="64" t="inlineStr"/>
-      <c r="H45" s="64" t="inlineStr"/>
-      <c r="I45" s="64" t="inlineStr"/>
-      <c r="J45" s="64" t="inlineStr"/>
-      <c r="K45" s="64" t="inlineStr"/>
-      <c r="L45" s="64" t="n"/>
-      <c r="M45" s="64" t="n"/>
+      <c r="F45" s="65" t="inlineStr"/>
+      <c r="G45" s="65" t="inlineStr"/>
+      <c r="H45" s="65" t="inlineStr"/>
+      <c r="I45" s="65" t="inlineStr"/>
+      <c r="J45" s="65" t="inlineStr"/>
+      <c r="K45" s="65" t="inlineStr"/>
+      <c r="L45" s="65" t="n"/>
+      <c r="M45" s="65" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B46" s="65" t="inlineStr">
+      <c r="A46" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B46" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C46" s="65" t="inlineStr">
+      <c r="C46" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D46" s="65" t="inlineStr">
+      <c r="D46" s="64" t="inlineStr">
         <is>
           <t>Eth1-43</t>
         </is>
       </c>
-      <c r="E46" s="65" t="inlineStr">
+      <c r="E46" s="64" t="inlineStr">
         <is>
           <t>1/43</t>
         </is>
       </c>
-      <c r="F46" s="65" t="inlineStr"/>
-      <c r="G46" s="65" t="inlineStr"/>
-      <c r="H46" s="65" t="inlineStr"/>
-      <c r="I46" s="65" t="inlineStr"/>
-      <c r="J46" s="65" t="inlineStr"/>
-      <c r="K46" s="65" t="inlineStr"/>
-      <c r="L46" s="65" t="n"/>
-      <c r="M46" s="65" t="n"/>
+      <c r="F46" s="64" t="inlineStr"/>
+      <c r="G46" s="64" t="inlineStr"/>
+      <c r="H46" s="64" t="inlineStr"/>
+      <c r="I46" s="64" t="inlineStr"/>
+      <c r="J46" s="64" t="inlineStr"/>
+      <c r="K46" s="64" t="inlineStr"/>
+      <c r="L46" s="64" t="n"/>
+      <c r="M46" s="64" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B47" s="64" t="inlineStr">
+      <c r="A47" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B47" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C47" s="64" t="inlineStr">
+      <c r="C47" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D47" s="64" t="inlineStr">
+      <c r="D47" s="65" t="inlineStr">
         <is>
           <t>Eth1-44</t>
         </is>
       </c>
-      <c r="E47" s="64" t="inlineStr">
+      <c r="E47" s="65" t="inlineStr">
         <is>
           <t>1/44</t>
         </is>
       </c>
-      <c r="F47" s="64" t="inlineStr"/>
-      <c r="G47" s="64" t="inlineStr"/>
-      <c r="H47" s="64" t="inlineStr"/>
-      <c r="I47" s="64" t="inlineStr"/>
-      <c r="J47" s="64" t="inlineStr"/>
-      <c r="K47" s="64" t="inlineStr"/>
-      <c r="L47" s="64" t="n"/>
-      <c r="M47" s="64" t="n"/>
+      <c r="F47" s="65" t="inlineStr"/>
+      <c r="G47" s="65" t="inlineStr"/>
+      <c r="H47" s="65" t="inlineStr"/>
+      <c r="I47" s="65" t="inlineStr"/>
+      <c r="J47" s="65" t="inlineStr"/>
+      <c r="K47" s="65" t="inlineStr"/>
+      <c r="L47" s="65" t="n"/>
+      <c r="M47" s="65" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B48" s="65" t="inlineStr">
+      <c r="A48" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B48" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C48" s="65" t="inlineStr">
+      <c r="C48" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D48" s="65" t="inlineStr">
+      <c r="D48" s="64" t="inlineStr">
         <is>
           <t>Eth1-45</t>
         </is>
       </c>
-      <c r="E48" s="65" t="inlineStr">
+      <c r="E48" s="64" t="inlineStr">
         <is>
           <t>1/45</t>
         </is>
       </c>
-      <c r="F48" s="65" t="inlineStr"/>
-      <c r="G48" s="65" t="inlineStr"/>
-      <c r="H48" s="65" t="inlineStr"/>
-      <c r="I48" s="65" t="inlineStr"/>
-      <c r="J48" s="65" t="inlineStr"/>
-      <c r="K48" s="65" t="inlineStr"/>
-      <c r="L48" s="65" t="n"/>
-      <c r="M48" s="65" t="n"/>
+      <c r="F48" s="64" t="inlineStr"/>
+      <c r="G48" s="64" t="inlineStr"/>
+      <c r="H48" s="64" t="inlineStr"/>
+      <c r="I48" s="64" t="inlineStr"/>
+      <c r="J48" s="64" t="inlineStr"/>
+      <c r="K48" s="64" t="inlineStr"/>
+      <c r="L48" s="64" t="n"/>
+      <c r="M48" s="64" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B49" s="64" t="inlineStr">
+      <c r="A49" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B49" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C49" s="64" t="inlineStr">
+      <c r="C49" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D49" s="64" t="inlineStr">
+      <c r="D49" s="65" t="inlineStr">
         <is>
           <t>Eth1-46</t>
         </is>
       </c>
-      <c r="E49" s="64" t="inlineStr">
+      <c r="E49" s="65" t="inlineStr">
         <is>
           <t>1/46</t>
         </is>
       </c>
-      <c r="F49" s="64" t="inlineStr"/>
-      <c r="G49" s="64" t="inlineStr"/>
-      <c r="H49" s="64" t="inlineStr"/>
-      <c r="I49" s="64" t="inlineStr"/>
-      <c r="J49" s="64" t="inlineStr"/>
-      <c r="K49" s="64" t="inlineStr"/>
-      <c r="L49" s="64" t="n"/>
-      <c r="M49" s="64" t="n"/>
+      <c r="F49" s="65" t="inlineStr"/>
+      <c r="G49" s="65" t="inlineStr"/>
+      <c r="H49" s="65" t="inlineStr"/>
+      <c r="I49" s="65" t="inlineStr"/>
+      <c r="J49" s="65" t="inlineStr"/>
+      <c r="K49" s="65" t="inlineStr"/>
+      <c r="L49" s="65" t="n"/>
+      <c r="M49" s="65" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B50" s="65" t="inlineStr">
+      <c r="A50" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B50" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C50" s="65" t="inlineStr">
+      <c r="C50" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D50" s="65" t="inlineStr">
+      <c r="D50" s="64" t="inlineStr">
         <is>
           <t>Eth1-47</t>
         </is>
       </c>
-      <c r="E50" s="65" t="inlineStr">
+      <c r="E50" s="64" t="inlineStr">
         <is>
           <t>1/47</t>
         </is>
       </c>
-      <c r="F50" s="65" t="inlineStr"/>
-      <c r="G50" s="65" t="inlineStr"/>
-      <c r="H50" s="65" t="inlineStr"/>
-      <c r="I50" s="65" t="inlineStr"/>
-      <c r="J50" s="65" t="inlineStr"/>
-      <c r="K50" s="65" t="inlineStr"/>
-      <c r="L50" s="65" t="n"/>
-      <c r="M50" s="65" t="n"/>
+      <c r="F50" s="64" t="inlineStr"/>
+      <c r="G50" s="64" t="inlineStr"/>
+      <c r="H50" s="64" t="inlineStr"/>
+      <c r="I50" s="64" t="inlineStr"/>
+      <c r="J50" s="64" t="inlineStr"/>
+      <c r="K50" s="64" t="inlineStr"/>
+      <c r="L50" s="64" t="n"/>
+      <c r="M50" s="64" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B51" s="64" t="inlineStr">
+      <c r="A51" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B51" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C51" s="64" t="inlineStr">
+      <c r="C51" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D51" s="64" t="inlineStr">
+      <c r="D51" s="65" t="inlineStr">
         <is>
           <t>Eth1-48</t>
         </is>
       </c>
-      <c r="E51" s="64" t="inlineStr">
+      <c r="E51" s="65" t="inlineStr">
         <is>
           <t>1/48</t>
         </is>
       </c>
-      <c r="F51" s="64" t="inlineStr"/>
-      <c r="G51" s="64" t="inlineStr"/>
-      <c r="H51" s="64" t="inlineStr"/>
-      <c r="I51" s="64" t="inlineStr"/>
-      <c r="J51" s="64" t="inlineStr"/>
-      <c r="K51" s="64" t="inlineStr"/>
-      <c r="L51" s="64" t="n"/>
-      <c r="M51" s="64" t="n"/>
+      <c r="F51" s="65" t="inlineStr"/>
+      <c r="G51" s="65" t="inlineStr"/>
+      <c r="H51" s="65" t="inlineStr"/>
+      <c r="I51" s="65" t="inlineStr"/>
+      <c r="J51" s="65" t="inlineStr"/>
+      <c r="K51" s="65" t="inlineStr"/>
+      <c r="L51" s="65" t="n"/>
+      <c r="M51" s="65" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B52" s="65" t="inlineStr">
+      <c r="A52" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B52" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C52" s="65" t="inlineStr">
+      <c r="C52" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D52" s="65" t="inlineStr">
+      <c r="D52" s="64" t="inlineStr">
         <is>
           <t>Eth1-49</t>
         </is>
       </c>
-      <c r="E52" s="65" t="inlineStr">
+      <c r="E52" s="64" t="inlineStr">
         <is>
           <t>1/49</t>
         </is>
       </c>
-      <c r="F52" s="65" t="inlineStr"/>
-      <c r="G52" s="65" t="inlineStr"/>
-      <c r="H52" s="65" t="inlineStr"/>
-      <c r="I52" s="65" t="inlineStr"/>
-      <c r="J52" s="65" t="inlineStr"/>
-      <c r="K52" s="65" t="inlineStr"/>
-      <c r="L52" s="65" t="n"/>
-      <c r="M52" s="65" t="n"/>
+      <c r="F52" s="64" t="inlineStr"/>
+      <c r="G52" s="64" t="inlineStr"/>
+      <c r="H52" s="64" t="inlineStr"/>
+      <c r="I52" s="64" t="inlineStr"/>
+      <c r="J52" s="64" t="inlineStr"/>
+      <c r="K52" s="64" t="inlineStr"/>
+      <c r="L52" s="64" t="n"/>
+      <c r="M52" s="64" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B53" s="64" t="inlineStr">
+      <c r="A53" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B53" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C53" s="64" t="inlineStr">
+      <c r="C53" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D53" s="64" t="inlineStr">
+      <c r="D53" s="65" t="inlineStr">
         <is>
           <t>Eth1-50</t>
         </is>
       </c>
-      <c r="E53" s="64" t="inlineStr">
+      <c r="E53" s="65" t="inlineStr">
         <is>
           <t>1/50</t>
         </is>
       </c>
-      <c r="F53" s="64" t="inlineStr"/>
-      <c r="G53" s="64" t="inlineStr"/>
-      <c r="H53" s="64" t="inlineStr"/>
-      <c r="I53" s="64" t="inlineStr"/>
-      <c r="J53" s="64" t="inlineStr"/>
-      <c r="K53" s="64" t="inlineStr"/>
-      <c r="L53" s="64" t="n"/>
-      <c r="M53" s="64" t="n"/>
+      <c r="F53" s="65" t="inlineStr"/>
+      <c r="G53" s="65" t="inlineStr"/>
+      <c r="H53" s="65" t="inlineStr"/>
+      <c r="I53" s="65" t="inlineStr"/>
+      <c r="J53" s="65" t="inlineStr"/>
+      <c r="K53" s="65" t="inlineStr"/>
+      <c r="L53" s="65" t="n"/>
+      <c r="M53" s="65" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B54" s="65" t="inlineStr">
+      <c r="A54" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B54" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C54" s="65" t="inlineStr">
+      <c r="C54" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D54" s="65" t="inlineStr">
+      <c r="D54" s="64" t="inlineStr">
         <is>
           <t>Eth1-51</t>
         </is>
       </c>
-      <c r="E54" s="65" t="inlineStr">
+      <c r="E54" s="64" t="inlineStr">
         <is>
           <t>1/51</t>
         </is>
       </c>
-      <c r="F54" s="65" t="inlineStr"/>
-      <c r="G54" s="65" t="inlineStr"/>
-      <c r="H54" s="65" t="inlineStr"/>
-      <c r="I54" s="65" t="inlineStr"/>
-      <c r="J54" s="65" t="inlineStr"/>
-      <c r="K54" s="65" t="inlineStr"/>
-      <c r="L54" s="65" t="n"/>
-      <c r="M54" s="65" t="n"/>
+      <c r="F54" s="64" t="inlineStr"/>
+      <c r="G54" s="64" t="inlineStr"/>
+      <c r="H54" s="64" t="inlineStr"/>
+      <c r="I54" s="64" t="inlineStr"/>
+      <c r="J54" s="64" t="inlineStr"/>
+      <c r="K54" s="64" t="inlineStr"/>
+      <c r="L54" s="64" t="n"/>
+      <c r="M54" s="64" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B55" s="64" t="inlineStr">
+      <c r="A55" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B55" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C55" s="64" t="inlineStr">
+      <c r="C55" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D55" s="64" t="inlineStr">
+      <c r="D55" s="65" t="inlineStr">
         <is>
           <t>Eth1-52</t>
         </is>
       </c>
-      <c r="E55" s="64" t="inlineStr">
+      <c r="E55" s="65" t="inlineStr">
         <is>
           <t>1/52</t>
         </is>
       </c>
-      <c r="F55" s="64" t="inlineStr"/>
-      <c r="G55" s="64" t="inlineStr"/>
-      <c r="H55" s="64" t="inlineStr"/>
-      <c r="I55" s="64" t="inlineStr"/>
-      <c r="J55" s="64" t="inlineStr"/>
-      <c r="K55" s="64" t="inlineStr"/>
-      <c r="L55" s="64" t="n"/>
-      <c r="M55" s="64" t="n"/>
+      <c r="F55" s="65" t="inlineStr"/>
+      <c r="G55" s="65" t="inlineStr"/>
+      <c r="H55" s="65" t="inlineStr"/>
+      <c r="I55" s="65" t="inlineStr"/>
+      <c r="J55" s="65" t="inlineStr"/>
+      <c r="K55" s="65" t="inlineStr"/>
+      <c r="L55" s="65" t="n"/>
+      <c r="M55" s="65" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="65" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B56" s="65" t="inlineStr">
+      <c r="A56" s="64" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B56" s="64" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C56" s="65" t="inlineStr">
+      <c r="C56" s="64" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D56" s="65" t="inlineStr">
+      <c r="D56" s="64" t="inlineStr">
         <is>
           <t>Eth1-53</t>
         </is>
       </c>
-      <c r="E56" s="65" t="inlineStr">
+      <c r="E56" s="64" t="inlineStr">
         <is>
           <t>1/53</t>
         </is>
       </c>
-      <c r="F56" s="65" t="inlineStr"/>
-      <c r="G56" s="65" t="inlineStr"/>
-      <c r="H56" s="65" t="inlineStr"/>
-      <c r="I56" s="65" t="inlineStr"/>
-      <c r="J56" s="65" t="inlineStr"/>
-      <c r="K56" s="65" t="inlineStr"/>
-      <c r="L56" s="65" t="n"/>
-      <c r="M56" s="65" t="n"/>
+      <c r="F56" s="64" t="inlineStr"/>
+      <c r="G56" s="64" t="inlineStr"/>
+      <c r="H56" s="64" t="inlineStr"/>
+      <c r="I56" s="64" t="inlineStr"/>
+      <c r="J56" s="64" t="inlineStr"/>
+      <c r="K56" s="64" t="inlineStr"/>
+      <c r="L56" s="64" t="n"/>
+      <c r="M56" s="64" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="64" t="inlineStr">
-        <is>
-          <t>intf_selector</t>
-        </is>
-      </c>
-      <c r="B57" s="64" t="inlineStr">
+      <c r="A57" s="65" t="inlineStr">
+        <is>
+          <t>intf_selector</t>
+        </is>
+      </c>
+      <c r="B57" s="65" t="inlineStr">
         <is>
           <t>dc2-leaf202</t>
         </is>
       </c>
-      <c r="C57" s="64" t="inlineStr">
+      <c r="C57" s="65" t="inlineStr">
         <is>
           <t>202</t>
         </is>
       </c>
-      <c r="D57" s="64" t="inlineStr">
+      <c r="D57" s="65" t="inlineStr">
         <is>
           <t>Eth1-54</t>
         </is>
       </c>
-      <c r="E57" s="64" t="inlineStr">
+      <c r="E57" s="65" t="inlineStr">
         <is>
           <t>1/54</t>
         </is>
       </c>
-      <c r="F57" s="64" t="inlineStr"/>
-      <c r="G57" s="64" t="inlineStr"/>
-      <c r="H57" s="64" t="inlineStr"/>
-      <c r="I57" s="64" t="inlineStr"/>
-      <c r="J57" s="64" t="inlineStr"/>
-      <c r="K57" s="64" t="inlineStr"/>
-      <c r="L57" s="64" t="n"/>
-      <c r="M57" s="64" t="n"/>
+      <c r="F57" s="65" t="inlineStr"/>
+      <c r="G57" s="65" t="inlineStr"/>
+      <c r="H57" s="65" t="inlineStr"/>
+      <c r="I57" s="65" t="inlineStr"/>
+      <c r="J57" s="65" t="inlineStr"/>
+      <c r="K57" s="65" t="inlineStr"/>
+      <c r="L57" s="65" t="n"/>
+      <c r="M57" s="65" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
